--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\streamlit_caces_dashboard_IIPA_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maritza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07006662-CB41-49A7-9AC2-A1C99AA11971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0950161F-BEED-4B0C-A0B4-622E26157EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15108" yWindow="2064" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_CLASIFICADOS" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="RES_INDEXACION" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATOS_CLASIFICADOS!$A$1:$U$930</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATOS_CLASIFICADOS!$A$1:$U$933</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13652" uniqueCount="2600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13709" uniqueCount="2606">
   <si>
     <t>AÑO</t>
   </si>
@@ -7833,10 +7833,28 @@
     <t>NAN</t>
   </si>
   <si>
-    <t>SCOPUS - WEB OF SCIENCE - DOAJ</t>
-  </si>
-  <si>
     <t>MEDICINA VETERINARIA</t>
+  </si>
+  <si>
+    <t>Impacts of climate change on extreme weather indices in Ecuadorian cities: A socioeconomic analysis</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2212094725000684?via%3Dihub</t>
+  </si>
+  <si>
+    <t>PUBLICADO</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.wace.2025.100810</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE INVESTIGACION</t>
+  </si>
+  <si>
+    <t>Healthcare attitudes toward depression in Latin America: a latent class analysis from Argentina, Chile, Ecuador, Peru, and Venezuela using the Spanish-validated revised depression attitude questionnaire (SR-DAQ)</t>
+  </si>
+  <si>
+    <t>Healthcare attitudes toward depression in Latin America: a latent class analysis from Argentina, Chile, Ecuador, Peru, and Venezuela using the Spanish-validated revised depression attitude questionnaire (SR-DAQ) | International Journal for Equity in Health | Full Text</t>
   </si>
 </sst>
 </file>
@@ -7844,7 +7862,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -7860,12 +7878,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -7895,12 +7919,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8203,10 +8228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U930"/>
+  <dimension ref="A1:U933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
-      <selection activeCell="H742" sqref="H742"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17073,7 +17098,7 @@
         <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E165" t="s">
         <v>460</v>
@@ -17126,7 +17151,7 @@
         <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E166" t="s">
         <v>460</v>
@@ -17391,7 +17416,7 @@
         <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E171" t="s">
         <v>460</v>
@@ -18595,7 +18620,7 @@
         <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E194" t="s">
         <v>460</v>
@@ -18651,7 +18676,7 @@
         <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E195" t="s">
         <v>460</v>
@@ -18707,7 +18732,7 @@
         <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E196" t="s">
         <v>460</v>
@@ -18757,7 +18782,7 @@
         <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E197" t="s">
         <v>460</v>
@@ -18807,7 +18832,7 @@
         <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E198" t="s">
         <v>460</v>
@@ -18857,7 +18882,7 @@
         <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E199" t="s">
         <v>460</v>
@@ -23312,7 +23337,7 @@
         <v>22</v>
       </c>
       <c r="D280" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E280" t="s">
         <v>460</v>
@@ -26492,7 +26517,7 @@
         <v>22</v>
       </c>
       <c r="D337" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E337" t="s">
         <v>460</v>
@@ -26896,7 +26921,7 @@
         <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E344" t="s">
         <v>460</v>
@@ -26952,7 +26977,7 @@
         <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E345" t="s">
         <v>460</v>
@@ -27412,7 +27437,7 @@
         <v>22</v>
       </c>
       <c r="D353" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E353" t="s">
         <v>460</v>
@@ -27648,7 +27673,7 @@
         <v>22</v>
       </c>
       <c r="D357" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E357" t="s">
         <v>460</v>
@@ -28391,7 +28416,7 @@
         <v>22</v>
       </c>
       <c r="D370" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E370" t="s">
         <v>460</v>
@@ -28441,7 +28466,7 @@
         <v>22</v>
       </c>
       <c r="D371" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E371" t="s">
         <v>460</v>
@@ -28491,7 +28516,7 @@
         <v>22</v>
       </c>
       <c r="D372" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E372" t="s">
         <v>460</v>
@@ -28541,7 +28566,7 @@
         <v>22</v>
       </c>
       <c r="D373" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E373" t="s">
         <v>460</v>
@@ -28644,7 +28669,7 @@
         <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E375" t="s">
         <v>460</v>
@@ -28865,7 +28890,7 @@
         <v>22</v>
       </c>
       <c r="D379" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E379" t="s">
         <v>460</v>
@@ -28921,7 +28946,7 @@
         <v>22</v>
       </c>
       <c r="D380" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E380" t="s">
         <v>460</v>
@@ -28980,7 +29005,7 @@
         <v>22</v>
       </c>
       <c r="D381" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E381" t="s">
         <v>460</v>
@@ -29039,7 +29064,7 @@
         <v>22</v>
       </c>
       <c r="D382" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E382" t="s">
         <v>460</v>
@@ -29098,7 +29123,7 @@
         <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E383" t="s">
         <v>460</v>
@@ -29991,7 +30016,7 @@
         <v>22</v>
       </c>
       <c r="D399" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E399" t="s">
         <v>460</v>
@@ -30047,7 +30072,7 @@
         <v>22</v>
       </c>
       <c r="D400" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E400" t="s">
         <v>460</v>
@@ -31037,7 +31062,7 @@
         <v>22</v>
       </c>
       <c r="D418" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E418" t="s">
         <v>460</v>
@@ -32296,7 +32321,7 @@
         <v>22</v>
       </c>
       <c r="D440" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E440" t="s">
         <v>460</v>
@@ -32352,7 +32377,7 @@
         <v>22</v>
       </c>
       <c r="D441" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E441" t="s">
         <v>460</v>
@@ -34009,7 +34034,7 @@
         <v>22</v>
       </c>
       <c r="D470" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E470" t="s">
         <v>460</v>
@@ -34186,7 +34211,7 @@
         <v>22</v>
       </c>
       <c r="D473" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E473" t="s">
         <v>460</v>
@@ -34242,7 +34267,7 @@
         <v>22</v>
       </c>
       <c r="D474" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E474" t="s">
         <v>460</v>
@@ -34298,7 +34323,7 @@
         <v>22</v>
       </c>
       <c r="D475" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E475" t="s">
         <v>460</v>
@@ -34354,7 +34379,7 @@
         <v>22</v>
       </c>
       <c r="D476" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E476" t="s">
         <v>460</v>
@@ -35156,7 +35181,7 @@
         <v>22</v>
       </c>
       <c r="D490" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E490" t="s">
         <v>460</v>
@@ -35215,7 +35240,7 @@
         <v>22</v>
       </c>
       <c r="D491" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E491" t="s">
         <v>460</v>
@@ -36438,7 +36463,7 @@
         <v>22</v>
       </c>
       <c r="D513" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E513" t="s">
         <v>460</v>
@@ -37252,7 +37277,7 @@
         <v>22</v>
       </c>
       <c r="D527" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E527" t="s">
         <v>460</v>
@@ -37541,7 +37566,7 @@
         <v>22</v>
       </c>
       <c r="D532" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E532" t="s">
         <v>460</v>
@@ -37597,7 +37622,7 @@
         <v>22</v>
       </c>
       <c r="D533" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E533" t="s">
         <v>460</v>
@@ -37653,7 +37678,7 @@
         <v>22</v>
       </c>
       <c r="D534" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E534" t="s">
         <v>460</v>
@@ -37709,7 +37734,7 @@
         <v>22</v>
       </c>
       <c r="D535" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E535" t="s">
         <v>460</v>
@@ -38275,7 +38300,7 @@
         <v>22</v>
       </c>
       <c r="D545" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E545" t="s">
         <v>460</v>
@@ -38328,7 +38353,7 @@
         <v>22</v>
       </c>
       <c r="D546" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E546" t="s">
         <v>460</v>
@@ -38381,7 +38406,7 @@
         <v>22</v>
       </c>
       <c r="D547" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E547" t="s">
         <v>460</v>
@@ -40335,6 +40360,9 @@
       <c r="R581" t="b">
         <v>0</v>
       </c>
+      <c r="S581" t="s">
+        <v>224</v>
+      </c>
       <c r="U581" t="s">
         <v>151</v>
       </c>
@@ -40391,6 +40419,9 @@
       <c r="R582" t="b">
         <v>0</v>
       </c>
+      <c r="S582" t="s">
+        <v>224</v>
+      </c>
       <c r="U582" t="s">
         <v>151</v>
       </c>
@@ -40447,6 +40478,9 @@
       <c r="R583" t="b">
         <v>0</v>
       </c>
+      <c r="S583" t="s">
+        <v>224</v>
+      </c>
       <c r="U583" t="s">
         <v>151</v>
       </c>
@@ -40503,6 +40537,9 @@
       <c r="R584" t="b">
         <v>0</v>
       </c>
+      <c r="S584" t="s">
+        <v>224</v>
+      </c>
       <c r="U584" t="s">
         <v>151</v>
       </c>
@@ -40559,6 +40596,9 @@
       <c r="R585" t="b">
         <v>0</v>
       </c>
+      <c r="S585" t="s">
+        <v>224</v>
+      </c>
       <c r="U585" t="s">
         <v>151</v>
       </c>
@@ -40727,6 +40767,9 @@
       <c r="R588" t="b">
         <v>0</v>
       </c>
+      <c r="S588" t="s">
+        <v>224</v>
+      </c>
       <c r="U588" t="s">
         <v>151</v>
       </c>
@@ -40783,6 +40826,9 @@
       <c r="R589" t="b">
         <v>0</v>
       </c>
+      <c r="S589" t="s">
+        <v>224</v>
+      </c>
       <c r="U589" t="s">
         <v>151</v>
       </c>
@@ -40839,6 +40885,9 @@
       <c r="R590" t="b">
         <v>0</v>
       </c>
+      <c r="S590" t="s">
+        <v>224</v>
+      </c>
       <c r="U590" t="s">
         <v>151</v>
       </c>
@@ -40895,6 +40944,9 @@
       <c r="R591" t="b">
         <v>0</v>
       </c>
+      <c r="S591" t="s">
+        <v>224</v>
+      </c>
       <c r="U591" t="s">
         <v>151</v>
       </c>
@@ -40951,6 +41003,9 @@
       <c r="R592" t="b">
         <v>0</v>
       </c>
+      <c r="S592" t="s">
+        <v>224</v>
+      </c>
       <c r="U592" t="s">
         <v>151</v>
       </c>
@@ -41007,6 +41062,9 @@
       <c r="R593" t="b">
         <v>0</v>
       </c>
+      <c r="S593" t="s">
+        <v>224</v>
+      </c>
       <c r="U593" t="s">
         <v>151</v>
       </c>
@@ -41063,6 +41121,9 @@
       <c r="R594" t="b">
         <v>0</v>
       </c>
+      <c r="S594" t="s">
+        <v>224</v>
+      </c>
       <c r="U594" t="s">
         <v>151</v>
       </c>
@@ -41119,6 +41180,9 @@
       <c r="R595" t="b">
         <v>0</v>
       </c>
+      <c r="S595" t="s">
+        <v>224</v>
+      </c>
       <c r="U595" t="s">
         <v>151</v>
       </c>
@@ -41175,6 +41239,9 @@
       <c r="R596" t="b">
         <v>0</v>
       </c>
+      <c r="S596" t="s">
+        <v>224</v>
+      </c>
       <c r="U596" t="s">
         <v>151</v>
       </c>
@@ -45123,7 +45190,7 @@
         <v>22</v>
       </c>
       <c r="D669" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E669" t="s">
         <v>460</v>
@@ -46588,7 +46655,7 @@
         <v>22</v>
       </c>
       <c r="D695" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E695" t="s">
         <v>460</v>
@@ -46641,7 +46708,7 @@
         <v>22</v>
       </c>
       <c r="D696" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E696" t="s">
         <v>460</v>
@@ -46694,7 +46761,7 @@
         <v>22</v>
       </c>
       <c r="D697" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E697" t="s">
         <v>460</v>
@@ -46747,7 +46814,7 @@
         <v>22</v>
       </c>
       <c r="D698" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E698" t="s">
         <v>460</v>
@@ -46800,7 +46867,7 @@
         <v>22</v>
       </c>
       <c r="D699" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E699" t="s">
         <v>460</v>
@@ -46853,7 +46920,7 @@
         <v>22</v>
       </c>
       <c r="D700" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E700" t="s">
         <v>460</v>
@@ -48819,7 +48886,7 @@
         <v>22</v>
       </c>
       <c r="D738" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E738" t="s">
         <v>460</v>
@@ -48878,7 +48945,7 @@
         <v>22</v>
       </c>
       <c r="D739" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E739" t="s">
         <v>460</v>
@@ -48934,7 +49001,7 @@
         <v>22</v>
       </c>
       <c r="D740" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E740" t="s">
         <v>460</v>
@@ -51232,13 +51299,13 @@
         <v>2120</v>
       </c>
       <c r="Q785" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="R785" t="b">
         <v>0</v>
       </c>
       <c r="S785" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="U785" t="s">
         <v>34</v>
@@ -52537,7 +52604,7 @@
         <v>22</v>
       </c>
       <c r="D809" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E809" t="s">
         <v>460</v>
@@ -52596,7 +52663,7 @@
         <v>22</v>
       </c>
       <c r="D810" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E810" t="s">
         <v>460</v>
@@ -53283,7 +53350,7 @@
         <v>22</v>
       </c>
       <c r="D822" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E822" t="s">
         <v>460</v>
@@ -53926,7 +53993,7 @@
         <v>22</v>
       </c>
       <c r="D833" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E833" t="s">
         <v>460</v>
@@ -53985,7 +54052,7 @@
         <v>22</v>
       </c>
       <c r="D834" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E834" t="s">
         <v>460</v>
@@ -54100,7 +54167,7 @@
         <v>22</v>
       </c>
       <c r="D836" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E836" t="s">
         <v>460</v>
@@ -54156,7 +54223,7 @@
         <v>22</v>
       </c>
       <c r="D837" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E837" t="s">
         <v>460</v>
@@ -54212,7 +54279,7 @@
         <v>22</v>
       </c>
       <c r="D838" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E838" t="s">
         <v>460</v>
@@ -54268,7 +54335,7 @@
         <v>22</v>
       </c>
       <c r="D839" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E839" t="s">
         <v>460</v>
@@ -54324,7 +54391,7 @@
         <v>22</v>
       </c>
       <c r="D840" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E840" t="s">
         <v>460</v>
@@ -54380,7 +54447,7 @@
         <v>22</v>
       </c>
       <c r="D841" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E841" t="s">
         <v>460</v>
@@ -54436,7 +54503,7 @@
         <v>22</v>
       </c>
       <c r="D842" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E842" t="s">
         <v>460</v>
@@ -54492,7 +54559,7 @@
         <v>22</v>
       </c>
       <c r="D843" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E843" t="s">
         <v>460</v>
@@ -55020,7 +55087,7 @@
         <v>22</v>
       </c>
       <c r="D852" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E852" t="s">
         <v>460</v>
@@ -55076,7 +55143,7 @@
         <v>22</v>
       </c>
       <c r="D853" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E853" t="s">
         <v>460</v>
@@ -55132,7 +55199,7 @@
         <v>22</v>
       </c>
       <c r="D854" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E854" t="s">
         <v>460</v>
@@ -55739,7 +55806,7 @@
         <v>22</v>
       </c>
       <c r="D865" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E865" t="s">
         <v>460</v>
@@ -57091,13 +57158,13 @@
         <v>2120</v>
       </c>
       <c r="Q890" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="R890" t="b">
         <v>0</v>
       </c>
       <c r="S890" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="U890" t="s">
         <v>34</v>
@@ -57143,8 +57210,14 @@
       <c r="O891" t="s">
         <v>2120</v>
       </c>
+      <c r="Q891" t="s">
+        <v>78</v>
+      </c>
       <c r="R891" t="b">
         <v>0</v>
+      </c>
+      <c r="S891" t="s">
+        <v>79</v>
       </c>
       <c r="U891" t="s">
         <v>34</v>
@@ -57494,7 +57567,7 @@
         <v>243</v>
       </c>
       <c r="F898" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="G898" t="s">
         <v>2465</v>
@@ -57517,14 +57590,17 @@
       <c r="O898" t="s">
         <v>2470</v>
       </c>
-      <c r="Q898" t="s">
-        <v>78</v>
+      <c r="P898" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Q898" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="R898" t="b">
         <v>0</v>
       </c>
       <c r="S898" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="U898" t="s">
         <v>34</v>
@@ -58207,7 +58283,7 @@
         <v>22</v>
       </c>
       <c r="D911" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E911" t="s">
         <v>460</v>
@@ -58528,6 +58604,9 @@
       <c r="R916" t="b">
         <v>0</v>
       </c>
+      <c r="S916" t="s">
+        <v>224</v>
+      </c>
       <c r="U916" t="s">
         <v>151</v>
       </c>
@@ -58584,6 +58663,9 @@
       <c r="R917" t="b">
         <v>0</v>
       </c>
+      <c r="S917" t="s">
+        <v>224</v>
+      </c>
       <c r="U917" t="s">
         <v>151</v>
       </c>
@@ -58640,6 +58722,9 @@
       <c r="R918" t="b">
         <v>0</v>
       </c>
+      <c r="S918" t="s">
+        <v>224</v>
+      </c>
       <c r="U918" t="s">
         <v>151</v>
       </c>
@@ -58693,6 +58778,9 @@
       <c r="R919" t="b">
         <v>0</v>
       </c>
+      <c r="S919" t="s">
+        <v>224</v>
+      </c>
       <c r="U919" t="s">
         <v>151</v>
       </c>
@@ -58746,6 +58834,9 @@
       <c r="R920" t="b">
         <v>0</v>
       </c>
+      <c r="S920" t="s">
+        <v>224</v>
+      </c>
       <c r="U920" t="s">
         <v>151</v>
       </c>
@@ -58799,6 +58890,9 @@
       <c r="R921" t="b">
         <v>0</v>
       </c>
+      <c r="S921" t="s">
+        <v>224</v>
+      </c>
       <c r="U921" t="s">
         <v>151</v>
       </c>
@@ -58932,7 +59026,7 @@
         <v>22</v>
       </c>
       <c r="D924" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E924" t="s">
         <v>460</v>
@@ -59304,8 +59398,156 @@
         <v>151</v>
       </c>
     </row>
+    <row r="931" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>2025</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C931" t="s">
+        <v>22</v>
+      </c>
+      <c r="D931" t="s">
+        <v>441</v>
+      </c>
+      <c r="E931" t="s">
+        <v>441</v>
+      </c>
+      <c r="F931" t="s">
+        <v>215</v>
+      </c>
+      <c r="G931" t="s">
+        <v>2599</v>
+      </c>
+      <c r="L931" t="s">
+        <v>2600</v>
+      </c>
+      <c r="M931" s="2">
+        <v>45937</v>
+      </c>
+      <c r="N931" t="s">
+        <v>2602</v>
+      </c>
+      <c r="P931" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q931" t="s">
+        <v>224</v>
+      </c>
+      <c r="R931" t="b">
+        <v>0</v>
+      </c>
+      <c r="S931" t="s">
+        <v>224</v>
+      </c>
+      <c r="U931" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="932" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>2025</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C932" t="s">
+        <v>22</v>
+      </c>
+      <c r="D932" t="s">
+        <v>23</v>
+      </c>
+      <c r="E932" t="s">
+        <v>243</v>
+      </c>
+      <c r="F932" t="s">
+        <v>215</v>
+      </c>
+      <c r="G932" t="s">
+        <v>2599</v>
+      </c>
+      <c r="L932" t="s">
+        <v>2600</v>
+      </c>
+      <c r="M932" s="2">
+        <v>45937</v>
+      </c>
+      <c r="N932" t="s">
+        <v>2602</v>
+      </c>
+      <c r="P932" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q932" t="s">
+        <v>224</v>
+      </c>
+      <c r="R932" t="b">
+        <v>0</v>
+      </c>
+      <c r="S932" t="s">
+        <v>224</v>
+      </c>
+      <c r="U932" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="933" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>2025</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C933" t="s">
+        <v>22</v>
+      </c>
+      <c r="D933" t="s">
+        <v>441</v>
+      </c>
+      <c r="E933" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F933" t="s">
+        <v>215</v>
+      </c>
+      <c r="G933" t="s">
+        <v>2604</v>
+      </c>
+      <c r="L933" t="s">
+        <v>2605</v>
+      </c>
+      <c r="M933" s="2">
+        <v>45931</v>
+      </c>
+      <c r="N933" t="s">
+        <v>2601</v>
+      </c>
+      <c r="P933" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q933" t="s">
+        <v>224</v>
+      </c>
+      <c r="R933" t="b">
+        <v>0</v>
+      </c>
+      <c r="S933" t="s">
+        <v>224</v>
+      </c>
+      <c r="U933" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U930" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U933" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="L931" r:id="rId1" xr:uid="{108D3581-E73C-4B5B-A924-E2102DB13313}"/>
+    <hyperlink ref="L932" r:id="rId2" xr:uid="{A242854E-552D-43FA-8B1C-E5882BADF589}"/>
+    <hyperlink ref="N931" r:id="rId3" xr:uid="{0EEB04A5-81E5-4810-9A75-61C4D0BDE986}"/>
+    <hyperlink ref="N932" r:id="rId4" xr:uid="{D7F7DF3D-21B1-49F2-B1A4-1FDC3130E4E5}"/>
+    <hyperlink ref="L933" r:id="rId5" display="https://equityhealthj.biomedcentral.com/articles/10.1186/s12939-025-02612-1" xr:uid="{43A8B414-76D0-4771-880E-F7C05F157554}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -59314,7 +59556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -59337,7 +59581,7 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -59348,7 +59592,7 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -59370,7 +59614,7 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -59381,7 +59625,7 @@
         <v>523</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -59393,9 +59637,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -59410,7 +59659,7 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -59438,7 +59687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -59455,7 +59706,7 @@
         <v>2597</v>
       </c>
       <c r="B2">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -59487,7 +59738,7 @@
         <v>231</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -59495,7 +59746,7 @@
         <v>1159</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -59505,11 +59756,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -59524,7 +59780,7 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -59532,7 +59788,7 @@
         <v>224</v>
       </c>
       <c r="B3">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -59556,7 +59812,7 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -59617,25 +59873,9 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2597</v>
+        <v>2457</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2457</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B16">
         <v>1</v>
       </c>
     </row>

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maritza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0950161F-BEED-4B0C-A0B4-622E26157EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D89D4-90D6-4092-91EA-0AEAEE999553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15108" yWindow="2064" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS_CLASIFICADOS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13709" uniqueCount="2606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13706" uniqueCount="2603">
   <si>
     <t>AÑO</t>
   </si>
@@ -7638,9 +7638,6 @@
     <t>C:\Users\Investigacion\Downloads\feduc-10-1610777.pdf</t>
   </si>
   <si>
-    <t>01/05/205</t>
-  </si>
-  <si>
     <t>https://doi.org/10.3389/feduc.2025.1610777</t>
   </si>
   <si>
@@ -7803,9 +7800,6 @@
     <t>https://www.tandfonline.com/doi/full/10.1080/2331186X.2025.2560618#abstract</t>
   </si>
   <si>
-    <t xml:space="preserve">SCOPUS - WEB OF SCIENCE - DOAJ </t>
-  </si>
-  <si>
     <t>INTEGRACIÓN DE SISTEMAS DE INFORMACIÓN CON TECNOLOGÍAS ABIERTAS PARA EL MONITOREO EN ESTACIONES METEOROLÓGICAS UNIVERSITARIAS</t>
   </si>
   <si>
@@ -7846,9 +7840,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.wace.2025.100810</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE INVESTIGACION</t>
   </si>
   <si>
     <t>Healthcare attitudes toward depression in Latin America: a latent class analysis from Argentina, Chile, Ecuador, Peru, and Venezuela using the Spanish-validated revised depression attitude questionnaire (SR-DAQ)</t>
@@ -7878,18 +7869,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -7919,13 +7904,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8230,11 +8214,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U933"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M914" sqref="M914:M915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -17098,7 +17085,7 @@
         <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E165" t="s">
         <v>460</v>
@@ -17151,7 +17138,7 @@
         <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E166" t="s">
         <v>460</v>
@@ -17416,7 +17403,7 @@
         <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E171" t="s">
         <v>460</v>
@@ -18620,7 +18607,7 @@
         <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E194" t="s">
         <v>460</v>
@@ -18676,7 +18663,7 @@
         <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E195" t="s">
         <v>460</v>
@@ -18732,7 +18719,7 @@
         <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E196" t="s">
         <v>460</v>
@@ -18782,7 +18769,7 @@
         <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E197" t="s">
         <v>460</v>
@@ -18832,7 +18819,7 @@
         <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E198" t="s">
         <v>460</v>
@@ -18882,7 +18869,7 @@
         <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E199" t="s">
         <v>460</v>
@@ -23337,7 +23324,7 @@
         <v>22</v>
       </c>
       <c r="D280" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E280" t="s">
         <v>460</v>
@@ -26517,7 +26504,7 @@
         <v>22</v>
       </c>
       <c r="D337" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E337" t="s">
         <v>460</v>
@@ -26921,7 +26908,7 @@
         <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E344" t="s">
         <v>460</v>
@@ -26977,7 +26964,7 @@
         <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E345" t="s">
         <v>460</v>
@@ -27437,7 +27424,7 @@
         <v>22</v>
       </c>
       <c r="D353" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E353" t="s">
         <v>460</v>
@@ -27673,7 +27660,7 @@
         <v>22</v>
       </c>
       <c r="D357" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E357" t="s">
         <v>460</v>
@@ -28416,7 +28403,7 @@
         <v>22</v>
       </c>
       <c r="D370" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E370" t="s">
         <v>460</v>
@@ -28466,7 +28453,7 @@
         <v>22</v>
       </c>
       <c r="D371" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E371" t="s">
         <v>460</v>
@@ -28516,7 +28503,7 @@
         <v>22</v>
       </c>
       <c r="D372" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E372" t="s">
         <v>460</v>
@@ -28566,7 +28553,7 @@
         <v>22</v>
       </c>
       <c r="D373" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E373" t="s">
         <v>460</v>
@@ -28669,7 +28656,7 @@
         <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E375" t="s">
         <v>460</v>
@@ -28890,7 +28877,7 @@
         <v>22</v>
       </c>
       <c r="D379" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E379" t="s">
         <v>460</v>
@@ -28946,7 +28933,7 @@
         <v>22</v>
       </c>
       <c r="D380" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E380" t="s">
         <v>460</v>
@@ -29005,7 +28992,7 @@
         <v>22</v>
       </c>
       <c r="D381" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E381" t="s">
         <v>460</v>
@@ -29064,7 +29051,7 @@
         <v>22</v>
       </c>
       <c r="D382" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E382" t="s">
         <v>460</v>
@@ -29123,7 +29110,7 @@
         <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E383" t="s">
         <v>460</v>
@@ -30016,7 +30003,7 @@
         <v>22</v>
       </c>
       <c r="D399" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E399" t="s">
         <v>460</v>
@@ -30072,7 +30059,7 @@
         <v>22</v>
       </c>
       <c r="D400" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E400" t="s">
         <v>460</v>
@@ -31062,7 +31049,7 @@
         <v>22</v>
       </c>
       <c r="D418" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E418" t="s">
         <v>460</v>
@@ -32321,7 +32308,7 @@
         <v>22</v>
       </c>
       <c r="D440" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E440" t="s">
         <v>460</v>
@@ -32377,7 +32364,7 @@
         <v>22</v>
       </c>
       <c r="D441" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E441" t="s">
         <v>460</v>
@@ -34034,7 +34021,7 @@
         <v>22</v>
       </c>
       <c r="D470" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E470" t="s">
         <v>460</v>
@@ -34211,7 +34198,7 @@
         <v>22</v>
       </c>
       <c r="D473" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E473" t="s">
         <v>460</v>
@@ -34267,7 +34254,7 @@
         <v>22</v>
       </c>
       <c r="D474" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E474" t="s">
         <v>460</v>
@@ -34323,7 +34310,7 @@
         <v>22</v>
       </c>
       <c r="D475" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E475" t="s">
         <v>460</v>
@@ -34379,7 +34366,7 @@
         <v>22</v>
       </c>
       <c r="D476" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E476" t="s">
         <v>460</v>
@@ -35181,7 +35168,7 @@
         <v>22</v>
       </c>
       <c r="D490" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E490" t="s">
         <v>460</v>
@@ -35240,7 +35227,7 @@
         <v>22</v>
       </c>
       <c r="D491" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E491" t="s">
         <v>460</v>
@@ -36463,7 +36450,7 @@
         <v>22</v>
       </c>
       <c r="D513" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E513" t="s">
         <v>460</v>
@@ -37277,7 +37264,7 @@
         <v>22</v>
       </c>
       <c r="D527" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E527" t="s">
         <v>460</v>
@@ -37566,7 +37553,7 @@
         <v>22</v>
       </c>
       <c r="D532" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E532" t="s">
         <v>460</v>
@@ -37622,7 +37609,7 @@
         <v>22</v>
       </c>
       <c r="D533" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E533" t="s">
         <v>460</v>
@@ -37678,7 +37665,7 @@
         <v>22</v>
       </c>
       <c r="D534" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E534" t="s">
         <v>460</v>
@@ -37734,7 +37721,7 @@
         <v>22</v>
       </c>
       <c r="D535" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E535" t="s">
         <v>460</v>
@@ -38300,7 +38287,7 @@
         <v>22</v>
       </c>
       <c r="D545" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E545" t="s">
         <v>460</v>
@@ -38353,7 +38340,7 @@
         <v>22</v>
       </c>
       <c r="D546" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E546" t="s">
         <v>460</v>
@@ -38406,7 +38393,7 @@
         <v>22</v>
       </c>
       <c r="D547" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E547" t="s">
         <v>460</v>
@@ -45190,7 +45177,7 @@
         <v>22</v>
       </c>
       <c r="D669" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E669" t="s">
         <v>460</v>
@@ -46655,7 +46642,7 @@
         <v>22</v>
       </c>
       <c r="D695" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E695" t="s">
         <v>460</v>
@@ -46708,7 +46695,7 @@
         <v>22</v>
       </c>
       <c r="D696" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E696" t="s">
         <v>460</v>
@@ -46761,7 +46748,7 @@
         <v>22</v>
       </c>
       <c r="D697" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E697" t="s">
         <v>460</v>
@@ -46814,7 +46801,7 @@
         <v>22</v>
       </c>
       <c r="D698" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E698" t="s">
         <v>460</v>
@@ -46867,7 +46854,7 @@
         <v>22</v>
       </c>
       <c r="D699" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E699" t="s">
         <v>460</v>
@@ -46920,7 +46907,7 @@
         <v>22</v>
       </c>
       <c r="D700" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E700" t="s">
         <v>460</v>
@@ -48886,7 +48873,7 @@
         <v>22</v>
       </c>
       <c r="D738" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E738" t="s">
         <v>460</v>
@@ -48945,7 +48932,7 @@
         <v>22</v>
       </c>
       <c r="D739" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E739" t="s">
         <v>460</v>
@@ -49001,7 +48988,7 @@
         <v>22</v>
       </c>
       <c r="D740" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E740" t="s">
         <v>460</v>
@@ -52604,7 +52591,7 @@
         <v>22</v>
       </c>
       <c r="D809" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E809" t="s">
         <v>460</v>
@@ -52640,7 +52627,7 @@
         <v>231</v>
       </c>
       <c r="Q809" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R809" t="b">
         <v>0</v>
@@ -52663,7 +52650,7 @@
         <v>22</v>
       </c>
       <c r="D810" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E810" t="s">
         <v>460</v>
@@ -52699,7 +52686,7 @@
         <v>231</v>
       </c>
       <c r="Q810" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R810" t="b">
         <v>0</v>
@@ -52755,7 +52742,7 @@
         <v>353</v>
       </c>
       <c r="Q811" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R811" t="b">
         <v>0</v>
@@ -52811,7 +52798,7 @@
         <v>353</v>
       </c>
       <c r="Q812" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R812" t="b">
         <v>0</v>
@@ -53150,7 +53137,7 @@
         <v>1001</v>
       </c>
       <c r="Q818" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R818" t="b">
         <v>0</v>
@@ -53209,7 +53196,7 @@
         <v>1001</v>
       </c>
       <c r="Q819" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R819" t="b">
         <v>0</v>
@@ -53268,7 +53255,7 @@
         <v>1001</v>
       </c>
       <c r="Q820" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R820" t="b">
         <v>0</v>
@@ -53327,7 +53314,7 @@
         <v>231</v>
       </c>
       <c r="Q821" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R821" t="b">
         <v>0</v>
@@ -53350,7 +53337,7 @@
         <v>22</v>
       </c>
       <c r="D822" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E822" t="s">
         <v>460</v>
@@ -53386,7 +53373,7 @@
         <v>1001</v>
       </c>
       <c r="Q822" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R822" t="b">
         <v>0</v>
@@ -53445,7 +53432,7 @@
         <v>1001</v>
       </c>
       <c r="Q823" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R823" t="b">
         <v>0</v>
@@ -53504,7 +53491,7 @@
         <v>1001</v>
       </c>
       <c r="Q824" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R824" t="b">
         <v>0</v>
@@ -53563,7 +53550,7 @@
         <v>1001</v>
       </c>
       <c r="Q825" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R825" t="b">
         <v>0</v>
@@ -53622,7 +53609,7 @@
         <v>1001</v>
       </c>
       <c r="Q826" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R826" t="b">
         <v>0</v>
@@ -53681,7 +53668,7 @@
         <v>223</v>
       </c>
       <c r="Q827" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R827" t="b">
         <v>0</v>
@@ -53740,7 +53727,7 @@
         <v>223</v>
       </c>
       <c r="Q828" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R828" t="b">
         <v>0</v>
@@ -53799,7 +53786,7 @@
         <v>223</v>
       </c>
       <c r="Q829" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R829" t="b">
         <v>0</v>
@@ -53858,7 +53845,7 @@
         <v>223</v>
       </c>
       <c r="Q830" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R830" t="b">
         <v>0</v>
@@ -53917,7 +53904,7 @@
         <v>223</v>
       </c>
       <c r="Q831" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R831" t="b">
         <v>0</v>
@@ -53993,7 +53980,7 @@
         <v>22</v>
       </c>
       <c r="D833" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E833" t="s">
         <v>460</v>
@@ -54029,7 +54016,7 @@
         <v>1001</v>
       </c>
       <c r="Q833" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R833" t="b">
         <v>0</v>
@@ -54052,7 +54039,7 @@
         <v>22</v>
       </c>
       <c r="D834" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E834" t="s">
         <v>460</v>
@@ -54088,7 +54075,7 @@
         <v>231</v>
       </c>
       <c r="Q834" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R834" t="b">
         <v>0</v>
@@ -54167,7 +54154,7 @@
         <v>22</v>
       </c>
       <c r="D836" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E836" t="s">
         <v>460</v>
@@ -54223,7 +54210,7 @@
         <v>22</v>
       </c>
       <c r="D837" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E837" t="s">
         <v>460</v>
@@ -54279,7 +54266,7 @@
         <v>22</v>
       </c>
       <c r="D838" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E838" t="s">
         <v>460</v>
@@ -54335,7 +54322,7 @@
         <v>22</v>
       </c>
       <c r="D839" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E839" t="s">
         <v>460</v>
@@ -54391,7 +54378,7 @@
         <v>22</v>
       </c>
       <c r="D840" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E840" t="s">
         <v>460</v>
@@ -54447,7 +54434,7 @@
         <v>22</v>
       </c>
       <c r="D841" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E841" t="s">
         <v>460</v>
@@ -54503,7 +54490,7 @@
         <v>22</v>
       </c>
       <c r="D842" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E842" t="s">
         <v>460</v>
@@ -54559,7 +54546,7 @@
         <v>22</v>
       </c>
       <c r="D843" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E843" t="s">
         <v>460</v>
@@ -54651,7 +54638,7 @@
         <v>353</v>
       </c>
       <c r="Q844" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R844" t="b">
         <v>0</v>
@@ -54710,7 +54697,7 @@
         <v>1001</v>
       </c>
       <c r="Q845" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R845" t="b">
         <v>0</v>
@@ -54769,7 +54756,7 @@
         <v>1001</v>
       </c>
       <c r="Q846" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R846" t="b">
         <v>0</v>
@@ -54828,7 +54815,7 @@
         <v>1001</v>
       </c>
       <c r="Q847" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R847" t="b">
         <v>0</v>
@@ -54887,7 +54874,7 @@
         <v>223</v>
       </c>
       <c r="Q848" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R848" t="b">
         <v>0</v>
@@ -54946,7 +54933,7 @@
         <v>223</v>
       </c>
       <c r="Q849" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R849" t="b">
         <v>0</v>
@@ -55005,7 +54992,7 @@
         <v>223</v>
       </c>
       <c r="Q850" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R850" t="b">
         <v>0</v>
@@ -55064,7 +55051,7 @@
         <v>223</v>
       </c>
       <c r="Q851" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R851" t="b">
         <v>0</v>
@@ -55087,7 +55074,7 @@
         <v>22</v>
       </c>
       <c r="D852" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E852" t="s">
         <v>460</v>
@@ -55143,7 +55130,7 @@
         <v>22</v>
       </c>
       <c r="D853" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E853" t="s">
         <v>460</v>
@@ -55199,7 +55186,7 @@
         <v>22</v>
       </c>
       <c r="D854" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E854" t="s">
         <v>460</v>
@@ -55235,7 +55222,7 @@
         <v>1001</v>
       </c>
       <c r="Q854" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R854" t="b">
         <v>0</v>
@@ -55394,7 +55381,7 @@
         <v>353</v>
       </c>
       <c r="Q857" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R857" t="b">
         <v>0</v>
@@ -55450,7 +55437,7 @@
         <v>353</v>
       </c>
       <c r="Q858" t="s">
-        <v>2360</v>
+        <v>224</v>
       </c>
       <c r="R858" t="b">
         <v>0</v>
@@ -55506,7 +55493,7 @@
         <v>223</v>
       </c>
       <c r="Q859" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R859" t="b">
         <v>0</v>
@@ -55562,7 +55549,7 @@
         <v>223</v>
       </c>
       <c r="Q860" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R860" t="b">
         <v>0</v>
@@ -55618,7 +55605,7 @@
         <v>223</v>
       </c>
       <c r="Q861" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R861" t="b">
         <v>0</v>
@@ -55674,7 +55661,7 @@
         <v>223</v>
       </c>
       <c r="Q862" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R862" t="b">
         <v>0</v>
@@ -55730,7 +55717,7 @@
         <v>1001</v>
       </c>
       <c r="Q863" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R863" t="b">
         <v>0</v>
@@ -55783,7 +55770,7 @@
         <v>1001</v>
       </c>
       <c r="Q864" t="s">
-        <v>1485</v>
+        <v>224</v>
       </c>
       <c r="R864" t="b">
         <v>0</v>
@@ -55806,7 +55793,7 @@
         <v>22</v>
       </c>
       <c r="D865" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E865" t="s">
         <v>460</v>
@@ -57482,7 +57469,7 @@
         <v>1001</v>
       </c>
       <c r="Q896" t="s">
-        <v>2457</v>
+        <v>224</v>
       </c>
       <c r="R896" t="b">
         <v>0</v>
@@ -57593,7 +57580,7 @@
       <c r="P898" t="s">
         <v>1159</v>
       </c>
-      <c r="Q898" s="3" t="s">
+      <c r="Q898" t="s">
         <v>224</v>
       </c>
       <c r="R898" t="b">
@@ -58283,7 +58270,7 @@
         <v>22</v>
       </c>
       <c r="D911" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E911" t="s">
         <v>460</v>
@@ -58356,14 +58343,14 @@
       <c r="L912" t="s">
         <v>2532</v>
       </c>
-      <c r="M912" t="s">
+      <c r="M912" s="2">
+        <v>45778</v>
+      </c>
+      <c r="N912" t="s">
         <v>2533</v>
       </c>
-      <c r="N912" t="s">
+      <c r="O912" t="s">
         <v>2534</v>
-      </c>
-      <c r="O912" t="s">
-        <v>2535</v>
       </c>
       <c r="P912" t="s">
         <v>231</v>
@@ -58386,7 +58373,7 @@
         <v>2025</v>
       </c>
       <c r="B913" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C913" t="s">
         <v>2298</v>
@@ -58401,28 +58388,28 @@
         <v>215</v>
       </c>
       <c r="G913" t="s">
+        <v>2536</v>
+      </c>
+      <c r="H913" t="s">
         <v>2537</v>
       </c>
-      <c r="H913" t="s">
+      <c r="I913" t="s">
         <v>2538</v>
       </c>
-      <c r="I913" t="s">
+      <c r="J913" t="s">
         <v>2539</v>
       </c>
-      <c r="J913" t="s">
+      <c r="L913" t="s">
         <v>2540</v>
-      </c>
-      <c r="L913" t="s">
-        <v>2541</v>
       </c>
       <c r="M913" s="2">
         <v>45883</v>
       </c>
       <c r="N913" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="O913" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="P913" t="s">
         <v>353</v>
@@ -58445,7 +58432,7 @@
         <v>2025</v>
       </c>
       <c r="B914" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C914" t="s">
         <v>2298</v>
@@ -58460,25 +58447,25 @@
         <v>215</v>
       </c>
       <c r="G914" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H914" t="s">
         <v>2544</v>
       </c>
-      <c r="H914" t="s">
+      <c r="J914" t="s">
         <v>2545</v>
       </c>
-      <c r="J914" t="s">
+      <c r="L914" t="s">
         <v>2546</v>
       </c>
-      <c r="L914" t="s">
+      <c r="M914" s="2">
+        <v>45778</v>
+      </c>
+      <c r="N914" t="s">
         <v>2547</v>
       </c>
-      <c r="M914" t="s">
-        <v>2533</v>
-      </c>
-      <c r="N914" t="s">
+      <c r="O914" t="s">
         <v>2548</v>
-      </c>
-      <c r="O914" t="s">
-        <v>2549</v>
       </c>
       <c r="P914" t="s">
         <v>231</v>
@@ -58501,7 +58488,7 @@
         <v>2025</v>
       </c>
       <c r="B915" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C915" t="s">
         <v>2298</v>
@@ -58516,25 +58503,25 @@
         <v>215</v>
       </c>
       <c r="G915" t="s">
+        <v>2550</v>
+      </c>
+      <c r="H915" t="s">
         <v>2551</v>
       </c>
-      <c r="H915" t="s">
+      <c r="I915" t="s">
         <v>2552</v>
       </c>
-      <c r="I915" t="s">
+      <c r="J915" t="s">
         <v>2553</v>
       </c>
-      <c r="J915" t="s">
+      <c r="M915" s="2">
+        <v>45778</v>
+      </c>
+      <c r="N915" t="s">
         <v>2554</v>
       </c>
-      <c r="M915" t="s">
-        <v>2533</v>
-      </c>
-      <c r="N915" t="s">
+      <c r="O915" t="s">
         <v>2555</v>
-      </c>
-      <c r="O915" t="s">
-        <v>2556</v>
       </c>
       <c r="P915" t="s">
         <v>231</v>
@@ -58572,28 +58559,28 @@
         <v>163</v>
       </c>
       <c r="G916" t="s">
+        <v>2556</v>
+      </c>
+      <c r="H916" t="s">
         <v>2557</v>
       </c>
-      <c r="H916" t="s">
+      <c r="I916" t="s">
         <v>2558</v>
       </c>
-      <c r="I916" t="s">
+      <c r="K916" t="s">
         <v>2559</v>
       </c>
-      <c r="K916" t="s">
+      <c r="L916" t="s">
         <v>2560</v>
-      </c>
-      <c r="L916" t="s">
-        <v>2561</v>
       </c>
       <c r="M916" s="2">
         <v>45926</v>
       </c>
       <c r="N916" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O916" t="s">
         <v>2562</v>
-      </c>
-      <c r="O916" t="s">
-        <v>2563</v>
       </c>
       <c r="P916" t="s">
         <v>223</v>
@@ -58631,28 +58618,28 @@
         <v>163</v>
       </c>
       <c r="G917" t="s">
+        <v>2556</v>
+      </c>
+      <c r="H917" t="s">
         <v>2557</v>
       </c>
-      <c r="H917" t="s">
+      <c r="I917" t="s">
         <v>2558</v>
       </c>
-      <c r="I917" t="s">
+      <c r="K917" t="s">
         <v>2559</v>
       </c>
-      <c r="K917" t="s">
+      <c r="L917" t="s">
         <v>2560</v>
-      </c>
-      <c r="L917" t="s">
-        <v>2561</v>
       </c>
       <c r="M917" s="2">
         <v>45926</v>
       </c>
       <c r="N917" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O917" t="s">
         <v>2562</v>
-      </c>
-      <c r="O917" t="s">
-        <v>2563</v>
       </c>
       <c r="P917" t="s">
         <v>223</v>
@@ -58690,28 +58677,28 @@
         <v>163</v>
       </c>
       <c r="G918" t="s">
+        <v>2556</v>
+      </c>
+      <c r="H918" t="s">
         <v>2557</v>
       </c>
-      <c r="H918" t="s">
+      <c r="I918" t="s">
         <v>2558</v>
       </c>
-      <c r="I918" t="s">
+      <c r="K918" t="s">
         <v>2559</v>
       </c>
-      <c r="K918" t="s">
+      <c r="L918" t="s">
         <v>2560</v>
-      </c>
-      <c r="L918" t="s">
-        <v>2561</v>
       </c>
       <c r="M918" s="2">
         <v>45926</v>
       </c>
       <c r="N918" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O918" t="s">
         <v>2562</v>
-      </c>
-      <c r="O918" t="s">
-        <v>2563</v>
       </c>
       <c r="P918" t="s">
         <v>223</v>
@@ -58749,25 +58736,25 @@
         <v>163</v>
       </c>
       <c r="G919" t="s">
+        <v>2563</v>
+      </c>
+      <c r="I919" t="s">
         <v>2564</v>
       </c>
-      <c r="I919" t="s">
-        <v>2565</v>
-      </c>
       <c r="K919" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L919" t="s">
         <v>2560</v>
-      </c>
-      <c r="L919" t="s">
-        <v>2561</v>
       </c>
       <c r="M919" s="2">
         <v>45926</v>
       </c>
       <c r="N919" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O919" t="s">
         <v>2562</v>
-      </c>
-      <c r="O919" t="s">
-        <v>2563</v>
       </c>
       <c r="P919" t="s">
         <v>223</v>
@@ -58805,25 +58792,25 @@
         <v>163</v>
       </c>
       <c r="G920" t="s">
+        <v>2563</v>
+      </c>
+      <c r="I920" t="s">
         <v>2564</v>
       </c>
-      <c r="I920" t="s">
-        <v>2565</v>
-      </c>
       <c r="K920" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L920" t="s">
         <v>2560</v>
-      </c>
-      <c r="L920" t="s">
-        <v>2561</v>
       </c>
       <c r="M920" s="2">
         <v>45926</v>
       </c>
       <c r="N920" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O920" t="s">
         <v>2562</v>
-      </c>
-      <c r="O920" t="s">
-        <v>2563</v>
       </c>
       <c r="P920" t="s">
         <v>223</v>
@@ -58855,31 +58842,31 @@
         <v>23</v>
       </c>
       <c r="E921" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F921" t="s">
         <v>163</v>
       </c>
       <c r="G921" t="s">
+        <v>2563</v>
+      </c>
+      <c r="I921" t="s">
         <v>2564</v>
       </c>
-      <c r="I921" t="s">
-        <v>2565</v>
-      </c>
       <c r="K921" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L921" t="s">
         <v>2560</v>
-      </c>
-      <c r="L921" t="s">
-        <v>2561</v>
       </c>
       <c r="M921" s="2">
         <v>45926</v>
       </c>
       <c r="N921" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O921" t="s">
         <v>2562</v>
-      </c>
-      <c r="O921" t="s">
-        <v>2563</v>
       </c>
       <c r="P921" t="s">
         <v>223</v>
@@ -58902,7 +58889,7 @@
         <v>2025</v>
       </c>
       <c r="B922" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C922" t="s">
         <v>2298</v>
@@ -58917,28 +58904,28 @@
         <v>215</v>
       </c>
       <c r="G922" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="H922" t="s">
         <v>1472</v>
       </c>
       <c r="I922" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="J922" t="s">
         <v>900</v>
       </c>
       <c r="L922" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="M922" s="2">
         <v>45877</v>
       </c>
       <c r="N922" t="s">
+        <v>2569</v>
+      </c>
+      <c r="O922" t="s">
         <v>2570</v>
-      </c>
-      <c r="O922" t="s">
-        <v>2571</v>
       </c>
       <c r="P922" t="s">
         <v>353</v>
@@ -58961,7 +58948,7 @@
         <v>2025</v>
       </c>
       <c r="B923" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C923" t="s">
         <v>2298</v>
@@ -58976,28 +58963,28 @@
         <v>215</v>
       </c>
       <c r="G923" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="H923" t="s">
         <v>1472</v>
       </c>
       <c r="I923" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="J923" t="s">
         <v>900</v>
       </c>
       <c r="L923" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="M923" s="2">
         <v>45877</v>
       </c>
       <c r="N923" t="s">
+        <v>2569</v>
+      </c>
+      <c r="O923" t="s">
         <v>2570</v>
-      </c>
-      <c r="O923" t="s">
-        <v>2571</v>
       </c>
       <c r="P923" t="s">
         <v>353</v>
@@ -59026,7 +59013,7 @@
         <v>22</v>
       </c>
       <c r="D924" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E924" t="s">
         <v>460</v>
@@ -59035,28 +59022,28 @@
         <v>215</v>
       </c>
       <c r="G924" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H924" t="s">
         <v>2573</v>
       </c>
-      <c r="H924" t="s">
+      <c r="I924" t="s">
         <v>2574</v>
       </c>
-      <c r="I924" t="s">
+      <c r="J924" t="s">
         <v>2575</v>
       </c>
-      <c r="J924" t="s">
+      <c r="L924" t="s">
         <v>2576</v>
-      </c>
-      <c r="L924" t="s">
-        <v>2577</v>
       </c>
       <c r="M924" s="2">
         <v>45797</v>
       </c>
       <c r="N924" t="s">
+        <v>2577</v>
+      </c>
+      <c r="O924" t="s">
         <v>2578</v>
-      </c>
-      <c r="O924" t="s">
-        <v>2579</v>
       </c>
       <c r="P924" t="s">
         <v>223</v>
@@ -59079,7 +59066,7 @@
         <v>2025</v>
       </c>
       <c r="B925" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C925" t="s">
         <v>2298</v>
@@ -59088,40 +59075,40 @@
         <v>23</v>
       </c>
       <c r="E925" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F925" t="s">
         <v>215</v>
       </c>
       <c r="G925" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H925" t="s">
         <v>2581</v>
       </c>
-      <c r="H925" t="s">
+      <c r="I925" t="s">
         <v>2582</v>
       </c>
-      <c r="I925" t="s">
+      <c r="J925" t="s">
         <v>2583</v>
       </c>
-      <c r="J925" t="s">
+      <c r="L925" t="s">
         <v>2584</v>
-      </c>
-      <c r="L925" t="s">
-        <v>2585</v>
       </c>
       <c r="M925" s="2">
         <v>45920</v>
       </c>
       <c r="N925" t="s">
+        <v>2585</v>
+      </c>
+      <c r="O925" t="s">
         <v>2586</v>
-      </c>
-      <c r="O925" t="s">
-        <v>2587</v>
       </c>
       <c r="P925" t="s">
         <v>1001</v>
       </c>
       <c r="Q925" t="s">
-        <v>2588</v>
+        <v>224</v>
       </c>
       <c r="R925" t="b">
         <v>0</v>
@@ -59147,31 +59134,31 @@
         <v>23</v>
       </c>
       <c r="E926" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F926" t="s">
         <v>151</v>
       </c>
       <c r="G926" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H926" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K926" t="s">
         <v>2589</v>
       </c>
-      <c r="H926" t="s">
+      <c r="L926" t="s">
         <v>2590</v>
-      </c>
-      <c r="K926" t="s">
-        <v>2591</v>
-      </c>
-      <c r="L926" t="s">
-        <v>2592</v>
       </c>
       <c r="M926" s="2">
         <v>45918</v>
       </c>
       <c r="N926" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="O926" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="Q926" t="s">
         <v>2404</v>
@@ -59200,31 +59187,31 @@
         <v>23</v>
       </c>
       <c r="E927" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F927" t="s">
         <v>151</v>
       </c>
       <c r="G927" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H927" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K927" t="s">
         <v>2589</v>
       </c>
-      <c r="H927" t="s">
+      <c r="L927" t="s">
         <v>2590</v>
-      </c>
-      <c r="K927" t="s">
-        <v>2591</v>
-      </c>
-      <c r="L927" t="s">
-        <v>2592</v>
       </c>
       <c r="M927" s="2">
         <v>45918</v>
       </c>
       <c r="N927" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="O927" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="Q927" t="s">
         <v>2404</v>
@@ -59253,31 +59240,31 @@
         <v>23</v>
       </c>
       <c r="E928" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F928" t="s">
         <v>151</v>
       </c>
       <c r="G928" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H928" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K928" t="s">
         <v>2589</v>
       </c>
-      <c r="H928" t="s">
+      <c r="L928" t="s">
         <v>2590</v>
-      </c>
-      <c r="K928" t="s">
-        <v>2591</v>
-      </c>
-      <c r="L928" t="s">
-        <v>2592</v>
       </c>
       <c r="M928" s="2">
         <v>45918</v>
       </c>
       <c r="N928" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="O928" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="Q928" t="s">
         <v>2404</v>
@@ -59297,7 +59284,7 @@
         <v>2025</v>
       </c>
       <c r="B929" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="C929" t="s">
         <v>22</v>
@@ -59306,31 +59293,31 @@
         <v>23</v>
       </c>
       <c r="E929" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F929" t="s">
         <v>151</v>
       </c>
       <c r="G929" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H929" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K929" t="s">
         <v>2589</v>
       </c>
-      <c r="H929" t="s">
+      <c r="L929" t="s">
         <v>2590</v>
-      </c>
-      <c r="K929" t="s">
-        <v>2591</v>
-      </c>
-      <c r="L929" t="s">
-        <v>2592</v>
       </c>
       <c r="M929" s="2">
         <v>45918</v>
       </c>
       <c r="N929" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="O929" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="Q929" t="s">
         <v>2404</v>
@@ -59359,31 +59346,31 @@
         <v>23</v>
       </c>
       <c r="E930" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F930" t="s">
         <v>151</v>
       </c>
       <c r="G930" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H930" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K930" t="s">
         <v>2589</v>
       </c>
-      <c r="H930" t="s">
+      <c r="L930" t="s">
         <v>2590</v>
-      </c>
-      <c r="K930" t="s">
-        <v>2591</v>
-      </c>
-      <c r="L930" t="s">
-        <v>2592</v>
       </c>
       <c r="M930" s="2">
         <v>45918</v>
       </c>
       <c r="N930" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="O930" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="Q930" t="s">
         <v>2404</v>
@@ -59418,16 +59405,16 @@
         <v>215</v>
       </c>
       <c r="G931" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="L931" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="M931" s="2">
         <v>45937</v>
       </c>
       <c r="N931" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="P931" t="s">
         <v>231</v>
@@ -59465,16 +59452,16 @@
         <v>215</v>
       </c>
       <c r="G932" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="L932" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="M932" s="2">
         <v>45937</v>
       </c>
       <c r="N932" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="P932" t="s">
         <v>231</v>
@@ -59506,22 +59493,22 @@
         <v>441</v>
       </c>
       <c r="E933" t="s">
-        <v>2603</v>
+        <v>441</v>
       </c>
       <c r="F933" t="s">
         <v>215</v>
       </c>
       <c r="G933" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="L933" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="M933" s="2">
         <v>45931</v>
       </c>
       <c r="N933" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="P933" t="s">
         <v>231</v>
@@ -59540,7 +59527,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U933" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="L931" r:id="rId1" xr:uid="{108D3581-E73C-4B5B-A924-E2102DB13313}"/>
     <hyperlink ref="L932" r:id="rId2" xr:uid="{A242854E-552D-43FA-8B1C-E5882BADF589}"/>
@@ -59570,7 +59556,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -59651,7 +59637,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -59698,12 +59684,12 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B2">
         <v>695</v>
@@ -59758,7 +59744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -59772,7 +59758,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uagrariaec-my.sharepoint.com/personal/maguirre_uagraria_edu_ec/Documents/DASHBOARD INVESTIGACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA673163-DD2B-4235-A50E-E9EC9721A832}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BFCD4A-A76C-4383-8E06-EEEA0839C36D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7899,8 +7899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M928" workbookViewId="0">
-      <selection activeCell="H322" sqref="A322:XFD323"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142:D588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11042,7 +11042,7 @@
         <v>2360</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -16675,7 +16675,7 @@
         <v>2360</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>24</v>
@@ -16803,7 +16803,7 @@
         <v>2360</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>24</v>
@@ -17187,7 +17187,7 @@
         <v>2360</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>24</v>
@@ -17954,7 +17954,7 @@
         <v>23</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>348</v>
@@ -18016,7 +18016,7 @@
         <v>23</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>348</v>
@@ -18078,7 +18078,7 @@
         <v>23</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>348</v>
@@ -21287,7 +21287,7 @@
         <v>23</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>348</v>
@@ -21348,7 +21348,7 @@
         <v>23</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>348</v>
@@ -44366,7 +44366,7 @@
         <v>2360</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>24</v>

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uagrariaec-my.sharepoint.com/personal/maguirre_uagraria_edu_ec/Documents/DASHBOARD INVESTIGACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05075275-FEB3-40DA-AC71-A76295EC5024}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F82FBDC-7F1B-4E91-A4FD-2C7644F35373}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7998,8 +7998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159:F940"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V949" sqref="V949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18069,7 +18069,7 @@
         <v>178</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="T168" s="2"/>
       <c r="U168" s="2" t="s">
@@ -47841,7 +47841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="673" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A673" s="2">
         <v>2024</v>
       </c>
@@ -47900,7 +47900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="674" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <v>2024</v>
       </c>
@@ -47959,7 +47959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="675" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A675" s="2">
         <v>2024</v>
       </c>
@@ -48018,7 +48018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="676" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <v>2024</v>
       </c>
@@ -48077,7 +48077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="677" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <v>2024</v>
       </c>
@@ -48133,8 +48133,11 @@
       <c r="U677" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="678" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V677" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A678" s="2">
         <v>2024</v>
       </c>
@@ -48193,7 +48196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="679" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <v>2024</v>
       </c>
@@ -48252,7 +48255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="680" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A680" s="2">
         <v>2024</v>
       </c>
@@ -48311,7 +48314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="681" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A681" s="2">
         <v>2024</v>
       </c>
@@ -48370,7 +48373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="682" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A682" s="2">
         <v>2024</v>
       </c>
@@ -48429,7 +48432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A683" s="2">
         <v>2024</v>
       </c>
@@ -48488,7 +48491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="684" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A684" s="2">
         <v>2024</v>
       </c>
@@ -48549,7 +48552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="685" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A685" s="2">
         <v>2024</v>
       </c>
@@ -48610,7 +48613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A686" s="2">
         <v>2024</v>
       </c>
@@ -48671,7 +48674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="687" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A687" s="2">
         <v>2024</v>
       </c>
@@ -48732,7 +48735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="688" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A688" s="2">
         <v>2024</v>
       </c>

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uagrariaec-my.sharepoint.com/personal/maguirre_uagraria_edu_ec/Documents/DASHBOARD INVESTIGACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F82FBDC-7F1B-4E91-A4FD-2C7644F35373}"/>
+  <xr:revisionPtr revIDLastSave="520" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1AA8A39-4649-44CF-B223-89E42AA475FE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14916" uniqueCount="2498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14916" uniqueCount="2496">
   <si>
     <t>AÑO</t>
   </si>
@@ -7346,9 +7346,6 @@
     <t>https://www.sciencedirect.com/science/article/abs/pii/S0001706X24001608?via%3Dihub</t>
   </si>
   <si>
-    <t>ARTÍCULO DE IMPACTO</t>
-  </si>
-  <si>
     <t>MAPPING SOIL EROSION AND ECOSYSTEM SERVICE LOSS: INTEGRATING RUSLE AND NDVI METRICS TO SUPPORT CONSERVATION IN EL CAJAS NATIONAL PARK, ECUADOR;</t>
   </si>
   <si>
@@ -7411,9 +7408,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1007/978-3-031-93109-3_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILAGRO </t>
   </si>
   <si>
     <t>DETECTION OF DIAPORTHE sp. IN CACAO PLANTS (cv. CCN 51) IN GUAYAS PROVINCE, ECUADOR</t>
@@ -7998,8 +7992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V942"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V949" sqref="V949"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9583,7 +9577,7 @@
         <v>95</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>96</v>
@@ -9642,7 +9636,7 @@
         <v>95</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>96</v>
@@ -15063,7 +15057,7 @@
         <v>262</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>263</v>
@@ -15122,7 +15116,7 @@
         <v>262</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>263</v>
@@ -15845,7 +15839,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>45</v>
@@ -15904,7 +15898,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="S132" s="2" t="s">
         <v>45</v>
@@ -15963,7 +15957,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="S133" s="2" t="s">
         <v>45</v>
@@ -16022,7 +16016,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="S134" s="2" t="s">
         <v>45</v>
@@ -21502,7 +21496,7 @@
         <v>496</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>497</v>
@@ -26369,7 +26363,7 @@
         <v>674</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J311" s="2" t="s">
         <v>675</v>
@@ -26428,7 +26422,7 @@
         <v>674</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J312" s="2" t="s">
         <v>675</v>
@@ -26487,7 +26481,7 @@
         <v>674</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J313" s="2" t="s">
         <v>675</v>
@@ -31215,7 +31209,7 @@
         <v>926</v>
       </c>
       <c r="P392" s="10" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="Q392" s="2" t="s">
         <v>261</v>
@@ -32075,7 +32069,7 @@
         <v>959</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="J407" s="2" t="s">
         <v>961</v>
@@ -32134,7 +32128,7 @@
         <v>959</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="J408" s="2" t="s">
         <v>961</v>
@@ -32193,7 +32187,7 @@
         <v>959</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="J409" s="2" t="s">
         <v>961</v>
@@ -44870,7 +44864,7 @@
         <v>1536</v>
       </c>
       <c r="I622" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J622" s="2" t="s">
         <v>1537</v>
@@ -44929,7 +44923,7 @@
         <v>1536</v>
       </c>
       <c r="I623" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J623" s="2" t="s">
         <v>1537</v>
@@ -44988,7 +44982,7 @@
         <v>1536</v>
       </c>
       <c r="I624" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J624" s="2" t="s">
         <v>1537</v>
@@ -45047,7 +45041,7 @@
         <v>1536</v>
       </c>
       <c r="I625" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J625" s="2" t="s">
         <v>1537</v>
@@ -45106,7 +45100,7 @@
         <v>1536</v>
       </c>
       <c r="I626" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J626" s="2" t="s">
         <v>1537</v>
@@ -45342,7 +45336,7 @@
         <v>1552</v>
       </c>
       <c r="I630" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="J630" s="2" t="s">
         <v>1553</v>
@@ -45399,7 +45393,7 @@
         <v>1552</v>
       </c>
       <c r="I631" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="J631" s="2" t="s">
         <v>1553</v>
@@ -45456,7 +45450,7 @@
         <v>1558</v>
       </c>
       <c r="I632" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J632" s="2" t="s">
         <v>1559</v>
@@ -45515,7 +45509,7 @@
         <v>1558</v>
       </c>
       <c r="I633" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J633" s="2"/>
       <c r="K633" s="2" t="s">
@@ -45629,7 +45623,7 @@
         <v>1558</v>
       </c>
       <c r="I635" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J635" s="2"/>
       <c r="K635" s="2" t="s">
@@ -45686,7 +45680,7 @@
         <v>1558</v>
       </c>
       <c r="I636" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J636" s="2"/>
       <c r="K636" s="2" t="s">
@@ -46040,7 +46034,7 @@
         <v>1595</v>
       </c>
       <c r="I642" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J642" s="2" t="s">
         <v>1596</v>
@@ -46099,7 +46093,7 @@
         <v>1595</v>
       </c>
       <c r="I643" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="J643" s="2" t="s">
         <v>1596</v>
@@ -47102,7 +47096,7 @@
         <v>1644</v>
       </c>
       <c r="I660" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="J660" s="2" t="s">
         <v>1645</v>
@@ -48915,7 +48909,7 @@
         <v>2024</v>
       </c>
       <c r="B691" s="13" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>2347</v>
@@ -50513,7 +50507,7 @@
         <v>1782</v>
       </c>
       <c r="I719" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J719" s="2"/>
       <c r="K719" s="2" t="s">
@@ -50843,7 +50837,7 @@
         <v>1795</v>
       </c>
       <c r="I725" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J725" s="2"/>
       <c r="K725" s="2">
@@ -60919,7 +60913,7 @@
         <v>2229</v>
       </c>
       <c r="I895" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="J895" s="2" t="s">
         <v>2230</v>
@@ -62060,7 +62054,7 @@
         <v>45926</v>
       </c>
       <c r="O914" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="P914" s="5" t="s">
         <v>2311</v>
@@ -62121,7 +62115,7 @@
         <v>45926</v>
       </c>
       <c r="O915" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="P915" s="5" t="s">
         <v>2311</v>
@@ -62182,7 +62176,7 @@
         <v>45926</v>
       </c>
       <c r="O916" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="P916" s="5" t="s">
         <v>2311</v>
@@ -62966,32 +62960,32 @@
         <v>337</v>
       </c>
       <c r="G930" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H930" s="2" t="s">
         <v>2431</v>
       </c>
-      <c r="H930" s="2" t="s">
+      <c r="I930" s="2" t="s">
         <v>2432</v>
       </c>
-      <c r="I930" s="2" t="s">
+      <c r="J930" s="2" t="s">
         <v>2433</v>
-      </c>
-      <c r="J930" s="2" t="s">
-        <v>2434</v>
       </c>
       <c r="K930" s="2" t="s">
         <v>2000</v>
       </c>
       <c r="L930" s="2"/>
       <c r="M930" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N930" s="3">
         <v>45955</v>
       </c>
       <c r="O930" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="P930" s="5" t="s">
         <v>2436</v>
-      </c>
-      <c r="P930" s="5" t="s">
-        <v>2437</v>
       </c>
       <c r="Q930" s="2" t="s">
         <v>185</v>
@@ -63027,32 +63021,32 @@
         <v>127</v>
       </c>
       <c r="G931" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H931" s="2" t="s">
         <v>2431</v>
       </c>
-      <c r="H931" s="2" t="s">
+      <c r="I931" s="2" t="s">
         <v>2432</v>
       </c>
-      <c r="I931" s="2" t="s">
+      <c r="J931" s="2" t="s">
         <v>2433</v>
-      </c>
-      <c r="J931" s="2" t="s">
-        <v>2434</v>
       </c>
       <c r="K931" s="2" t="s">
         <v>2000</v>
       </c>
       <c r="L931" s="2"/>
       <c r="M931" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N931" s="3">
         <v>45955</v>
       </c>
       <c r="O931" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="P931" s="5" t="s">
         <v>2436</v>
-      </c>
-      <c r="P931" s="5" t="s">
-        <v>2437</v>
       </c>
       <c r="Q931" s="2" t="s">
         <v>185</v>
@@ -63088,32 +63082,32 @@
         <v>337</v>
       </c>
       <c r="G932" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H932" s="2" t="s">
         <v>2431</v>
       </c>
-      <c r="H932" s="2" t="s">
+      <c r="I932" s="2" t="s">
         <v>2432</v>
       </c>
-      <c r="I932" s="2" t="s">
+      <c r="J932" s="2" t="s">
         <v>2433</v>
-      </c>
-      <c r="J932" s="2" t="s">
-        <v>2434</v>
       </c>
       <c r="K932" s="2" t="s">
         <v>2000</v>
       </c>
       <c r="L932" s="2"/>
       <c r="M932" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N932" s="3">
         <v>45955</v>
       </c>
       <c r="O932" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="P932" s="5" t="s">
         <v>2436</v>
-      </c>
-      <c r="P932" s="5" t="s">
-        <v>2437</v>
       </c>
       <c r="Q932" s="2" t="s">
         <v>185</v>
@@ -63134,7 +63128,7 @@
         <v>2025</v>
       </c>
       <c r="B933" s="13" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C933" s="2" t="s">
         <v>2348</v>
@@ -63149,32 +63143,32 @@
         <v>24</v>
       </c>
       <c r="G933" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H933" s="2" t="s">
         <v>2431</v>
       </c>
-      <c r="H933" s="2" t="s">
+      <c r="I933" s="2" t="s">
         <v>2432</v>
       </c>
-      <c r="I933" s="2" t="s">
+      <c r="J933" s="2" t="s">
         <v>2433</v>
-      </c>
-      <c r="J933" s="2" t="s">
-        <v>2434</v>
       </c>
       <c r="K933" s="2" t="s">
         <v>2000</v>
       </c>
       <c r="L933" s="2"/>
       <c r="M933" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N933" s="3">
         <v>45955</v>
       </c>
       <c r="O933" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="P933" s="5" t="s">
         <v>2436</v>
-      </c>
-      <c r="P933" s="5" t="s">
-        <v>2437</v>
       </c>
       <c r="Q933" s="2" t="s">
         <v>185</v>
@@ -63210,30 +63204,30 @@
         <v>47</v>
       </c>
       <c r="G934" s="2" t="s">
-        <v>2161</v>
+        <v>128</v>
       </c>
       <c r="H934" s="2" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="I934" s="2" t="s">
         <v>534</v>
       </c>
       <c r="J934" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="K934" s="2"/>
       <c r="L934" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="M934" s="2" t="s">
         <v>2440</v>
-      </c>
-      <c r="M934" s="2" t="s">
-        <v>2441</v>
       </c>
       <c r="N934" s="3">
         <v>45955</v>
       </c>
       <c r="O934" s="4"/>
       <c r="P934" s="5" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="Q934" s="2"/>
       <c r="R934" s="2" t="s">
@@ -63258,7 +63252,7 @@
         <v>2347</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>2453</v>
+        <v>35</v>
       </c>
       <c r="E935" s="2" t="s">
         <v>23</v>
@@ -63267,29 +63261,29 @@
         <v>24</v>
       </c>
       <c r="G935" s="2" t="s">
-        <v>2431</v>
+        <v>169</v>
       </c>
       <c r="H935" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="I935" s="2" t="s">
+        <v>2453</v>
+      </c>
+      <c r="J935" s="2" t="s">
         <v>2454</v>
-      </c>
-      <c r="I935" s="2" t="s">
-        <v>2455</v>
-      </c>
-      <c r="J935" s="2" t="s">
-        <v>2456</v>
       </c>
       <c r="K935" s="2" t="s">
         <v>1298</v>
       </c>
       <c r="L935" s="2"/>
       <c r="M935" s="2" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="N935" s="3">
         <v>45773</v>
       </c>
       <c r="O935" s="4" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="P935" s="5"/>
       <c r="Q935" s="2" t="s">
@@ -63311,7 +63305,7 @@
         <v>2025</v>
       </c>
       <c r="B936" s="13" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="C936" s="2" t="s">
         <v>2348</v>
@@ -63329,22 +63323,22 @@
         <v>137</v>
       </c>
       <c r="H936" s="2" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="I936" s="2" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="J936" s="2"/>
       <c r="K936" s="2" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="L936" s="2"/>
       <c r="M936" s="2" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="N936" s="3"/>
       <c r="O936" s="2" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="P936" s="5"/>
       <c r="Q936" s="2" t="s">
@@ -63381,10 +63375,10 @@
         <v>354</v>
       </c>
       <c r="G937" s="2" t="s">
-        <v>2431</v>
+        <v>169</v>
       </c>
       <c r="H937" s="2" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="I937" s="2" t="s">
         <v>859</v>
@@ -63395,13 +63389,13 @@
       </c>
       <c r="L937" s="2"/>
       <c r="M937" s="2" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="N937" s="3">
         <v>45782</v>
       </c>
       <c r="O937" s="4" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="P937" s="5"/>
       <c r="Q937" s="2" t="s">
@@ -63423,7 +63417,7 @@
         <v>2025</v>
       </c>
       <c r="B938" s="13" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>2347</v>
@@ -63441,29 +63435,29 @@
         <v>36</v>
       </c>
       <c r="H938" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="I938" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="J938" s="2" t="s">
         <v>2469</v>
-      </c>
-      <c r="I938" s="2" t="s">
-        <v>2470</v>
-      </c>
-      <c r="J938" s="2" t="s">
-        <v>2471</v>
       </c>
       <c r="K938" s="2" t="s">
         <v>707</v>
       </c>
       <c r="L938" s="2"/>
       <c r="M938" s="2" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="N938" s="3">
         <v>45840</v>
       </c>
       <c r="O938" s="2" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="P938" s="2" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="Q938" s="2"/>
       <c r="R938" s="1" t="s">
@@ -63500,27 +63494,27 @@
         <v>25</v>
       </c>
       <c r="H939" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="I939" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="J939" s="2" t="s">
         <v>2475</v>
-      </c>
-      <c r="I939" s="2" t="s">
-        <v>2476</v>
-      </c>
-      <c r="J939" s="2" t="s">
-        <v>2477</v>
       </c>
       <c r="K939" s="2" t="s">
         <v>651</v>
       </c>
       <c r="L939" s="2"/>
       <c r="M939" s="2" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="N939" s="3"/>
       <c r="O939" s="2" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="P939" s="2" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="Q939" s="2"/>
       <c r="R939" s="1" t="s">
@@ -63539,7 +63533,7 @@
         <v>2025</v>
       </c>
       <c r="B940" s="13" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="C940" s="2" t="s">
         <v>2348</v>
@@ -63557,25 +63551,25 @@
         <v>128</v>
       </c>
       <c r="H940" s="2" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="I940" s="2" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
       <c r="L940" s="2" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="M940" s="2" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="N940" s="3"/>
       <c r="O940" s="2" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="P940" s="2" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="Q940" s="2"/>
       <c r="R940" s="1" t="s">
@@ -63594,7 +63588,7 @@
         <v>2025</v>
       </c>
       <c r="B941" s="13" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="C941" s="2" t="s">
         <v>2347</v>
@@ -63612,27 +63606,27 @@
         <v>137</v>
       </c>
       <c r="H941" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I941" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="J941" s="2" t="s">
         <v>2488</v>
-      </c>
-      <c r="I941" s="2" t="s">
-        <v>2489</v>
-      </c>
-      <c r="J941" s="2" t="s">
-        <v>2490</v>
       </c>
       <c r="K941" s="2"/>
       <c r="L941" s="2" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="M941" s="2" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="N941" s="3"/>
       <c r="O941" s="4" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="P941" s="4" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="Q941" s="2"/>
       <c r="R941" s="1" t="s">
@@ -63654,7 +63648,7 @@
         <v>2025</v>
       </c>
       <c r="B942" s="13" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="C942" s="2" t="s">
         <v>2348</v>
@@ -63672,27 +63666,27 @@
         <v>137</v>
       </c>
       <c r="H942" s="2" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="I942" s="2" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="J942" s="2" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="K942" s="2"/>
       <c r="L942" s="2" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="M942" s="2" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="N942" s="3"/>
       <c r="O942" s="2" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="P942" s="2" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="Q942" s="2"/>
       <c r="R942" s="1" t="s">

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uagrariaec-my.sharepoint.com/personal/maguirre_uagraria_edu_ec/Documents/DASHBOARD INVESTIGACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="520" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1AA8A39-4649-44CF-B223-89E42AA475FE}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C98AD24D-C89B-4483-B617-E75284CB7A19}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7992,8 +7992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D942"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12352,7 +12352,7 @@
         <v>22</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>127</v>
@@ -23010,10 +23010,10 @@
         <v>22</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>36</v>
@@ -26706,10 +26706,10 @@
         <v>22</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>36</v>

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uagrariaec-my.sharepoint.com/personal/maguirre_uagraria_edu_ec/Documents/DASHBOARD INVESTIGACIÓN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0FE9BC-A15B-4B28-A9D5-07A1C58DF093}"/>
+  <xr:revisionPtr revIDLastSave="647" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AEBF2C2-4FA5-44EB-A427-F0D83C664DF0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16431" uniqueCount="2734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16431" uniqueCount="2733">
   <si>
     <t>AÑO</t>
   </si>
@@ -7783,9 +7783,6 @@
   </si>
   <si>
     <t>http://142.93.18.15:8080/jspui/handle/123456789/1165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTITUTO DE INVESTIGACIÓN </t>
   </si>
   <si>
     <t xml:space="preserve">GARCIA ORTEGA YOANSY </t>
@@ -8737,18 +8734,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -9049,8 +9035,8 @@
   <dimension ref="A1:V1038"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O982" sqref="O982"/>
+      <pane ySplit="1" topLeftCell="A911" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E159" sqref="E159:F981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66150,10 +66136,10 @@
         <v>45958</v>
       </c>
       <c r="O965" s="31" t="s">
+        <v>2583</v>
+      </c>
+      <c r="P965" s="20" t="s">
         <v>2584</v>
-      </c>
-      <c r="P965" s="20" t="s">
-        <v>2585</v>
       </c>
       <c r="Q965" s="17"/>
       <c r="R965" s="18" t="s">
@@ -66206,10 +66192,10 @@
         <v>45958</v>
       </c>
       <c r="O966" s="31" t="s">
+        <v>2583</v>
+      </c>
+      <c r="P966" s="20" t="s">
         <v>2584</v>
-      </c>
-      <c r="P966" s="20" t="s">
-        <v>2585</v>
       </c>
       <c r="Q966" s="17"/>
       <c r="R966" s="18" t="s">
@@ -66266,10 +66252,10 @@
         <v>45958</v>
       </c>
       <c r="O967" s="31" t="s">
+        <v>2583</v>
+      </c>
+      <c r="P967" s="20" t="s">
         <v>2584</v>
-      </c>
-      <c r="P967" s="20" t="s">
-        <v>2585</v>
       </c>
       <c r="Q967" s="17"/>
       <c r="R967" s="18" t="s">
@@ -66324,10 +66310,10 @@
         <v>45958</v>
       </c>
       <c r="O968" s="31" t="s">
+        <v>2583</v>
+      </c>
+      <c r="P968" s="20" t="s">
         <v>2584</v>
-      </c>
-      <c r="P968" s="20" t="s">
-        <v>2585</v>
       </c>
       <c r="Q968" s="17"/>
       <c r="R968" s="18" t="s">
@@ -66382,10 +66368,10 @@
         <v>45823</v>
       </c>
       <c r="O969" s="31" t="s">
+        <v>2599</v>
+      </c>
+      <c r="P969" s="20" t="s">
         <v>2600</v>
-      </c>
-      <c r="P969" s="20" t="s">
-        <v>2601</v>
       </c>
       <c r="Q969" s="17"/>
       <c r="R969" s="18" t="s">
@@ -66442,10 +66428,10 @@
         <v>45823</v>
       </c>
       <c r="O970" s="31" t="s">
+        <v>2599</v>
+      </c>
+      <c r="P970" s="20" t="s">
         <v>2600</v>
-      </c>
-      <c r="P970" s="20" t="s">
-        <v>2601</v>
       </c>
       <c r="Q970" s="21"/>
       <c r="R970" s="18" t="s">
@@ -66502,10 +66488,10 @@
         <v>45823</v>
       </c>
       <c r="O971" s="31" t="s">
+        <v>2599</v>
+      </c>
+      <c r="P971" s="20" t="s">
         <v>2600</v>
-      </c>
-      <c r="P971" s="20" t="s">
-        <v>2601</v>
       </c>
       <c r="Q971" s="21"/>
       <c r="R971" s="18" t="s">
@@ -66558,10 +66544,10 @@
         <v>45819</v>
       </c>
       <c r="O972" s="31" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="P972" s="20" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="Q972" s="21"/>
       <c r="R972" s="18" t="s">
@@ -66614,10 +66600,10 @@
         <v>45840</v>
       </c>
       <c r="O973" s="38" t="s">
+        <v>2612</v>
+      </c>
+      <c r="P973" s="20" t="s">
         <v>2613</v>
-      </c>
-      <c r="P973" s="20" t="s">
-        <v>2614</v>
       </c>
       <c r="Q973" s="21"/>
       <c r="R973" s="18" t="s">
@@ -66674,10 +66660,10 @@
         <v>45632</v>
       </c>
       <c r="O974" s="13" t="s">
+        <v>2617</v>
+      </c>
+      <c r="P974" s="20" t="s">
         <v>2618</v>
-      </c>
-      <c r="P974" s="20" t="s">
-        <v>2619</v>
       </c>
       <c r="Q974" s="21"/>
       <c r="R974" s="2" t="s">
@@ -66734,10 +66720,10 @@
         <v>45632</v>
       </c>
       <c r="O975" s="13" t="s">
+        <v>2617</v>
+      </c>
+      <c r="P975" s="20" t="s">
         <v>2618</v>
-      </c>
-      <c r="P975" s="20" t="s">
-        <v>2619</v>
       </c>
       <c r="Q975" s="21"/>
       <c r="R975" s="2" t="s">
@@ -66794,10 +66780,10 @@
         <v>45853</v>
       </c>
       <c r="O976" s="13" t="s">
+        <v>2623</v>
+      </c>
+      <c r="P976" s="16" t="s">
         <v>2624</v>
-      </c>
-      <c r="P976" s="16" t="s">
-        <v>2625</v>
       </c>
       <c r="Q976" s="21"/>
       <c r="R976" s="2" t="s">
@@ -66854,10 +66840,10 @@
         <v>45662</v>
       </c>
       <c r="O977" s="31" t="s">
+        <v>2630</v>
+      </c>
+      <c r="P977" s="20" t="s">
         <v>2631</v>
-      </c>
-      <c r="P977" s="20" t="s">
-        <v>2632</v>
       </c>
       <c r="Q977" s="21"/>
       <c r="R977" s="18" t="s">
@@ -66914,10 +66900,10 @@
         <v>45958</v>
       </c>
       <c r="O978" s="39" t="s">
+        <v>2642</v>
+      </c>
+      <c r="P978" s="29" t="s">
         <v>2643</v>
-      </c>
-      <c r="P978" s="29" t="s">
-        <v>2644</v>
       </c>
       <c r="Q978" s="21"/>
       <c r="R978" s="30" t="s">
@@ -66974,7 +66960,7 @@
         <v>45958</v>
       </c>
       <c r="O979" s="13" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="P979" s="20" t="s">
         <v>2576</v>
@@ -67004,11 +66990,11 @@
       <c r="D980" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E980" s="15" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F980" s="15" t="s">
-        <v>2577</v>
+      <c r="E980" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F980" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="G980" s="15" t="s">
         <v>128</v>
@@ -67033,7 +67019,7 @@
         <v>45958</v>
       </c>
       <c r="O980" s="13" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="P980" s="20" t="s">
         <v>2576</v>
@@ -67055,7 +67041,7 @@
         <v>2025</v>
       </c>
       <c r="B981" s="13" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C981" s="15" t="s">
         <v>2337</v>
@@ -67063,11 +67049,11 @@
       <c r="D981" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E981" s="15" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F981" s="15" t="s">
-        <v>2577</v>
+      <c r="E981" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F981" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="G981" s="15" t="s">
         <v>128</v>
@@ -67092,7 +67078,7 @@
         <v>45893</v>
       </c>
       <c r="O981" s="13" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="P981" s="20" t="s">
         <v>2576</v>
@@ -67114,7 +67100,7 @@
         <v>2025</v>
       </c>
       <c r="B982" s="13" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C982" s="15" t="s">
         <v>2338</v>
@@ -67151,7 +67137,7 @@
         <v>45893</v>
       </c>
       <c r="O982" s="13" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="P982" s="20" t="s">
         <v>2576</v>
@@ -67191,29 +67177,29 @@
         <v>25</v>
       </c>
       <c r="H983" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I983" s="15" t="s">
         <v>2580</v>
       </c>
-      <c r="I983" s="15" t="s">
+      <c r="J983" s="15" t="s">
         <v>2581</v>
-      </c>
-      <c r="J983" s="15" t="s">
-        <v>2582</v>
       </c>
       <c r="K983" s="15" t="s">
         <v>1773</v>
       </c>
       <c r="L983" s="15"/>
       <c r="M983" s="16" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="N983" s="3">
         <v>45893</v>
       </c>
       <c r="O983" s="13" t="s">
+        <v>2648</v>
+      </c>
+      <c r="P983" s="16" t="s">
         <v>2649</v>
-      </c>
-      <c r="P983" s="16" t="s">
-        <v>2650</v>
       </c>
       <c r="Q983" s="17"/>
       <c r="R983" s="18" t="s">
@@ -67233,7 +67219,7 @@
         <v>2025</v>
       </c>
       <c r="B984" s="13" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C984" s="15" t="s">
         <v>2338</v>
@@ -67251,29 +67237,29 @@
         <v>25</v>
       </c>
       <c r="H984" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I984" s="15" t="s">
         <v>2580</v>
       </c>
-      <c r="I984" s="15" t="s">
+      <c r="J984" s="15" t="s">
         <v>2581</v>
-      </c>
-      <c r="J984" s="15" t="s">
-        <v>2582</v>
       </c>
       <c r="K984" s="15" t="s">
         <v>1773</v>
       </c>
       <c r="L984" s="15"/>
       <c r="M984" s="16" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="N984" s="3">
         <v>45893</v>
       </c>
       <c r="O984" s="13" t="s">
+        <v>2655</v>
+      </c>
+      <c r="P984" s="16" t="s">
         <v>2656</v>
-      </c>
-      <c r="P984" s="16" t="s">
-        <v>2657</v>
       </c>
       <c r="Q984" s="17"/>
       <c r="R984" s="18" t="s">
@@ -67293,7 +67279,7 @@
         <v>2025</v>
       </c>
       <c r="B985" s="13" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C985" s="15" t="s">
         <v>2338</v>
@@ -67311,29 +67297,29 @@
         <v>36</v>
       </c>
       <c r="H985" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I985" s="15" t="s">
         <v>2580</v>
       </c>
-      <c r="I985" s="15" t="s">
+      <c r="J985" s="15" t="s">
         <v>2581</v>
-      </c>
-      <c r="J985" s="15" t="s">
-        <v>2582</v>
       </c>
       <c r="K985" s="15" t="s">
         <v>1773</v>
       </c>
       <c r="L985" s="15"/>
       <c r="M985" s="16" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="N985" s="3">
         <v>45893</v>
       </c>
       <c r="O985" s="13" t="s">
+        <v>2661</v>
+      </c>
+      <c r="P985" s="16" t="s">
         <v>2662</v>
-      </c>
-      <c r="P985" s="16" t="s">
-        <v>2663</v>
       </c>
       <c r="Q985" s="17"/>
       <c r="R985" s="2" t="s">
@@ -67353,7 +67339,7 @@
         <v>2025</v>
       </c>
       <c r="B986" s="13" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C986" s="15" t="s">
         <v>2338</v>
@@ -67371,29 +67357,29 @@
         <v>36</v>
       </c>
       <c r="H986" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I986" s="15" t="s">
         <v>2580</v>
       </c>
-      <c r="I986" s="15" t="s">
+      <c r="J986" s="15" t="s">
         <v>2581</v>
-      </c>
-      <c r="J986" s="15" t="s">
-        <v>2582</v>
       </c>
       <c r="K986" s="15" t="s">
         <v>1773</v>
       </c>
       <c r="L986" s="15"/>
       <c r="M986" s="16" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="N986" s="3">
         <v>45893</v>
       </c>
       <c r="O986" s="13" t="s">
+        <v>2661</v>
+      </c>
+      <c r="P986" s="16" t="s">
         <v>2662</v>
-      </c>
-      <c r="P986" s="16" t="s">
-        <v>2663</v>
       </c>
       <c r="Q986" s="17"/>
       <c r="R986" s="2" t="s">
@@ -67428,32 +67414,32 @@
         <v>2144</v>
       </c>
       <c r="G987" s="15" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H987" s="2" t="s">
         <v>2588</v>
       </c>
-      <c r="H987" s="2" t="s">
+      <c r="I987" s="15" t="s">
         <v>2589</v>
       </c>
-      <c r="I987" s="15" t="s">
+      <c r="J987" s="15" t="s">
         <v>2590</v>
       </c>
-      <c r="J987" s="15" t="s">
+      <c r="K987" s="27" t="s">
         <v>2591</v>
-      </c>
-      <c r="K987" s="27" t="s">
-        <v>2592</v>
       </c>
       <c r="L987" s="15"/>
       <c r="M987" s="16" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="N987" s="3">
         <v>45961</v>
       </c>
       <c r="O987" s="13" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="P987" s="20" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="Q987" s="1" t="s">
         <v>185</v>
@@ -67489,32 +67475,32 @@
         <v>47</v>
       </c>
       <c r="G988" s="15" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H988" s="2" t="s">
         <v>2588</v>
       </c>
-      <c r="H988" s="2" t="s">
+      <c r="I988" s="15" t="s">
         <v>2589</v>
       </c>
-      <c r="I988" s="15" t="s">
+      <c r="J988" s="15" t="s">
         <v>2590</v>
       </c>
-      <c r="J988" s="15" t="s">
+      <c r="K988" s="27" t="s">
         <v>2591</v>
-      </c>
-      <c r="K988" s="27" t="s">
-        <v>2592</v>
       </c>
       <c r="L988" s="15"/>
       <c r="M988" s="16" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="N988" s="3">
         <v>45961</v>
       </c>
       <c r="O988" s="13" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="P988" s="20" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="Q988" s="1" t="s">
         <v>185</v>
@@ -67551,26 +67537,26 @@
         <v>36</v>
       </c>
       <c r="H989" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I989" s="15" t="s">
         <v>2595</v>
       </c>
-      <c r="I989" s="15" t="s">
+      <c r="J989" s="15" t="s">
         <v>2596</v>
       </c>
-      <c r="J989" s="15" t="s">
+      <c r="K989" s="15" t="s">
         <v>2597</v>
-      </c>
-      <c r="K989" s="15" t="s">
-        <v>2598</v>
       </c>
       <c r="L989" s="15"/>
       <c r="M989" s="16" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="N989" s="3">
         <v>45714</v>
       </c>
       <c r="O989" s="13" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="P989" s="20"/>
       <c r="R989" s="2" t="s">
@@ -67605,26 +67591,26 @@
         <v>36</v>
       </c>
       <c r="H990" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I990" s="15" t="s">
         <v>2595</v>
       </c>
-      <c r="I990" s="15" t="s">
+      <c r="J990" s="15" t="s">
         <v>2596</v>
       </c>
-      <c r="J990" s="15" t="s">
+      <c r="K990" s="15" t="s">
         <v>2597</v>
-      </c>
-      <c r="K990" s="15" t="s">
-        <v>2598</v>
       </c>
       <c r="L990" s="15"/>
       <c r="M990" s="16" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="N990" s="3">
         <v>45714</v>
       </c>
       <c r="O990" s="13" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="P990" s="20"/>
       <c r="R990" s="2" t="s">
@@ -67659,26 +67645,26 @@
         <v>36</v>
       </c>
       <c r="H991" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I991" s="15" t="s">
         <v>2595</v>
       </c>
-      <c r="I991" s="15" t="s">
+      <c r="J991" s="15" t="s">
         <v>2596</v>
       </c>
-      <c r="J991" s="15" t="s">
+      <c r="K991" s="15" t="s">
         <v>2597</v>
-      </c>
-      <c r="K991" s="15" t="s">
-        <v>2598</v>
       </c>
       <c r="L991" s="15"/>
       <c r="M991" s="16" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="N991" s="3">
         <v>45893</v>
       </c>
       <c r="O991" s="13" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="P991" s="20"/>
       <c r="R991" s="2" t="s">
@@ -67697,7 +67683,7 @@
         <v>2025</v>
       </c>
       <c r="B992" s="13" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C992" s="28" t="s">
         <v>2337</v>
@@ -67715,26 +67701,26 @@
         <v>36</v>
       </c>
       <c r="H992" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I992" s="15" t="s">
         <v>2603</v>
       </c>
-      <c r="I992" s="15" t="s">
+      <c r="J992" s="15" t="s">
         <v>2604</v>
       </c>
-      <c r="J992" s="15" t="s">
+      <c r="K992" s="15" t="s">
         <v>2605</v>
-      </c>
-      <c r="K992" s="15" t="s">
-        <v>2606</v>
       </c>
       <c r="L992" s="15"/>
       <c r="M992" s="16" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="N992" s="3">
         <v>45893</v>
       </c>
       <c r="O992" s="13" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="P992" s="20"/>
       <c r="R992" s="2" t="s">
@@ -67771,26 +67757,26 @@
         <v>36</v>
       </c>
       <c r="H993" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="I993" s="15" t="s">
         <v>2609</v>
       </c>
-      <c r="I993" s="15" t="s">
+      <c r="J993" s="15" t="s">
         <v>2610</v>
-      </c>
-      <c r="J993" s="15" t="s">
-        <v>2611</v>
       </c>
       <c r="K993" s="15" t="s">
         <v>683</v>
       </c>
       <c r="L993" s="15"/>
       <c r="M993" s="16" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="N993" s="3">
         <v>45893</v>
       </c>
       <c r="O993" s="13" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="P993" s="20"/>
       <c r="R993" s="2" t="s">
@@ -67827,26 +67813,26 @@
         <v>36</v>
       </c>
       <c r="H994" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="I994" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J994" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="K994" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L994" s="15"/>
       <c r="M994" s="16" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="N994" s="3">
         <v>45847</v>
       </c>
       <c r="O994" s="13" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="P994" s="20"/>
       <c r="R994" s="2" t="s">
@@ -67883,26 +67869,26 @@
         <v>36</v>
       </c>
       <c r="H995" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="I995" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J995" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="K995" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L995" s="15"/>
       <c r="M995" s="16" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="N995" s="3">
         <v>45893</v>
       </c>
       <c r="O995" s="31" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="P995" s="20"/>
       <c r="R995" s="2" t="s">
@@ -67921,7 +67907,7 @@
         <v>2025</v>
       </c>
       <c r="B996" s="13" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C996" s="15" t="s">
         <v>2337</v>
@@ -67939,26 +67925,26 @@
         <v>36</v>
       </c>
       <c r="H996" s="2" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="I996" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J996" s="2" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="K996" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L996" s="15"/>
       <c r="M996" s="16" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="N996" s="3">
         <v>45893</v>
       </c>
       <c r="O996" s="31" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="P996" s="20"/>
       <c r="R996" s="2" t="s">
@@ -67977,7 +67963,7 @@
         <v>2025</v>
       </c>
       <c r="B997" s="13" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C997" s="15" t="s">
         <v>2337</v>
@@ -67995,26 +67981,26 @@
         <v>36</v>
       </c>
       <c r="H997" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I997" s="15" t="s">
         <v>2627</v>
       </c>
-      <c r="I997" s="15" t="s">
+      <c r="J997" s="2" t="s">
         <v>2628</v>
-      </c>
-      <c r="J997" s="2" t="s">
-        <v>2629</v>
       </c>
       <c r="K997" s="2" t="s">
         <v>2228</v>
       </c>
       <c r="L997" s="15"/>
       <c r="M997" s="16" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="N997" s="3">
         <v>45859</v>
       </c>
       <c r="O997" s="31" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="P997" s="20"/>
       <c r="R997" s="2" t="s">
@@ -68033,7 +68019,7 @@
         <v>2025</v>
       </c>
       <c r="B998" s="13" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C998" s="15" t="s">
         <v>2337</v>
@@ -68048,30 +68034,30 @@
         <v>195</v>
       </c>
       <c r="G998" s="2" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="H998" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="I998" s="15" t="s">
         <v>2634</v>
-      </c>
-      <c r="I998" s="15" t="s">
-        <v>2635</v>
       </c>
       <c r="J998" s="2"/>
       <c r="K998" s="2" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="L998" s="15"/>
       <c r="M998" s="16" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="N998" s="3">
         <v>45859</v>
       </c>
       <c r="O998" s="31" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="P998" s="20" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="Q998" s="1" t="s">
         <v>261</v>
@@ -68110,29 +68096,29 @@
         <v>36</v>
       </c>
       <c r="H999" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I999" s="15" t="s">
         <v>2639</v>
       </c>
-      <c r="I999" s="15" t="s">
+      <c r="J999" s="2" t="s">
         <v>2640</v>
-      </c>
-      <c r="J999" s="2" t="s">
-        <v>2641</v>
       </c>
       <c r="K999" s="2" t="s">
         <v>683</v>
       </c>
       <c r="L999" s="15"/>
       <c r="M999" s="16" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="N999" s="3">
         <v>45859</v>
       </c>
       <c r="O999" s="31" t="s">
+        <v>2696</v>
+      </c>
+      <c r="P999" s="20" t="s">
         <v>2697</v>
-      </c>
-      <c r="P999" s="20" t="s">
-        <v>2698</v>
       </c>
       <c r="Q999" s="17"/>
       <c r="R999" s="2" t="s">
@@ -68170,29 +68156,29 @@
         <v>36</v>
       </c>
       <c r="H1000" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I1000" s="15" t="s">
         <v>2639</v>
       </c>
-      <c r="I1000" s="15" t="s">
+      <c r="J1000" s="2" t="s">
         <v>2640</v>
-      </c>
-      <c r="J1000" s="2" t="s">
-        <v>2641</v>
       </c>
       <c r="K1000" s="2" t="s">
         <v>683</v>
       </c>
       <c r="L1000" s="15"/>
       <c r="M1000" s="16" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="N1000" s="3">
         <v>45849</v>
       </c>
       <c r="O1000" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1000" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1000" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1000" s="17"/>
       <c r="R1000" s="2" t="s">
@@ -68212,7 +68198,7 @@
         <v>2025</v>
       </c>
       <c r="B1001" s="13" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C1001" s="15" t="s">
         <v>2337</v>
@@ -68230,29 +68216,29 @@
         <v>36</v>
       </c>
       <c r="H1001" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I1001" s="15" t="s">
         <v>2639</v>
       </c>
-      <c r="I1001" s="15" t="s">
+      <c r="J1001" s="2" t="s">
         <v>2640</v>
-      </c>
-      <c r="J1001" s="2" t="s">
-        <v>2641</v>
       </c>
       <c r="K1001" s="2" t="s">
         <v>683</v>
       </c>
       <c r="L1001" s="15"/>
       <c r="M1001" s="16" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="N1001" s="3">
         <v>45849</v>
       </c>
       <c r="O1001" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1001" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1001" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1001" s="17"/>
       <c r="R1001" s="2" t="s">
@@ -68290,29 +68276,29 @@
         <v>36</v>
       </c>
       <c r="H1002" s="2" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="I1002" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1002" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="K1002" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1002" s="15"/>
       <c r="M1002" s="16" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="N1002" s="3">
         <v>45849</v>
       </c>
       <c r="O1002" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1002" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1002" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1002" s="17"/>
       <c r="R1002" s="2" t="s">
@@ -68350,29 +68336,29 @@
         <v>36</v>
       </c>
       <c r="H1003" s="2" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="I1003" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1003" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="K1003" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1003" s="15"/>
       <c r="M1003" s="16" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="N1003" s="3">
         <v>45849</v>
       </c>
       <c r="O1003" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1003" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1003" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1003" s="17"/>
       <c r="R1003" s="2" t="s">
@@ -68392,7 +68378,7 @@
         <v>2025</v>
       </c>
       <c r="B1004" s="13" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C1004" s="15" t="s">
         <v>2338</v>
@@ -68410,29 +68396,29 @@
         <v>36</v>
       </c>
       <c r="H1004" s="2" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="I1004" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1004" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="K1004" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1004" s="15"/>
       <c r="M1004" s="16" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="N1004" s="3">
         <v>45867</v>
       </c>
       <c r="O1004" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1004" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1004" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1004" s="17"/>
       <c r="R1004" s="2" t="s">
@@ -68452,7 +68438,7 @@
         <v>2025</v>
       </c>
       <c r="B1005" s="13" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C1005" s="15" t="s">
         <v>2337</v>
@@ -68470,29 +68456,29 @@
         <v>36</v>
       </c>
       <c r="H1005" s="2" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="I1005" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1005" s="2" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="K1005" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1005" s="15"/>
       <c r="M1005" s="16" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="N1005" s="3">
         <v>45867</v>
       </c>
       <c r="O1005" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1005" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1005" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1005" s="17"/>
       <c r="R1005" s="2" t="s">
@@ -68512,7 +68498,7 @@
         <v>2025</v>
       </c>
       <c r="B1006" s="13" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C1006" s="15" t="s">
         <v>2337</v>
@@ -68530,29 +68516,29 @@
         <v>36</v>
       </c>
       <c r="H1006" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="I1006" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1006" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="K1006" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1006" s="15"/>
       <c r="M1006" s="16" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="N1006" s="3">
         <v>45867</v>
       </c>
       <c r="O1006" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1006" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1006" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1006" s="17"/>
       <c r="R1006" s="2" t="s">
@@ -68572,7 +68558,7 @@
         <v>2025</v>
       </c>
       <c r="B1007" s="13" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C1007" s="15" t="s">
         <v>2337</v>
@@ -68590,29 +68576,29 @@
         <v>36</v>
       </c>
       <c r="H1007" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="I1007" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1007" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="K1007" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1007" s="15"/>
       <c r="M1007" s="16" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="N1007" s="3">
         <v>45867</v>
       </c>
       <c r="O1007" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1007" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1007" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1007" s="17"/>
       <c r="R1007" s="2" t="s">
@@ -68650,29 +68636,29 @@
         <v>36</v>
       </c>
       <c r="H1008" s="2" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="I1008" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1008" s="2" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="K1008" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1008" s="15"/>
       <c r="M1008" s="16" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="N1008" s="3">
         <v>45893</v>
       </c>
       <c r="O1008" s="31" t="s">
+        <v>2712</v>
+      </c>
+      <c r="P1008" s="20" t="s">
         <v>2713</v>
-      </c>
-      <c r="P1008" s="20" t="s">
-        <v>2714</v>
       </c>
       <c r="Q1008" s="17"/>
       <c r="R1008" s="2" t="s">
@@ -68692,7 +68678,7 @@
         <v>2025</v>
       </c>
       <c r="B1009" s="13" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="C1009" s="15" t="s">
         <v>2337</v>
@@ -68710,29 +68696,29 @@
         <v>36</v>
       </c>
       <c r="H1009" s="2" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="I1009" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1009" s="2" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="K1009" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1009" s="15"/>
       <c r="M1009" s="16" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="N1009" s="3">
         <v>45801</v>
       </c>
       <c r="O1009" s="31" t="s">
+        <v>2717</v>
+      </c>
+      <c r="P1009" s="20" t="s">
         <v>2718</v>
-      </c>
-      <c r="P1009" s="20" t="s">
-        <v>2719</v>
       </c>
       <c r="Q1009" s="17"/>
       <c r="R1009" s="2" t="s">
@@ -68770,29 +68756,29 @@
         <v>36</v>
       </c>
       <c r="H1010" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="I1010" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1010" s="2" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="K1010" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1010" s="15"/>
       <c r="M1010" s="16" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="N1010" s="3">
         <v>45801</v>
       </c>
       <c r="O1010" s="31" t="s">
+        <v>2717</v>
+      </c>
+      <c r="P1010" s="20" t="s">
         <v>2718</v>
-      </c>
-      <c r="P1010" s="20" t="s">
-        <v>2719</v>
       </c>
       <c r="Q1010" s="17"/>
       <c r="R1010" s="2" t="s">
@@ -68830,29 +68816,29 @@
         <v>36</v>
       </c>
       <c r="H1011" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="I1011" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1011" s="2" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="K1011" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1011" s="15"/>
       <c r="M1011" s="16" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="N1011" s="3">
         <v>45682</v>
       </c>
       <c r="O1011" s="31" t="s">
+        <v>2722</v>
+      </c>
+      <c r="P1011" s="20" t="s">
         <v>2723</v>
-      </c>
-      <c r="P1011" s="20" t="s">
-        <v>2724</v>
       </c>
       <c r="Q1011" s="17"/>
       <c r="R1011" s="2" t="s">
@@ -68890,29 +68876,29 @@
         <v>36</v>
       </c>
       <c r="H1012" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="I1012" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1012" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="K1012" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1012" s="15"/>
       <c r="M1012" s="16" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="N1012" s="3">
         <v>45682</v>
       </c>
       <c r="O1012" s="31" t="s">
+        <v>2722</v>
+      </c>
+      <c r="P1012" s="20" t="s">
         <v>2723</v>
-      </c>
-      <c r="P1012" s="20" t="s">
-        <v>2724</v>
       </c>
       <c r="Q1012" s="17"/>
       <c r="R1012" s="2" t="s">
@@ -68950,29 +68936,29 @@
         <v>36</v>
       </c>
       <c r="H1013" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="I1013" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1013" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="K1013" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1013" s="15"/>
       <c r="M1013" s="16" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="N1013" s="3">
         <v>45682</v>
       </c>
       <c r="O1013" s="31" t="s">
+        <v>2722</v>
+      </c>
+      <c r="P1013" s="20" t="s">
         <v>2723</v>
-      </c>
-      <c r="P1013" s="20" t="s">
-        <v>2724</v>
       </c>
       <c r="Q1013" s="17"/>
       <c r="R1013" s="2" t="s">
@@ -68992,7 +68978,7 @@
         <v>2025</v>
       </c>
       <c r="B1014" s="13" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="C1014" s="15" t="s">
         <v>2337</v>
@@ -69008,29 +68994,29 @@
         <v>36</v>
       </c>
       <c r="H1014" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="I1014" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1014" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="K1014" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1014" s="15"/>
       <c r="M1014" s="16" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="N1014" s="3">
         <v>45627</v>
       </c>
       <c r="O1014" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1014" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1014" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1014" s="17"/>
       <c r="R1014" s="2" t="s">
@@ -69050,7 +69036,7 @@
         <v>2025</v>
       </c>
       <c r="B1015" s="13" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="C1015" s="15" t="s">
         <v>2337</v>
@@ -69068,29 +69054,29 @@
         <v>36</v>
       </c>
       <c r="H1015" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="I1015" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1015" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="K1015" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1015" s="15"/>
       <c r="M1015" s="16" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="N1015" s="3">
         <v>45627</v>
       </c>
       <c r="O1015" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1015" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1015" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1015" s="17"/>
       <c r="R1015" s="2" t="s">
@@ -69110,7 +69096,7 @@
         <v>2025</v>
       </c>
       <c r="B1016" s="13" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="C1016" s="15" t="s">
         <v>2337</v>
@@ -69128,29 +69114,29 @@
         <v>36</v>
       </c>
       <c r="H1016" s="2" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="I1016" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1016" s="2" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="K1016" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1016" s="15"/>
       <c r="M1016" s="16" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="N1016" s="3">
         <v>45627</v>
       </c>
       <c r="O1016" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1016" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1016" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1016" s="17"/>
       <c r="R1016" s="2" t="s">
@@ -69188,29 +69174,29 @@
         <v>36</v>
       </c>
       <c r="H1017" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="I1017" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1017" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="K1017" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1017" s="15"/>
       <c r="M1017" s="16" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="N1017" s="3">
         <v>45627</v>
       </c>
       <c r="O1017" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1017" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1017" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1017" s="17"/>
       <c r="R1017" s="2" t="s">
@@ -69230,7 +69216,7 @@
         <v>2025</v>
       </c>
       <c r="B1018" s="13" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C1018" s="15" t="s">
         <v>2337</v>
@@ -69248,29 +69234,29 @@
         <v>36</v>
       </c>
       <c r="H1018" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="I1018" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1018" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="K1018" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1018" s="15"/>
       <c r="M1018" s="16" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="N1018" s="3">
         <v>45812</v>
       </c>
       <c r="O1018" s="31" t="s">
+        <v>2696</v>
+      </c>
+      <c r="P1018" s="20" t="s">
         <v>2697</v>
-      </c>
-      <c r="P1018" s="20" t="s">
-        <v>2698</v>
       </c>
       <c r="Q1018" s="17"/>
       <c r="R1018" s="2" t="s">
@@ -69308,29 +69294,29 @@
         <v>36</v>
       </c>
       <c r="H1019" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="I1019" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1019" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="K1019" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1019" s="15"/>
       <c r="M1019" s="16" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="N1019" s="3">
         <v>45812</v>
       </c>
       <c r="O1019" s="31" t="s">
+        <v>2696</v>
+      </c>
+      <c r="P1019" s="20" t="s">
         <v>2697</v>
-      </c>
-      <c r="P1019" s="20" t="s">
-        <v>2698</v>
       </c>
       <c r="Q1019" s="17"/>
       <c r="R1019" s="2" t="s">
@@ -69368,29 +69354,29 @@
         <v>36</v>
       </c>
       <c r="H1020" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="I1020" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1020" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="K1020" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1020" s="15"/>
       <c r="M1020" s="16" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="N1020" s="3">
         <v>45812</v>
       </c>
       <c r="O1020" s="31" t="s">
+        <v>2696</v>
+      </c>
+      <c r="P1020" s="20" t="s">
         <v>2697</v>
-      </c>
-      <c r="P1020" s="20" t="s">
-        <v>2698</v>
       </c>
       <c r="Q1020" s="17"/>
       <c r="R1020" s="2" t="s">
@@ -69428,29 +69414,29 @@
         <v>36</v>
       </c>
       <c r="H1021" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="I1021" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1021" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="K1021" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1021" s="15"/>
       <c r="M1021" s="16" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="N1021" s="3">
         <v>45820</v>
       </c>
       <c r="O1021" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1021" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1021" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1021" s="17"/>
       <c r="R1021" s="2" t="s">
@@ -69470,7 +69456,7 @@
         <v>2025</v>
       </c>
       <c r="B1022" s="13" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C1022" s="15" t="s">
         <v>2337</v>
@@ -69488,29 +69474,29 @@
         <v>36</v>
       </c>
       <c r="H1022" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="I1022" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1022" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="K1022" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1022" s="15"/>
       <c r="M1022" s="16" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="N1022" s="3">
         <v>45820</v>
       </c>
       <c r="O1022" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1022" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1022" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1022" s="17"/>
       <c r="R1022" s="2" t="s">
@@ -69530,7 +69516,7 @@
         <v>2025</v>
       </c>
       <c r="B1023" s="13" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="C1023" s="15" t="s">
         <v>2337</v>
@@ -69548,29 +69534,29 @@
         <v>36</v>
       </c>
       <c r="H1023" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="I1023" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1023" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="K1023" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1023" s="15"/>
       <c r="M1023" s="16" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="N1023" s="3">
         <v>45820</v>
       </c>
       <c r="O1023" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1023" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1023" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1023" s="17"/>
       <c r="R1023" s="2" t="s">
@@ -69608,29 +69594,29 @@
         <v>36</v>
       </c>
       <c r="H1024" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="I1024" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1024" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="K1024" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1024" s="15"/>
       <c r="M1024" s="16" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="N1024" s="3">
         <v>45820</v>
       </c>
       <c r="O1024" s="31" t="s">
+        <v>2701</v>
+      </c>
+      <c r="P1024" s="20" t="s">
         <v>2702</v>
-      </c>
-      <c r="P1024" s="20" t="s">
-        <v>2703</v>
       </c>
       <c r="Q1024" s="17"/>
       <c r="R1024" s="2" t="s">
@@ -69668,29 +69654,29 @@
         <v>36</v>
       </c>
       <c r="H1025" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="I1025" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1025" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="K1025" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1025" s="15"/>
       <c r="M1025" s="16" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="N1025" s="3">
         <v>45820</v>
       </c>
       <c r="O1025" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1025" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1025" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1025" s="17"/>
       <c r="R1025" s="2" t="s">
@@ -69728,29 +69714,29 @@
         <v>36</v>
       </c>
       <c r="H1026" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="I1026" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1026" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="K1026" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1026" s="15"/>
       <c r="M1026" s="16" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="N1026" s="3">
         <v>45820</v>
       </c>
       <c r="O1026" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1026" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1026" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1026" s="17"/>
       <c r="R1026" s="2" t="s">
@@ -69788,29 +69774,29 @@
         <v>36</v>
       </c>
       <c r="H1027" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="I1027" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1027" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="K1027" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1027" s="15"/>
       <c r="M1027" s="16" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="N1027" s="3">
         <v>45820</v>
       </c>
       <c r="O1027" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1027" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1027" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1027" s="17"/>
       <c r="R1027" s="2" t="s">
@@ -69830,7 +69816,7 @@
         <v>2025</v>
       </c>
       <c r="B1028" s="13" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C1028" s="15" t="s">
         <v>2337</v>
@@ -69848,29 +69834,29 @@
         <v>36</v>
       </c>
       <c r="H1028" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="I1028" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1028" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="K1028" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1028" s="15"/>
       <c r="M1028" s="16" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="N1028" s="3">
         <v>45820</v>
       </c>
       <c r="O1028" s="31" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P1028" s="20" t="s">
         <v>2707</v>
-      </c>
-      <c r="P1028" s="20" t="s">
-        <v>2708</v>
       </c>
       <c r="Q1028" s="17"/>
       <c r="R1028" s="2" t="s">
@@ -69890,7 +69876,7 @@
         <v>2025</v>
       </c>
       <c r="B1029" s="13" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C1029" s="15" t="s">
         <v>2337</v>
@@ -69908,29 +69894,29 @@
         <v>36</v>
       </c>
       <c r="H1029" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="I1029" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1029" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="K1029" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1029" s="15"/>
       <c r="M1029" s="16" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="N1029" s="3">
         <v>45864</v>
       </c>
       <c r="O1029" s="31" t="s">
+        <v>2712</v>
+      </c>
+      <c r="P1029" s="20" t="s">
         <v>2713</v>
-      </c>
-      <c r="P1029" s="20" t="s">
-        <v>2714</v>
       </c>
       <c r="Q1029" s="17"/>
       <c r="R1029" s="2" t="s">
@@ -69968,29 +69954,29 @@
         <v>36</v>
       </c>
       <c r="H1030" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="I1030" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1030" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="K1030" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1030" s="15"/>
       <c r="M1030" s="16" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="N1030" s="3">
         <v>45748</v>
       </c>
       <c r="O1030" s="31" t="s">
+        <v>2717</v>
+      </c>
+      <c r="P1030" s="20" t="s">
         <v>2718</v>
-      </c>
-      <c r="P1030" s="20" t="s">
-        <v>2719</v>
       </c>
       <c r="Q1030" s="17"/>
       <c r="R1030" s="2" t="s">
@@ -70010,7 +69996,7 @@
         <v>2025</v>
       </c>
       <c r="B1031" s="13" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="C1031" s="15" t="s">
         <v>2337</v>
@@ -70028,29 +70014,29 @@
         <v>36</v>
       </c>
       <c r="H1031" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="I1031" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1031" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="K1031" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1031" s="15"/>
       <c r="M1031" s="16" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="N1031" s="3">
         <v>45748</v>
       </c>
       <c r="O1031" s="31" t="s">
+        <v>2717</v>
+      </c>
+      <c r="P1031" s="20" t="s">
         <v>2718</v>
-      </c>
-      <c r="P1031" s="20" t="s">
-        <v>2719</v>
       </c>
       <c r="Q1031" s="17"/>
       <c r="R1031" s="2" t="s">
@@ -70088,29 +70074,29 @@
         <v>36</v>
       </c>
       <c r="H1032" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="I1032" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1032" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="K1032" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1032" s="15"/>
       <c r="M1032" s="16" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="N1032" s="3">
         <v>45629</v>
       </c>
       <c r="O1032" s="31" t="s">
+        <v>2722</v>
+      </c>
+      <c r="P1032" s="20" t="s">
         <v>2723</v>
-      </c>
-      <c r="P1032" s="20" t="s">
-        <v>2724</v>
       </c>
       <c r="Q1032" s="17"/>
       <c r="R1032" s="2" t="s">
@@ -70130,7 +70116,7 @@
         <v>2025</v>
       </c>
       <c r="B1033" s="13" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C1033" s="15" t="s">
         <v>2338</v>
@@ -70148,29 +70134,29 @@
         <v>36</v>
       </c>
       <c r="H1033" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="I1033" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1033" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="K1033" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1033" s="15"/>
       <c r="M1033" s="16" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="N1033" s="3">
         <v>45629</v>
       </c>
       <c r="O1033" s="31" t="s">
+        <v>2722</v>
+      </c>
+      <c r="P1033" s="20" t="s">
         <v>2723</v>
-      </c>
-      <c r="P1033" s="20" t="s">
-        <v>2724</v>
       </c>
       <c r="Q1033" s="17"/>
       <c r="R1033" s="2" t="s">
@@ -70206,29 +70192,29 @@
         <v>36</v>
       </c>
       <c r="H1034" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="I1034" s="15" t="s">
         <v>2530</v>
       </c>
       <c r="J1034" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="K1034" s="2" t="s">
         <v>257</v>
       </c>
       <c r="L1034" s="15"/>
       <c r="M1034" s="16" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="N1034" s="3">
         <v>45629</v>
       </c>
       <c r="O1034" s="31" t="s">
+        <v>2722</v>
+      </c>
+      <c r="P1034" s="20" t="s">
         <v>2723</v>
-      </c>
-      <c r="P1034" s="20" t="s">
-        <v>2724</v>
       </c>
       <c r="Q1034" s="17"/>
       <c r="R1034" s="2" t="s">
@@ -70266,29 +70252,29 @@
         <v>36</v>
       </c>
       <c r="H1035" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I1035" s="15" t="s">
         <v>2726</v>
       </c>
-      <c r="I1035" s="15" t="s">
+      <c r="J1035" s="2" t="s">
         <v>2727</v>
       </c>
-      <c r="J1035" s="2" t="s">
+      <c r="K1035" s="2" t="s">
         <v>2728</v>
-      </c>
-      <c r="K1035" s="2" t="s">
-        <v>2729</v>
       </c>
       <c r="L1035" s="15"/>
       <c r="M1035" s="16" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="N1035" s="3">
         <v>45944</v>
       </c>
       <c r="O1035" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1035" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1035" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1035" s="17"/>
       <c r="R1035" s="2" t="s">
@@ -70326,29 +70312,29 @@
         <v>36</v>
       </c>
       <c r="H1036" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I1036" s="15" t="s">
         <v>2726</v>
       </c>
-      <c r="I1036" s="15" t="s">
+      <c r="J1036" s="2" t="s">
         <v>2727</v>
       </c>
-      <c r="J1036" s="2" t="s">
+      <c r="K1036" s="2" t="s">
         <v>2728</v>
-      </c>
-      <c r="K1036" s="2" t="s">
-        <v>2729</v>
       </c>
       <c r="L1036" s="15"/>
       <c r="M1036" s="16" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="N1036" s="3">
         <v>45944</v>
       </c>
       <c r="O1036" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1036" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1036" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1036" s="17"/>
       <c r="R1036" s="2" t="s">
@@ -70368,7 +70354,7 @@
         <v>2025</v>
       </c>
       <c r="B1037" s="13" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="C1037" s="15" t="s">
         <v>2337</v>
@@ -70386,29 +70372,29 @@
         <v>36</v>
       </c>
       <c r="H1037" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I1037" s="15" t="s">
         <v>2726</v>
       </c>
-      <c r="I1037" s="15" t="s">
+      <c r="J1037" s="2" t="s">
         <v>2727</v>
       </c>
-      <c r="J1037" s="2" t="s">
+      <c r="K1037" s="2" t="s">
         <v>2728</v>
-      </c>
-      <c r="K1037" s="2" t="s">
-        <v>2729</v>
       </c>
       <c r="L1037" s="15"/>
       <c r="M1037" s="16" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="N1037" s="3">
         <v>45944</v>
       </c>
       <c r="O1037" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1037" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1037" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1037" s="17"/>
       <c r="R1037" s="2" t="s">
@@ -70446,29 +70432,29 @@
         <v>36</v>
       </c>
       <c r="H1038" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I1038" s="15" t="s">
         <v>2726</v>
       </c>
-      <c r="I1038" s="15" t="s">
+      <c r="J1038" s="2" t="s">
         <v>2727</v>
       </c>
-      <c r="J1038" s="2" t="s">
+      <c r="K1038" s="2" t="s">
         <v>2728</v>
-      </c>
-      <c r="K1038" s="2" t="s">
-        <v>2729</v>
       </c>
       <c r="L1038" s="15"/>
       <c r="M1038" s="16" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="N1038" s="3">
         <v>45944</v>
       </c>
       <c r="O1038" s="31" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P1038" s="20" t="s">
         <v>2731</v>
-      </c>
-      <c r="P1038" s="20" t="s">
-        <v>2732</v>
       </c>
       <c r="Q1038" s="17"/>
       <c r="R1038" s="2" t="s">

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uagrariaec-my.sharepoint.com/personal/maguirre_uagraria_edu_ec/Documents/DASHBOARD INVESTIGACIÓN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uagrariaec-my.sharepoint.com/personal/maguirre_uagraria_edu_ec/Documents/DASHBOARD INVESTIGACIÓN/Datos sin instituto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="752" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795D9C99-CDA6-498A-A46D-CCDD4C5CA325}"/>
+  <xr:revisionPtr revIDLastSave="838" documentId="8_{E7105EEE-D6A7-4D74-B6D7-4435C49CB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56035369-F185-4C7D-8B71-CA0FB7D9B76F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publicaciones!$A$1:$X$1047</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Publicaciones!$A$1:$X$1066</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16567" uniqueCount="2768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16853" uniqueCount="2785">
   <si>
     <t>AÑO</t>
   </si>
@@ -8499,6 +8499,57 @@
   </si>
   <si>
     <t>Weather and Climate Extremes</t>
+  </si>
+  <si>
+    <t>CORONEL REYES JOSÉ JULIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative Analysis of Vision Transformer (ViT) and Traditional Machine Learning Models for the Automatic Classification of Grape Varieties </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-032-11494-5_1</t>
+  </si>
+  <si>
+    <t>TRIVIÑO SANCHEZ JOHNNY JAVIER</t>
+  </si>
+  <si>
+    <t>DELGADO VERA CARLOTA ROSARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Vision and Deep Learning for Fungal Detection in Forest Crops: A Literature Review </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-032-11494-5_2</t>
+  </si>
+  <si>
+    <t>VALLE LITUMA CECILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systematic review of artificial intelligence tools applied to the classification, quality control,  and shelf life prediction of post-harvest agricultural products (2000–2025) </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-032-11494-5_3</t>
+  </si>
+  <si>
+    <t>CARDENAS RODRÍGUEZ MARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile technologies in agriculture: A systematic review with a focus on digital tools for banana cultivation </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-032-11494-5_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation of an Ambient Intelligence System applied to the prediction of electronic Waste in Smart Cities </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-032-11494-5_17</t>
+  </si>
+  <si>
+    <t>Technologies and Innovation</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/book/10.1007/978-3-032-11494-5</t>
   </si>
 </sst>
 </file>
@@ -9193,12 +9244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:V1047"/>
+  <dimension ref="A1:V1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A824" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1045" sqref="O1045"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A976" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H993" sqref="H993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9295,7 +9345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -9354,7 +9404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
@@ -9413,7 +9463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -9472,7 +9522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2022</v>
       </c>
@@ -9531,7 +9581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2022</v>
       </c>
@@ -9590,7 +9640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2022</v>
       </c>
@@ -9649,7 +9699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
@@ -9708,7 +9758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
@@ -9767,7 +9817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
@@ -9826,7 +9876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
@@ -9885,7 +9935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2022</v>
       </c>
@@ -9944,7 +9994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2022</v>
       </c>
@@ -10003,7 +10053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
@@ -10062,7 +10112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2022</v>
       </c>
@@ -10119,7 +10169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
@@ -10176,7 +10226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
@@ -10233,7 +10283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2022</v>
       </c>
@@ -10290,7 +10340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
@@ -10347,7 +10397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
@@ -10404,7 +10454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
@@ -10461,7 +10511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
@@ -10520,7 +10570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
@@ -10579,7 +10629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
@@ -10638,7 +10688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2022</v>
       </c>
@@ -10697,7 +10747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2022</v>
       </c>
@@ -10756,7 +10806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2022</v>
       </c>
@@ -10815,7 +10865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2022</v>
       </c>
@@ -10874,7 +10924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2022</v>
       </c>
@@ -10933,7 +10983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2022</v>
       </c>
@@ -10992,7 +11042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
@@ -11051,7 +11101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2022</v>
       </c>
@@ -11110,7 +11160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2022</v>
       </c>
@@ -11169,7 +11219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2022</v>
       </c>
@@ -11228,7 +11278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2022</v>
       </c>
@@ -11285,7 +11335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2022</v>
       </c>
@@ -11344,7 +11394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2022</v>
       </c>
@@ -11403,7 +11453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2022</v>
       </c>
@@ -11462,7 +11512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2022</v>
       </c>
@@ -11521,7 +11571,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2022</v>
       </c>
@@ -11580,7 +11630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2022</v>
       </c>
@@ -11639,7 +11689,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2022</v>
       </c>
@@ -11698,7 +11748,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2022</v>
       </c>
@@ -11760,7 +11810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2022</v>
       </c>
@@ -11822,7 +11872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2022</v>
       </c>
@@ -11884,7 +11934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2022</v>
       </c>
@@ -11946,7 +11996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2022</v>
       </c>
@@ -12008,7 +12058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2022</v>
       </c>
@@ -12070,7 +12120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2022</v>
       </c>
@@ -12132,7 +12182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2022</v>
       </c>
@@ -12194,7 +12244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2022</v>
       </c>
@@ -12256,7 +12306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2022</v>
       </c>
@@ -12318,7 +12368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2022</v>
       </c>
@@ -12380,7 +12430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2022</v>
       </c>
@@ -12439,7 +12489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2022</v>
       </c>
@@ -12498,7 +12548,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2022</v>
       </c>
@@ -12557,7 +12607,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2022</v>
       </c>
@@ -12616,7 +12666,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
@@ -12678,7 +12728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>2022</v>
       </c>
@@ -12740,7 +12790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2022</v>
       </c>
@@ -12802,7 +12852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2022</v>
       </c>
@@ -12864,7 +12914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2022</v>
       </c>
@@ -12926,7 +12976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2022</v>
       </c>
@@ -12988,7 +13038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>2022</v>
       </c>
@@ -13050,7 +13100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2022</v>
       </c>
@@ -13112,7 +13162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>2022</v>
       </c>
@@ -13174,7 +13224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2022</v>
       </c>
@@ -13236,7 +13286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>2022</v>
       </c>
@@ -13298,7 +13348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>2022</v>
       </c>
@@ -13360,7 +13410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>2022</v>
       </c>
@@ -13422,7 +13472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>2022</v>
       </c>
@@ -13484,7 +13534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>2022</v>
       </c>
@@ -13543,7 +13593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>2022</v>
       </c>
@@ -13602,7 +13652,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>2022</v>
       </c>
@@ -13781,7 +13831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>2022</v>
       </c>
@@ -13838,7 +13888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2022</v>
       </c>
@@ -13897,7 +13947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>2022</v>
       </c>
@@ -13959,7 +14009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>2022</v>
       </c>
@@ -14021,7 +14071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>2022</v>
       </c>
@@ -14083,7 +14133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>2022</v>
       </c>
@@ -14142,7 +14192,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>2022</v>
       </c>
@@ -14201,7 +14251,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>2022</v>
       </c>
@@ -14260,7 +14310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>2022</v>
       </c>
@@ -14319,7 +14369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>2022</v>
       </c>
@@ -14378,7 +14428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>2022</v>
       </c>
@@ -14437,7 +14487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>2022</v>
       </c>
@@ -14497,7 +14547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>2022</v>
       </c>
@@ -14557,7 +14607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>2022</v>
       </c>
@@ -14617,7 +14667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2022</v>
       </c>
@@ -14677,7 +14727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>2022</v>
       </c>
@@ -14737,7 +14787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>2022</v>
       </c>
@@ -14797,7 +14847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>2022</v>
       </c>
@@ -14857,7 +14907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>2022</v>
       </c>
@@ -14917,7 +14967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>2022</v>
       </c>
@@ -14977,7 +15027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2022</v>
       </c>
@@ -15037,7 +15087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>2022</v>
       </c>
@@ -15097,7 +15147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>2022</v>
       </c>
@@ -15157,7 +15207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>2022</v>
       </c>
@@ -15217,7 +15267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>2022</v>
       </c>
@@ -15277,7 +15327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>2022</v>
       </c>
@@ -15337,7 +15387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>2022</v>
       </c>
@@ -15397,7 +15447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>2022</v>
       </c>
@@ -15457,7 +15507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>2022</v>
       </c>
@@ -15517,7 +15567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>2022</v>
       </c>
@@ -15577,7 +15627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>2022</v>
       </c>
@@ -15637,7 +15687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>2022</v>
       </c>
@@ -15697,7 +15747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>2022</v>
       </c>
@@ -15757,7 +15807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>2022</v>
       </c>
@@ -15817,7 +15867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>2022</v>
       </c>
@@ -15877,7 +15927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>2022</v>
       </c>
@@ -15937,7 +15987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>2022</v>
       </c>
@@ -15997,7 +16047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>2022</v>
       </c>
@@ -16057,7 +16107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>2022</v>
       </c>
@@ -16117,7 +16167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>2022</v>
       </c>
@@ -16177,7 +16227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>2022</v>
       </c>
@@ -16236,7 +16286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>2022</v>
       </c>
@@ -16295,7 +16345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>2022</v>
       </c>
@@ -16354,7 +16404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>2022</v>
       </c>
@@ -16415,7 +16465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>2022</v>
       </c>
@@ -16476,7 +16526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>2022</v>
       </c>
@@ -16537,7 +16587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>2022</v>
       </c>
@@ -16594,7 +16644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>2022</v>
       </c>
@@ -16649,7 +16699,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>2022</v>
       </c>
@@ -16704,7 +16754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>2022</v>
       </c>
@@ -16759,7 +16809,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>2022</v>
       </c>
@@ -16818,7 +16868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>2022</v>
       </c>
@@ -16877,7 +16927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>2022</v>
       </c>
@@ -16936,7 +16986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>2022</v>
       </c>
@@ -16995,7 +17045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>2022</v>
       </c>
@@ -17054,7 +17104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>2022</v>
       </c>
@@ -17113,7 +17163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>2022</v>
       </c>
@@ -17172,7 +17222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>2022</v>
       </c>
@@ -17231,7 +17281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>2022</v>
       </c>
@@ -17290,7 +17340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>2022</v>
       </c>
@@ -17349,7 +17399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>2022</v>
       </c>
@@ -17408,7 +17458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>2022</v>
       </c>
@@ -17469,7 +17519,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>2022</v>
       </c>
@@ -17530,7 +17580,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>2022</v>
       </c>
@@ -17591,7 +17641,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>2022</v>
       </c>
@@ -17652,7 +17702,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>2022</v>
       </c>
@@ -17713,7 +17763,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>2022</v>
       </c>
@@ -17774,7 +17824,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>2022</v>
       </c>
@@ -17835,7 +17885,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>2022</v>
       </c>
@@ -17896,7 +17946,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>2022</v>
       </c>
@@ -17957,7 +18007,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>2022</v>
       </c>
@@ -18018,7 +18068,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>2022</v>
       </c>
@@ -18079,7 +18129,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>2022</v>
       </c>
@@ -18140,7 +18190,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>2022</v>
       </c>
@@ -18201,7 +18251,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>2022</v>
       </c>
@@ -18262,7 +18312,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>2022</v>
       </c>
@@ -18323,7 +18373,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>2022</v>
       </c>
@@ -18384,7 +18434,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>2022</v>
       </c>
@@ -18445,7 +18495,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>2022</v>
       </c>
@@ -18506,7 +18556,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>2022</v>
       </c>
@@ -18567,7 +18617,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>2022</v>
       </c>
@@ -18581,10 +18631,10 @@
         <v>22</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>36</v>
@@ -18626,7 +18676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>2022</v>
       </c>
@@ -18685,7 +18735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>2022</v>
       </c>
@@ -18699,10 +18749,10 @@
         <v>22</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>36</v>
@@ -18744,7 +18794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>2022</v>
       </c>
@@ -18758,10 +18808,10 @@
         <v>22</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>36</v>
@@ -18803,7 +18853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>2022</v>
       </c>
@@ -18817,10 +18867,10 @@
         <v>22</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>36</v>
@@ -18862,7 +18912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>2022</v>
       </c>
@@ -18924,7 +18974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>2022</v>
       </c>
@@ -18986,7 +19036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>2022</v>
       </c>
@@ -19043,7 +19093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>2022</v>
       </c>
@@ -19100,7 +19150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>2022</v>
       </c>
@@ -19157,7 +19207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>2022</v>
       </c>
@@ -19275,7 +19325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>2022</v>
       </c>
@@ -19332,7 +19382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>2022</v>
       </c>
@@ -19389,7 +19439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>2022</v>
       </c>
@@ -19446,7 +19496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>2022</v>
       </c>
@@ -19503,7 +19553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>2022</v>
       </c>
@@ -19560,7 +19610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>2022</v>
       </c>
@@ -19617,7 +19667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>2022</v>
       </c>
@@ -19672,7 +19722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>2022</v>
       </c>
@@ -19727,7 +19777,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>2022</v>
       </c>
@@ -19782,7 +19832,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>2022</v>
       </c>
@@ -19837,7 +19887,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>2022</v>
       </c>
@@ -19892,7 +19942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>2022</v>
       </c>
@@ -19951,7 +20001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>2022</v>
       </c>
@@ -20010,7 +20060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>2022</v>
       </c>
@@ -20069,7 +20119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>2022</v>
       </c>
@@ -20128,7 +20178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>2022</v>
       </c>
@@ -20185,7 +20235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>2022</v>
       </c>
@@ -20242,7 +20292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>2022</v>
       </c>
@@ -20299,7 +20349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>2022</v>
       </c>
@@ -20352,7 +20402,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>2022</v>
       </c>
@@ -20405,7 +20455,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>2022</v>
       </c>
@@ -20458,7 +20508,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>2022</v>
       </c>
@@ -20633,7 +20683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>2022</v>
       </c>
@@ -20688,7 +20738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>2022</v>
       </c>
@@ -20743,7 +20793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>2022</v>
       </c>
@@ -20798,7 +20848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>2022</v>
       </c>
@@ -20912,7 +20962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>2022</v>
       </c>
@@ -20971,7 +21021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>2022</v>
       </c>
@@ -21030,7 +21080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>2022</v>
       </c>
@@ -21089,7 +21139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>2022</v>
       </c>
@@ -21148,7 +21198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>2022</v>
       </c>
@@ -21207,7 +21257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>2022</v>
       </c>
@@ -21266,7 +21316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>2022</v>
       </c>
@@ -21325,7 +21375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>2022</v>
       </c>
@@ -21384,7 +21434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>2022</v>
       </c>
@@ -21797,7 +21847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>2022</v>
       </c>
@@ -21859,7 +21909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>2022</v>
       </c>
@@ -21873,10 +21923,10 @@
         <v>22</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>137</v>
@@ -21919,7 +21969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>2022</v>
       </c>
@@ -21933,10 +21983,10 @@
         <v>22</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>137</v>
@@ -22156,7 +22206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>2022</v>
       </c>
@@ -22213,7 +22263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>2022</v>
       </c>
@@ -22270,7 +22320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>2022</v>
       </c>
@@ -22327,7 +22377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>2022</v>
       </c>
@@ -22384,7 +22434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>2022</v>
       </c>
@@ -22441,7 +22491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>2022</v>
       </c>
@@ -22498,7 +22548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>2022</v>
       </c>
@@ -22557,7 +22607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>2022</v>
       </c>
@@ -22616,7 +22666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>2022</v>
       </c>
@@ -22675,7 +22725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>2022</v>
       </c>
@@ -22734,7 +22784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>2022</v>
       </c>
@@ -22793,7 +22843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>2022</v>
       </c>
@@ -22852,7 +22902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>2022</v>
       </c>
@@ -22911,7 +22961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>2022</v>
       </c>
@@ -22970,7 +23020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>2022</v>
       </c>
@@ -23029,7 +23079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>2022</v>
       </c>
@@ -23088,7 +23138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>2022</v>
       </c>
@@ -23147,7 +23197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>2022</v>
       </c>
@@ -23206,7 +23256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>2022</v>
       </c>
@@ -23265,7 +23315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>2022</v>
       </c>
@@ -23324,7 +23374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>2022</v>
       </c>
@@ -23383,7 +23433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>2022</v>
       </c>
@@ -23442,7 +23492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>2022</v>
       </c>
@@ -23502,7 +23552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>2022</v>
       </c>
@@ -23739,7 +23789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>2022</v>
       </c>
@@ -23798,7 +23848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>2022</v>
       </c>
@@ -23857,7 +23907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>2022</v>
       </c>
@@ -23916,7 +23966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>2022</v>
       </c>
@@ -23973,7 +24023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>2022</v>
       </c>
@@ -24030,7 +24080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>2022</v>
       </c>
@@ -24087,7 +24137,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>2022</v>
       </c>
@@ -24144,7 +24194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>2022</v>
       </c>
@@ -24201,7 +24251,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>2022</v>
       </c>
@@ -24260,7 +24310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>2022</v>
       </c>
@@ -24319,7 +24369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>2022</v>
       </c>
@@ -24378,7 +24428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>2022</v>
       </c>
@@ -24437,7 +24487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>2022</v>
       </c>
@@ -24496,7 +24546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>2022</v>
       </c>
@@ -24555,7 +24605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>2022</v>
       </c>
@@ -24614,7 +24664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>2022</v>
       </c>
@@ -24673,7 +24723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>2022</v>
       </c>
@@ -24732,7 +24782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>2022</v>
       </c>
@@ -24791,7 +24841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>2022</v>
       </c>
@@ -24850,7 +24900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>2022</v>
       </c>
@@ -24909,7 +24959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>2022</v>
       </c>
@@ -24968,7 +25018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>2022</v>
       </c>
@@ -25025,7 +25075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>2022</v>
       </c>
@@ -25082,7 +25132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>2022</v>
       </c>
@@ -25139,7 +25189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>2022</v>
       </c>
@@ -25196,7 +25246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>2022</v>
       </c>
@@ -25253,7 +25303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>2022</v>
       </c>
@@ -25312,7 +25362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>2022</v>
       </c>
@@ -25371,7 +25421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>2022</v>
       </c>
@@ -25430,7 +25480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>2022</v>
       </c>
@@ -25489,7 +25539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>2022</v>
       </c>
@@ -25548,7 +25598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>2022</v>
       </c>
@@ -25607,7 +25657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>2022</v>
       </c>
@@ -25666,7 +25716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>2022</v>
       </c>
@@ -25725,7 +25775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>2022</v>
       </c>
@@ -25784,7 +25834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>2022</v>
       </c>
@@ -25843,7 +25893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>2022</v>
       </c>
@@ -25902,7 +25952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>2022</v>
       </c>
@@ -25961,7 +26011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>2022</v>
       </c>
@@ -26020,7 +26070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>2022</v>
       </c>
@@ -26079,7 +26129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>2022</v>
       </c>
@@ -26138,7 +26188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>2022</v>
       </c>
@@ -26197,7 +26247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>2022</v>
       </c>
@@ -26256,7 +26306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>2022</v>
       </c>
@@ -26315,7 +26365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>2022</v>
       </c>
@@ -26374,7 +26424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>2022</v>
       </c>
@@ -26431,7 +26481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>2022</v>
       </c>
@@ -26488,7 +26538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>2022</v>
       </c>
@@ -26545,7 +26595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>2022</v>
       </c>
@@ -26602,7 +26652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>2022</v>
       </c>
@@ -26659,7 +26709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>2022</v>
       </c>
@@ -26716,7 +26766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>2022</v>
       </c>
@@ -26775,7 +26825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>2022</v>
       </c>
@@ -26834,7 +26884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>2022</v>
       </c>
@@ -26893,7 +26943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>2022</v>
       </c>
@@ -26952,7 +27002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>2022</v>
       </c>
@@ -27011,7 +27061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>2022</v>
       </c>
@@ -27070,7 +27120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>2022</v>
       </c>
@@ -27129,7 +27179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>2022</v>
       </c>
@@ -27188,7 +27238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>2022</v>
       </c>
@@ -27247,7 +27297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>2022</v>
       </c>
@@ -27306,7 +27356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>2022</v>
       </c>
@@ -27365,7 +27415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>2022</v>
       </c>
@@ -27424,7 +27474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>2022</v>
       </c>
@@ -27483,7 +27533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>2022</v>
       </c>
@@ -27542,7 +27592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>2022</v>
       </c>
@@ -27601,7 +27651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>2022</v>
       </c>
@@ -27660,7 +27710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>2022</v>
       </c>
@@ -27719,7 +27769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>2022</v>
       </c>
@@ -27778,7 +27828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>2022</v>
       </c>
@@ -27837,7 +27887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="316" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>2022</v>
       </c>
@@ -27897,7 +27947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>2022</v>
       </c>
@@ -27956,7 +28006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>2022</v>
       </c>
@@ -28131,7 +28181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>2023</v>
       </c>
@@ -28190,7 +28240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>2023</v>
       </c>
@@ -28204,10 +28254,10 @@
         <v>22</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>36</v>
@@ -28432,7 +28482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>2023</v>
       </c>
@@ -28446,10 +28496,10 @@
         <v>22</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>25</v>
@@ -28491,7 +28541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>2023</v>
       </c>
@@ -28550,7 +28600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>2023</v>
       </c>
@@ -28731,7 +28781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>2023</v>
       </c>
@@ -28790,7 +28840,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="332" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>2023</v>
       </c>
@@ -28849,7 +28899,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>2023</v>
       </c>
@@ -28910,7 +28960,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="334" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>2023</v>
       </c>
@@ -28969,7 +29019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>2023</v>
       </c>
@@ -29211,7 +29261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>2023</v>
       </c>
@@ -29270,7 +29320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>2023</v>
       </c>
@@ -29329,7 +29379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>2023</v>
       </c>
@@ -29388,7 +29438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>2023</v>
       </c>
@@ -29447,7 +29497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>2023</v>
       </c>
@@ -30238,7 +30288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>2023</v>
       </c>
@@ -30297,7 +30347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>2023</v>
       </c>
@@ -30356,7 +30406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>2023</v>
       </c>
@@ -30415,7 +30465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>2023</v>
       </c>
@@ -30474,7 +30524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>2023</v>
       </c>
@@ -30533,7 +30583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>2023</v>
       </c>
@@ -30592,7 +30642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>2023</v>
       </c>
@@ -30651,7 +30701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>2023</v>
       </c>
@@ -30771,7 +30821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>2023</v>
       </c>
@@ -30826,7 +30876,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="366" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>2023</v>
       </c>
@@ -30881,7 +30931,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="367" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>2023</v>
       </c>
@@ -30936,7 +30986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="368" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>2023</v>
       </c>
@@ -30991,7 +31041,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="369" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>2023</v>
       </c>
@@ -31053,7 +31103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>2023</v>
       </c>
@@ -31115,7 +31165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>2023</v>
       </c>
@@ -31129,10 +31179,10 @@
         <v>22</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G371" s="2" t="s">
         <v>25</v>
@@ -31174,7 +31224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>2023</v>
       </c>
@@ -31233,7 +31283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>2023</v>
       </c>
@@ -31247,10 +31297,10 @@
         <v>22</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G373" s="2" t="s">
         <v>25</v>
@@ -31292,7 +31342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>2023</v>
       </c>
@@ -31776,7 +31826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>2023</v>
       </c>
@@ -31833,7 +31883,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="383" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>2023</v>
       </c>
@@ -31890,7 +31940,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="384" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>2023</v>
       </c>
@@ -31947,7 +31997,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>2023</v>
       </c>
@@ -32006,7 +32056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>2023</v>
       </c>
@@ -32065,7 +32115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>2023</v>
       </c>
@@ -32124,7 +32174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>2023</v>
       </c>
@@ -32186,7 +32236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>2023</v>
       </c>
@@ -32248,7 +32298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>2023</v>
       </c>
@@ -32310,7 +32360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>2023</v>
       </c>
@@ -32369,7 +32419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>2023</v>
       </c>
@@ -32383,10 +32433,10 @@
         <v>22</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G392" s="2" t="s">
         <v>169</v>
@@ -32609,7 +32659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="396" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>2023</v>
       </c>
@@ -32668,7 +32718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="397" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>2023</v>
       </c>
@@ -32727,7 +32777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>2023</v>
       </c>
@@ -32741,10 +32791,10 @@
         <v>22</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G398" s="2" t="s">
         <v>36</v>
@@ -32786,7 +32836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="399" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>2023</v>
       </c>
@@ -32843,7 +32893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="400" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>2023</v>
       </c>
@@ -32900,7 +32950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>2023</v>
       </c>
@@ -32957,7 +33007,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>2023</v>
       </c>
@@ -33014,7 +33064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="403" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>2023</v>
       </c>
@@ -33028,10 +33078,10 @@
         <v>22</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G403" s="2" t="s">
         <v>36</v>
@@ -33071,7 +33121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="404" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>2023</v>
       </c>
@@ -33085,10 +33135,10 @@
         <v>22</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G404" s="2" t="s">
         <v>36</v>
@@ -33130,7 +33180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>2023</v>
       </c>
@@ -33144,10 +33194,10 @@
         <v>22</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G405" s="2" t="s">
         <v>36</v>
@@ -33189,7 +33239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>2023</v>
       </c>
@@ -33248,7 +33298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="407" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>2023</v>
       </c>
@@ -33307,7 +33357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="408" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>2023</v>
       </c>
@@ -33366,7 +33416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>2023</v>
       </c>
@@ -33425,7 +33475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>2023</v>
       </c>
@@ -33484,7 +33534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>2023</v>
       </c>
@@ -33541,7 +33591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>2023</v>
       </c>
@@ -33600,7 +33650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>2023</v>
       </c>
@@ -33659,7 +33709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>2023</v>
       </c>
@@ -33718,7 +33768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>2023</v>
       </c>
@@ -33732,10 +33782,10 @@
         <v>22</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G415" s="2" t="s">
         <v>36</v>
@@ -33777,7 +33827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>2023</v>
       </c>
@@ -34629,7 +34679,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="430" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>2023</v>
       </c>
@@ -34688,7 +34738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>2023</v>
       </c>
@@ -34747,7 +34797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="432" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>2023</v>
       </c>
@@ -34806,7 +34856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="433" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>2023</v>
       </c>
@@ -34861,7 +34911,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="434" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>2023</v>
       </c>
@@ -35036,7 +35086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="437" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>2023</v>
       </c>
@@ -35095,7 +35145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>2023</v>
       </c>
@@ -35154,7 +35204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="439" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>2023</v>
       </c>
@@ -35213,7 +35263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="440" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>2023</v>
       </c>
@@ -35272,7 +35322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="441" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>2023</v>
       </c>
@@ -35286,10 +35336,10 @@
         <v>22</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G441" s="2" t="s">
         <v>25</v>
@@ -35331,7 +35381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>2023</v>
       </c>
@@ -35390,7 +35440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>2023</v>
       </c>
@@ -35449,7 +35499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>2023</v>
       </c>
@@ -36403,7 +36453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>2023</v>
       </c>
@@ -36417,10 +36467,10 @@
         <v>22</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G460" s="2" t="s">
         <v>169</v>
@@ -36586,7 +36636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>2023</v>
       </c>
@@ -36600,10 +36650,10 @@
         <v>22</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>169</v>
@@ -36830,7 +36880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>2023</v>
       </c>
@@ -36844,10 +36894,10 @@
         <v>22</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G467" s="2" t="s">
         <v>169</v>
@@ -37312,7 +37362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>2023</v>
       </c>
@@ -37552,7 +37602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="479" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>2023</v>
       </c>
@@ -37611,7 +37661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>2024</v>
       </c>
@@ -37670,7 +37720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="481" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>2024</v>
       </c>
@@ -37684,10 +37734,10 @@
         <v>22</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G481" s="2" t="s">
         <v>25</v>
@@ -37729,7 +37779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="482" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>2024</v>
       </c>
@@ -37788,7 +37838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="483" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>2024</v>
       </c>
@@ -37847,7 +37897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>2024</v>
       </c>
@@ -38028,7 +38078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>2024</v>
       </c>
@@ -38087,7 +38137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>2024</v>
       </c>
@@ -38146,7 +38196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>2024</v>
       </c>
@@ -38205,7 +38255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="490" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>2024</v>
       </c>
@@ -38264,7 +38314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>2024</v>
       </c>
@@ -38278,10 +38328,10 @@
         <v>22</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G491" s="2" t="s">
         <v>36</v>
@@ -38323,7 +38373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>2024</v>
       </c>
@@ -38382,7 +38432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>2024</v>
       </c>
@@ -38441,7 +38491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>2024</v>
       </c>
@@ -38500,7 +38550,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="495" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>2024</v>
       </c>
@@ -38559,7 +38609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="496" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>2024</v>
       </c>
@@ -38618,7 +38668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>2024</v>
       </c>
@@ -38677,7 +38727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="498" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>2024</v>
       </c>
@@ -38736,7 +38786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>2024</v>
       </c>
@@ -38795,7 +38845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>2024</v>
       </c>
@@ -38854,7 +38904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="501" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>2024</v>
       </c>
@@ -38913,7 +38963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="502" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>2024</v>
       </c>
@@ -38972,7 +39022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="503" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>2024</v>
       </c>
@@ -39031,7 +39081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="504" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>2024</v>
       </c>
@@ -39088,7 +39138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="505" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>2024</v>
       </c>
@@ -39145,7 +39195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="506" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>2024</v>
       </c>
@@ -39202,7 +39252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="507" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>2024</v>
       </c>
@@ -39810,7 +39860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="517" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>2024</v>
       </c>
@@ -39869,7 +39919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="518" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>2024</v>
       </c>
@@ -39928,7 +39978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="519" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>2024</v>
       </c>
@@ -39987,7 +40037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="520" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>2024</v>
       </c>
@@ -40046,7 +40096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="521" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>2024</v>
       </c>
@@ -40105,7 +40155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="522" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>2024</v>
       </c>
@@ -40406,7 +40456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="527" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>2024</v>
       </c>
@@ -40465,7 +40515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="528" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>2024</v>
       </c>
@@ -40524,7 +40574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="529" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>2024</v>
       </c>
@@ -40583,7 +40633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="530" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>2024</v>
       </c>
@@ -41177,7 +41227,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="540" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>2024</v>
       </c>
@@ -41234,7 +41284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="541" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>2024</v>
       </c>
@@ -41291,7 +41341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="542" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>2024</v>
       </c>
@@ -41348,7 +41398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="543" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>2024</v>
       </c>
@@ -41362,10 +41412,10 @@
         <v>22</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G543" s="2" t="s">
         <v>169</v>
@@ -41409,7 +41459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="544" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>2024</v>
       </c>
@@ -41423,10 +41473,10 @@
         <v>22</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G544" s="2" t="s">
         <v>169</v>
@@ -41470,7 +41520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="545" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>2024</v>
       </c>
@@ -41527,7 +41577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="546" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>2024</v>
       </c>
@@ -41708,7 +41758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="549" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>2024</v>
       </c>
@@ -41765,7 +41815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="550" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>2024</v>
       </c>
@@ -41824,7 +41874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="551" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>2024</v>
       </c>
@@ -41883,7 +41933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="552" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>2024</v>
       </c>
@@ -41942,7 +41992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="553" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>2024</v>
       </c>
@@ -42001,7 +42051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="554" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>2024</v>
       </c>
@@ -42060,7 +42110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="555" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>2024</v>
       </c>
@@ -42074,10 +42124,10 @@
         <v>22</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G555" s="2" t="s">
         <v>169</v>
@@ -42182,7 +42232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="557" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>2024</v>
       </c>
@@ -42241,7 +42291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="558" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>2024</v>
       </c>
@@ -42300,7 +42350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="559" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>2024</v>
       </c>
@@ -42359,7 +42409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="560" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>2024</v>
       </c>
@@ -42418,7 +42468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="561" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>2024</v>
       </c>
@@ -42477,7 +42527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="562" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>2024</v>
       </c>
@@ -42536,7 +42586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="563" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>2024</v>
       </c>
@@ -42595,7 +42645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="564" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>2024</v>
       </c>
@@ -42654,7 +42704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="565" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>2024</v>
       </c>
@@ -42713,7 +42763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="566" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>2024</v>
       </c>
@@ -42727,10 +42777,10 @@
         <v>22</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G566" s="2" t="s">
         <v>169</v>
@@ -42772,7 +42822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="567" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>2024</v>
       </c>
@@ -42786,10 +42836,10 @@
         <v>22</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G567" s="2" t="s">
         <v>169</v>
@@ -43008,7 +43058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="571" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>2024</v>
       </c>
@@ -43067,7 +43117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="572" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>2024</v>
       </c>
@@ -43081,10 +43131,10 @@
         <v>22</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G572" s="2" t="s">
         <v>25</v>
@@ -43126,7 +43176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="573" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>2024</v>
       </c>
@@ -43140,10 +43190,10 @@
         <v>22</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G573" s="2" t="s">
         <v>25</v>
@@ -43185,7 +43235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="574" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>2024</v>
       </c>
@@ -43244,7 +43294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="575" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>2024</v>
       </c>
@@ -43303,7 +43353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="576" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>2024</v>
       </c>
@@ -43364,7 +43414,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="577" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>2024</v>
       </c>
@@ -43425,7 +43475,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="578" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>2024</v>
       </c>
@@ -43486,7 +43536,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="579" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>2024</v>
       </c>
@@ -43547,7 +43597,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="580" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>2024</v>
       </c>
@@ -43608,7 +43658,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="581" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>2024</v>
       </c>
@@ -43622,10 +43672,10 @@
         <v>22</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G581" s="2" t="s">
         <v>25</v>
@@ -43667,7 +43717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="582" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>2024</v>
       </c>
@@ -43726,7 +43776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="583" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>2024</v>
       </c>
@@ -43787,7 +43837,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="584" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>2024</v>
       </c>
@@ -43848,7 +43898,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="585" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>2024</v>
       </c>
@@ -43909,7 +43959,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="586" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>2024</v>
       </c>
@@ -43970,7 +44020,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="587" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>2024</v>
       </c>
@@ -44031,7 +44081,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="588" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>2024</v>
       </c>
@@ -44092,7 +44142,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="589" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>2024</v>
       </c>
@@ -44153,7 +44203,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="590" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>2024</v>
       </c>
@@ -44214,7 +44264,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="591" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>2024</v>
       </c>
@@ -44275,7 +44325,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="592" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <v>2024</v>
       </c>
@@ -44334,7 +44384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="593" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>2024</v>
       </c>
@@ -44393,7 +44443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="594" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>2024</v>
       </c>
@@ -44452,7 +44502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="595" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>2024</v>
       </c>
@@ -44511,7 +44561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="596" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>2024</v>
       </c>
@@ -44568,7 +44618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="597" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>2024</v>
       </c>
@@ -44625,7 +44675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="598" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>2024</v>
       </c>
@@ -44682,7 +44732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="599" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>2024</v>
       </c>
@@ -44739,7 +44789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="600" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>2024</v>
       </c>
@@ -44973,7 +45023,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="604" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>2024</v>
       </c>
@@ -45033,7 +45083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <v>2024</v>
       </c>
@@ -45093,7 +45143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>2024</v>
       </c>
@@ -45153,7 +45203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
         <v>2024</v>
       </c>
@@ -45213,7 +45263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <v>2024</v>
       </c>
@@ -45273,7 +45323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
         <v>2024</v>
       </c>
@@ -45333,7 +45383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <v>2024</v>
       </c>
@@ -45393,7 +45443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
         <v>2024</v>
       </c>
@@ -45453,7 +45503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <v>2024</v>
       </c>
@@ -45513,7 +45563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
         <v>2024</v>
       </c>
@@ -45573,7 +45623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>2024</v>
       </c>
@@ -45632,7 +45682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="615" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
         <v>2024</v>
       </c>
@@ -45691,7 +45741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <v>2024</v>
       </c>
@@ -45750,7 +45800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="617" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <v>2024</v>
       </c>
@@ -45809,7 +45859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="618" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
         <v>2024</v>
       </c>
@@ -45868,7 +45918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="619" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
         <v>2024</v>
       </c>
@@ -45927,7 +45977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="620" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
         <v>2024</v>
       </c>
@@ -45986,7 +46036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="621" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
         <v>2024</v>
       </c>
@@ -46045,7 +46095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="622" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <v>2024</v>
       </c>
@@ -46104,7 +46154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="623" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <v>2024</v>
       </c>
@@ -46163,7 +46213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="624" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
         <v>2024</v>
       </c>
@@ -46222,7 +46272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="625" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <v>2024</v>
       </c>
@@ -46281,7 +46331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="626" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
         <v>2024</v>
       </c>
@@ -46340,7 +46390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <v>2024</v>
       </c>
@@ -46399,7 +46449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="628" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
         <v>2024</v>
       </c>
@@ -46458,7 +46508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="629" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <v>2024</v>
       </c>
@@ -46515,7 +46565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="630" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <v>2024</v>
       </c>
@@ -46572,7 +46622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="631" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <v>2024</v>
       </c>
@@ -46631,7 +46681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="632" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <v>2024</v>
       </c>
@@ -46688,7 +46738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="633" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A633" s="2">
         <v>2024</v>
       </c>
@@ -46745,7 +46795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="634" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <v>2024</v>
       </c>
@@ -46802,7 +46852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="635" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2">
         <v>2024</v>
       </c>
@@ -46859,7 +46909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="636" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2">
         <v>2024</v>
       </c>
@@ -46918,7 +46968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="637" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2">
         <v>2024</v>
       </c>
@@ -46977,7 +47027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="638" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
         <v>2024</v>
       </c>
@@ -47097,7 +47147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="640" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
         <v>2024</v>
       </c>
@@ -47156,7 +47206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="641" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2">
         <v>2024</v>
       </c>
@@ -47215,7 +47265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="642" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
         <v>2024</v>
       </c>
@@ -47274,7 +47324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="643" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A643" s="2">
         <v>2024</v>
       </c>
@@ -47333,7 +47383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
         <v>2024</v>
       </c>
@@ -47392,7 +47442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="645" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A645" s="2">
         <v>2024</v>
       </c>
@@ -47451,7 +47501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="646" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
         <v>2024</v>
       </c>
@@ -47510,7 +47560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="647" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
         <v>2024</v>
       </c>
@@ -47687,7 +47737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="650" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A650" s="2">
         <v>2024</v>
       </c>
@@ -47746,7 +47796,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="651" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
         <v>2024</v>
       </c>
@@ -47805,7 +47855,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="652" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A652" s="2">
         <v>2024</v>
       </c>
@@ -47864,7 +47914,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="653" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
         <v>2024</v>
       </c>
@@ -47923,7 +47973,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="654" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
         <v>2024</v>
       </c>
@@ -47982,7 +48032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="655" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
         <v>2024</v>
       </c>
@@ -48041,7 +48091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="656" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
         <v>2024</v>
       </c>
@@ -48100,7 +48150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="657" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
         <v>2024</v>
       </c>
@@ -48159,7 +48209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="658" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2">
         <v>2024</v>
       </c>
@@ -48218,7 +48268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="659" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
         <v>2024</v>
       </c>
@@ -48277,7 +48327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="660" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A660" s="2">
         <v>2024</v>
       </c>
@@ -48334,7 +48384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="661" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A661" s="2">
         <v>2024</v>
       </c>
@@ -48391,7 +48441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="662" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2">
         <v>2024</v>
       </c>
@@ -48511,7 +48561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="664" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <v>2024</v>
       </c>
@@ -48570,7 +48620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="665" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A665" s="2">
         <v>2024</v>
       </c>
@@ -48629,7 +48679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="666" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
         <v>2024</v>
       </c>
@@ -48688,7 +48738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="667" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A667" s="2">
         <v>2024</v>
       </c>
@@ -48747,7 +48797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="668" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A668" s="2">
         <v>2024</v>
       </c>
@@ -48806,7 +48856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="669" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A669" s="2">
         <v>2024</v>
       </c>
@@ -48865,7 +48915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="670" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A670" s="2">
         <v>2024</v>
       </c>
@@ -48924,7 +48974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="671" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A671" s="2">
         <v>2024</v>
       </c>
@@ -48983,7 +49033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="672" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A672" s="2">
         <v>2024</v>
       </c>
@@ -49042,7 +49092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="673" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2">
         <v>2024</v>
       </c>
@@ -49056,10 +49106,10 @@
         <v>22</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F673" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G673" s="2" t="s">
         <v>36</v>
@@ -49101,7 +49151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="674" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <v>2024</v>
       </c>
@@ -49160,7 +49210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="675" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2">
         <v>2024</v>
       </c>
@@ -49219,7 +49269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="676" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <v>2024</v>
       </c>
@@ -49279,7 +49329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="677" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <v>2024</v>
       </c>
@@ -49338,7 +49388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="678" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2">
         <v>2024</v>
       </c>
@@ -49397,7 +49447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="679" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <v>2024</v>
       </c>
@@ -49456,7 +49506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="680" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2">
         <v>2024</v>
       </c>
@@ -49515,7 +49565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="681" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2">
         <v>2024</v>
       </c>
@@ -49574,7 +49624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="682" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2">
         <v>2024</v>
       </c>
@@ -49633,7 +49683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2">
         <v>2024</v>
       </c>
@@ -49647,10 +49697,10 @@
         <v>22</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G683" s="2" t="s">
         <v>169</v>
@@ -49694,7 +49744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="684" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2">
         <v>2024</v>
       </c>
@@ -49708,10 +49758,10 @@
         <v>22</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G684" s="2" t="s">
         <v>169</v>
@@ -49816,7 +49866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="686" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2">
         <v>2024</v>
       </c>
@@ -49830,10 +49880,10 @@
         <v>22</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G686" s="2" t="s">
         <v>169</v>
@@ -49877,7 +49927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="687" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2">
         <v>2024</v>
       </c>
@@ -49891,10 +49941,10 @@
         <v>22</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G687" s="2" t="s">
         <v>25</v>
@@ -49936,7 +49986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="688" spans="1:22" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A688" s="2">
         <v>2024</v>
       </c>
@@ -49995,7 +50045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="689" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A689" s="2">
         <v>2024</v>
       </c>
@@ -50052,7 +50102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="690" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A690" s="2">
         <v>2024</v>
       </c>
@@ -50109,7 +50159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="691" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A691" s="2">
         <v>2024</v>
       </c>
@@ -50166,7 +50216,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="692" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A692" s="2">
         <v>2024</v>
       </c>
@@ -50223,7 +50273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="693" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A693" s="2">
         <v>2024</v>
       </c>
@@ -50280,7 +50330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="694" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A694" s="2">
         <v>2024</v>
       </c>
@@ -50337,7 +50387,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="695" spans="1:21" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A695" s="2">
         <v>2024</v>
       </c>
@@ -50394,7 +50444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="696" spans="1:21" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A696" s="2">
         <v>2024</v>
       </c>
@@ -50451,7 +50501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="697" spans="1:21" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A697" s="2">
         <v>2024</v>
       </c>
@@ -50508,7 +50558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="698" spans="1:21" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A698" s="2">
         <v>2024</v>
       </c>
@@ -50565,7 +50615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="699" spans="1:21" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A699" s="2">
         <v>2024</v>
       </c>
@@ -50622,7 +50672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="700" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2">
         <v>2024</v>
       </c>
@@ -50679,7 +50729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="701" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2">
         <v>2024</v>
       </c>
@@ -50736,7 +50786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2">
         <v>2024</v>
       </c>
@@ -50793,7 +50843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="703" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2">
         <v>2024</v>
       </c>
@@ -50850,7 +50900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="704" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2">
         <v>2024</v>
       </c>
@@ -50907,7 +50957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="705" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2">
         <v>2024</v>
       </c>
@@ -50921,10 +50971,10 @@
         <v>22</v>
       </c>
       <c r="E705" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G705" s="2" t="s">
         <v>137</v>
@@ -50969,7 +51019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2">
         <v>2024</v>
       </c>
@@ -50983,10 +51033,10 @@
         <v>22</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F706" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G706" s="2" t="s">
         <v>36</v>
@@ -51024,7 +51074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2">
         <v>2024</v>
       </c>
@@ -51079,7 +51129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="708" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2">
         <v>2024</v>
       </c>
@@ -51134,7 +51184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2">
         <v>2024</v>
       </c>
@@ -51189,7 +51239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="710" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2">
         <v>2024</v>
       </c>
@@ -51244,7 +51294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="711" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2">
         <v>2024</v>
       </c>
@@ -51299,7 +51349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="712" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A712" s="2">
         <v>2024</v>
       </c>
@@ -51354,7 +51404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="713" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A713" s="2">
         <v>2024</v>
       </c>
@@ -51409,7 +51459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="714" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A714" s="2">
         <v>2024</v>
       </c>
@@ -51464,7 +51514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="715" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A715" s="2">
         <v>2024</v>
       </c>
@@ -51519,7 +51569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="716" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A716" s="2">
         <v>2024</v>
       </c>
@@ -51574,7 +51624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="717" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2">
         <v>2024</v>
       </c>
@@ -51629,7 +51679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="718" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2">
         <v>2024</v>
       </c>
@@ -51684,7 +51734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2">
         <v>2024</v>
       </c>
@@ -51739,7 +51789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="720" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2">
         <v>2024</v>
       </c>
@@ -51794,7 +51844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="721" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2">
         <v>2024</v>
       </c>
@@ -51849,7 +51899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="722" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A722" s="2">
         <v>2024</v>
       </c>
@@ -51904,7 +51954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="723" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A723" s="2">
         <v>2024</v>
       </c>
@@ -51959,7 +52009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="724" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
         <v>2024</v>
       </c>
@@ -52014,7 +52064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="725" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2">
         <v>2024</v>
       </c>
@@ -52069,7 +52119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="726" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2">
         <v>2024</v>
       </c>
@@ -52124,7 +52174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="727" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2">
         <v>2024</v>
       </c>
@@ -52138,10 +52188,10 @@
         <v>22</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G727" s="2" t="s">
         <v>169</v>
@@ -52183,7 +52233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="728" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
         <v>2024</v>
       </c>
@@ -52197,10 +52247,10 @@
         <v>22</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G728" s="2" t="s">
         <v>169</v>
@@ -52598,7 +52648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="735" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2">
         <v>2024</v>
       </c>
@@ -52612,10 +52662,10 @@
         <v>22</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F735" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G735" s="2" t="s">
         <v>137</v>
@@ -52660,7 +52710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A736" s="2">
         <v>2024</v>
       </c>
@@ -52720,7 +52770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="737" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A737" s="2">
         <v>2024</v>
       </c>
@@ -52780,7 +52830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="738" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A738" s="2">
         <v>2024</v>
       </c>
@@ -52840,7 +52890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A739" s="2">
         <v>2024</v>
       </c>
@@ -52900,7 +52950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="740" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2">
         <v>2024</v>
       </c>
@@ -52914,10 +52964,10 @@
         <v>22</v>
       </c>
       <c r="E740" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G740" s="2" t="s">
         <v>137</v>
@@ -52960,7 +53010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A741" s="2">
         <v>2024</v>
       </c>
@@ -53020,7 +53070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="742" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A742" s="2">
         <v>2024</v>
       </c>
@@ -53080,7 +53130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="743" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A743" s="2">
         <v>2024</v>
       </c>
@@ -53140,7 +53190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="744" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2">
         <v>2024</v>
       </c>
@@ -53154,10 +53204,10 @@
         <v>22</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F744" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G744" s="2" t="s">
         <v>137</v>
@@ -53200,7 +53250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="745" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A745" s="2">
         <v>2024</v>
       </c>
@@ -53260,7 +53310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="746" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A746" s="2">
         <v>2024</v>
       </c>
@@ -53320,7 +53370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="747" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2">
         <v>2024</v>
       </c>
@@ -53334,10 +53384,10 @@
         <v>22</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G747" s="2" t="s">
         <v>137</v>
@@ -53380,7 +53430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="748" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A748" s="2">
         <v>2024</v>
       </c>
@@ -53440,7 +53490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="749" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2">
         <v>2024</v>
       </c>
@@ -53454,10 +53504,10 @@
         <v>22</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F749" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G749" s="2" t="s">
         <v>137</v>
@@ -53500,7 +53550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A750" s="2">
         <v>2024</v>
       </c>
@@ -53560,7 +53610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="751" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A751" s="2">
         <v>2024</v>
       </c>
@@ -53620,7 +53670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="752" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A752" s="2">
         <v>2024</v>
       </c>
@@ -53680,7 +53730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="753" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A753" s="2">
         <v>2024</v>
       </c>
@@ -53740,7 +53790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="754" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A754" s="2">
         <v>2024</v>
       </c>
@@ -53800,7 +53850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="755" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A755" s="2">
         <v>2024</v>
       </c>
@@ -53860,7 +53910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="756" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A756" s="2">
         <v>2024</v>
       </c>
@@ -53920,7 +53970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="757" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A757" s="2">
         <v>2024</v>
       </c>
@@ -53980,7 +54030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="758" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A758" s="2">
         <v>2024</v>
       </c>
@@ -54040,7 +54090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="759" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A759" s="2">
         <v>2024</v>
       </c>
@@ -54100,7 +54150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="760" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A760" s="2">
         <v>2024</v>
       </c>
@@ -54160,7 +54210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="761" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A761" s="2">
         <v>2024</v>
       </c>
@@ -54220,7 +54270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="762" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A762" s="2">
         <v>2024</v>
       </c>
@@ -54280,7 +54330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="763" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A763" s="2">
         <v>2024</v>
       </c>
@@ -54340,7 +54390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="764" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A764" s="2">
         <v>2024</v>
       </c>
@@ -54400,7 +54450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="765" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A765" s="2">
         <v>2024</v>
       </c>
@@ -54460,7 +54510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="766" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A766" s="2">
         <v>2024</v>
       </c>
@@ -54520,7 +54570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="767" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A767" s="2">
         <v>2024</v>
       </c>
@@ -54580,7 +54630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="768" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A768" s="2">
         <v>2024</v>
       </c>
@@ -54640,7 +54690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="769" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A769" s="2">
         <v>2024</v>
       </c>
@@ -54700,7 +54750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A770" s="2">
         <v>2024</v>
       </c>
@@ -54760,7 +54810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A771" s="2">
         <v>2024</v>
       </c>
@@ -54820,7 +54870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A772" s="2">
         <v>2024</v>
       </c>
@@ -54880,7 +54930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="773" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A773" s="2">
         <v>2024</v>
       </c>
@@ -54940,7 +54990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="774" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A774" s="2">
         <v>2024</v>
       </c>
@@ -55000,7 +55050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="775" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A775" s="2">
         <v>2024</v>
       </c>
@@ -55060,7 +55110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="776" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2">
         <v>2024</v>
       </c>
@@ -55117,7 +55167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="777" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2">
         <v>2024</v>
       </c>
@@ -55174,7 +55224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="778" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2">
         <v>2024</v>
       </c>
@@ -55231,7 +55281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="779" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2">
         <v>2024</v>
       </c>
@@ -55288,7 +55338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="780" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A780" s="2">
         <v>2024</v>
       </c>
@@ -55345,7 +55395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="781" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2">
         <v>2024</v>
       </c>
@@ -55402,7 +55452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="782" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2">
         <v>2024</v>
       </c>
@@ -55459,7 +55509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="783" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2">
         <v>2024</v>
       </c>
@@ -55516,7 +55566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="784" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2">
         <v>2024</v>
       </c>
@@ -55573,7 +55623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="785" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A785" s="2">
         <v>2025</v>
       </c>
@@ -55632,7 +55682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="786" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2">
         <v>2025</v>
       </c>
@@ -55646,10 +55696,10 @@
         <v>22</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G786" s="2" t="s">
         <v>25</v>
@@ -55691,7 +55741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="787" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A787" s="2">
         <v>2025</v>
       </c>
@@ -55933,7 +55983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="791" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2">
         <v>2025</v>
       </c>
@@ -55947,10 +55997,10 @@
         <v>22</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F791" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G791" s="2" t="s">
         <v>25</v>
@@ -55992,7 +56042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="792" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A792" s="2">
         <v>2025</v>
       </c>
@@ -56051,7 +56101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="793" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A793" s="2">
         <v>2025</v>
       </c>
@@ -56110,7 +56160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="794" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2">
         <v>2025</v>
       </c>
@@ -56169,7 +56219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="795" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2">
         <v>2025</v>
       </c>
@@ -56228,7 +56278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="796" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2">
         <v>2025</v>
       </c>
@@ -56287,7 +56337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="797" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2">
         <v>2025</v>
       </c>
@@ -56346,7 +56396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="798" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2">
         <v>2025</v>
       </c>
@@ -56405,7 +56455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="799" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2">
         <v>2025</v>
       </c>
@@ -56419,10 +56469,10 @@
         <v>22</v>
       </c>
       <c r="E799" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G799" s="2" t="s">
         <v>36</v>
@@ -56464,7 +56514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="800" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A800" s="2">
         <v>2025</v>
       </c>
@@ -56523,7 +56573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="801" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A801" s="2">
         <v>2025</v>
       </c>
@@ -56582,7 +56632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="802" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A802" s="2">
         <v>2025</v>
       </c>
@@ -56763,7 +56813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="805" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="2">
         <v>2025</v>
       </c>
@@ -56777,10 +56827,10 @@
         <v>22</v>
       </c>
       <c r="E805" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G805" s="2" t="s">
         <v>169</v>
@@ -56822,7 +56872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="806" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="2">
         <v>2025</v>
       </c>
@@ -56836,10 +56886,10 @@
         <v>22</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G806" s="2" t="s">
         <v>169</v>
@@ -56881,7 +56931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="807" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A807" s="2">
         <v>2025</v>
       </c>
@@ -56940,7 +56990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="808" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2">
         <v>2025</v>
       </c>
@@ -56954,10 +57004,10 @@
         <v>22</v>
       </c>
       <c r="E808" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F808" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G808" s="2" t="s">
         <v>25</v>
@@ -56999,7 +57049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="809" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A809" s="2">
         <v>2025</v>
       </c>
@@ -57058,7 +57108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="810" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A810" s="2">
         <v>2025</v>
       </c>
@@ -57117,7 +57167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="811" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="2">
         <v>2025</v>
       </c>
@@ -57176,7 +57226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="812" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2">
         <v>2025</v>
       </c>
@@ -57190,10 +57240,10 @@
         <v>22</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G812" s="2" t="s">
         <v>169</v>
@@ -57237,7 +57287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="813" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="2">
         <v>2025</v>
       </c>
@@ -57251,10 +57301,10 @@
         <v>22</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G813" s="2" t="s">
         <v>169</v>
@@ -57298,7 +57348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="814" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="2">
         <v>2025</v>
       </c>
@@ -57312,10 +57362,10 @@
         <v>22</v>
       </c>
       <c r="E814" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G814" s="2" t="s">
         <v>169</v>
@@ -57359,7 +57409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="815" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2">
         <v>2025</v>
       </c>
@@ -57373,10 +57423,10 @@
         <v>22</v>
       </c>
       <c r="E815" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G815" s="2" t="s">
         <v>169</v>
@@ -57481,7 +57531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="817" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="2">
         <v>2025</v>
       </c>
@@ -57495,10 +57545,10 @@
         <v>22</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G817" s="2" t="s">
         <v>169</v>
@@ -57664,7 +57714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="820" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="2">
         <v>2025</v>
       </c>
@@ -57678,10 +57728,10 @@
         <v>22</v>
       </c>
       <c r="E820" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F820" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G820" s="2" t="s">
         <v>169</v>
@@ -57725,7 +57775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="821" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="2">
         <v>2025</v>
       </c>
@@ -57739,10 +57789,10 @@
         <v>22</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G821" s="2" t="s">
         <v>169</v>
@@ -57969,7 +58019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="825" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="2">
         <v>2025</v>
       </c>
@@ -57983,10 +58033,10 @@
         <v>22</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G825" s="2" t="s">
         <v>169</v>
@@ -58030,7 +58080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="826" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A826" s="2">
         <v>2025</v>
       </c>
@@ -58209,7 +58259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="829" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A829" s="2">
         <v>2025</v>
       </c>
@@ -58268,7 +58318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="830" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A830" s="2">
         <v>2025</v>
       </c>
@@ -58327,7 +58377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="831" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A831" s="2">
         <v>2025</v>
       </c>
@@ -58386,7 +58436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="832" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A832" s="2">
         <v>2025</v>
       </c>
@@ -58445,7 +58495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="833" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A833" s="2">
         <v>2025</v>
       </c>
@@ -58504,7 +58554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="834" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A834" s="2">
         <v>2025</v>
       </c>
@@ -58563,7 +58613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="835" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A835" s="2">
         <v>2025</v>
       </c>
@@ -58622,7 +58672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="836" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A836" s="2">
         <v>2025</v>
       </c>
@@ -58681,7 +58731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="837" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A837" s="2">
         <v>2025</v>
       </c>
@@ -59228,7 +59278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="846" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A846" s="2">
         <v>2025</v>
       </c>
@@ -59287,7 +59337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="847" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A847" s="2">
         <v>2025</v>
       </c>
@@ -59407,7 +59457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="849" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="2">
         <v>2025</v>
       </c>
@@ -59421,10 +59471,10 @@
         <v>22</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>337</v>
+        <v>47</v>
       </c>
       <c r="G849" s="2" t="s">
         <v>25</v>
@@ -59462,7 +59512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="850" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="2">
         <v>2025</v>
       </c>
@@ -59476,10 +59526,10 @@
         <v>22</v>
       </c>
       <c r="E850" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F850" s="2" t="s">
-        <v>337</v>
+        <v>47</v>
       </c>
       <c r="G850" s="2" t="s">
         <v>36</v>
@@ -59932,7 +59982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="858" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A858" s="2">
         <v>2025</v>
       </c>
@@ -59991,7 +60041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="859" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A859" s="2">
         <v>2025</v>
       </c>
@@ -60050,7 +60100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="860" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A860" s="2">
         <v>2025</v>
       </c>
@@ -60109,7 +60159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="861" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A861" s="2">
         <v>2025</v>
       </c>
@@ -60168,7 +60218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="862" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="2">
         <v>2025</v>
       </c>
@@ -60225,7 +60275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="863" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="2">
         <v>2025</v>
       </c>
@@ -60284,7 +60334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="864" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A864" s="2">
         <v>2025</v>
       </c>
@@ -60341,7 +60391,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="865" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A865" s="2">
         <v>2025</v>
       </c>
@@ -60398,7 +60448,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="866" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A866" s="2">
         <v>2025</v>
       </c>
@@ -60455,7 +60505,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="867" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A867" s="2">
         <v>2025</v>
       </c>
@@ -60512,7 +60562,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="868" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A868" s="2">
         <v>2025</v>
       </c>
@@ -60571,7 +60621,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="869" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A869" s="2">
         <v>2025</v>
       </c>
@@ -60628,7 +60678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="870" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A870" s="2">
         <v>2025</v>
       </c>
@@ -60685,7 +60735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="871" spans="1:22" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A871" s="2">
         <v>2025</v>
       </c>
@@ -60745,7 +60795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="872" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A872" s="2">
         <v>2025</v>
       </c>
@@ -60807,7 +60857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="873" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A873" s="2">
         <v>2025</v>
       </c>
@@ -60867,7 +60917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="874" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A874" s="2">
         <v>2025</v>
       </c>
@@ -60927,7 +60977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="875" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A875" s="2">
         <v>2025</v>
       </c>
@@ -60987,7 +61037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="876" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A876" s="2">
         <v>2025</v>
       </c>
@@ -61047,7 +61097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="877" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A877" s="2">
         <v>2025</v>
       </c>
@@ -61107,7 +61157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="878" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A878" s="2">
         <v>2025</v>
       </c>
@@ -61167,7 +61217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="879" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A879" s="2">
         <v>2025</v>
       </c>
@@ -61227,7 +61277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="880" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="2">
         <v>2025</v>
       </c>
@@ -61284,7 +61334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="881" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="2">
         <v>2025</v>
       </c>
@@ -61341,7 +61391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="882" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="2">
         <v>2025</v>
       </c>
@@ -61398,7 +61448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="883" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="2">
         <v>2025</v>
       </c>
@@ -61455,7 +61505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="884" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="2">
         <v>2025</v>
       </c>
@@ -61512,7 +61562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="885" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="2">
         <v>2025</v>
       </c>
@@ -61569,7 +61619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="886" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="2">
         <v>2025</v>
       </c>
@@ -61626,7 +61676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="887" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="2">
         <v>2025</v>
       </c>
@@ -61683,7 +61733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="888" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="2">
         <v>2025</v>
       </c>
@@ -61801,7 +61851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="890" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="2">
         <v>2025</v>
       </c>
@@ -61919,7 +61969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="892" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="2">
         <v>2025</v>
       </c>
@@ -61976,7 +62026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="893" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="2">
         <v>2025</v>
       </c>
@@ -62035,7 +62085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="894" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2">
         <v>2025</v>
       </c>
@@ -62094,7 +62144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="895" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="2">
         <v>2025</v>
       </c>
@@ -62153,7 +62203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="896" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="2">
         <v>2025</v>
       </c>
@@ -62212,7 +62262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="897" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="2">
         <v>2025</v>
       </c>
@@ -62271,7 +62321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="898" spans="1:21" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="2">
         <v>2025</v>
       </c>
@@ -62328,7 +62378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="899" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="2">
         <v>2025</v>
       </c>
@@ -62387,7 +62437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="900" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="2">
         <v>2025</v>
       </c>
@@ -62446,7 +62496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="901" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="2">
         <v>2025</v>
       </c>
@@ -62503,7 +62553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="902" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="2">
         <v>2025</v>
       </c>
@@ -62517,10 +62567,10 @@
         <v>22</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G902" s="2" t="s">
         <v>169</v>
@@ -62682,7 +62732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="905" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="2">
         <v>2025</v>
       </c>
@@ -62920,7 +62970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="909" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A909" s="2">
         <v>2025</v>
       </c>
@@ -62981,7 +63031,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="910" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="2">
         <v>2025</v>
       </c>
@@ -62995,10 +63045,10 @@
         <v>22</v>
       </c>
       <c r="E910" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F910" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G910" s="2" t="s">
         <v>137</v>
@@ -63042,7 +63092,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="911" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="2">
         <v>2025</v>
       </c>
@@ -63056,10 +63106,10 @@
         <v>22</v>
       </c>
       <c r="E911" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>337</v>
+        <v>47</v>
       </c>
       <c r="G911" s="2" t="s">
         <v>137</v>
@@ -63103,7 +63153,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="912" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="2">
         <v>2025</v>
       </c>
@@ -63117,10 +63167,10 @@
         <v>22</v>
       </c>
       <c r="E912" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>337</v>
+        <v>47</v>
       </c>
       <c r="G912" s="2" t="s">
         <v>137</v>
@@ -63164,7 +63214,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="913" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A913" s="2">
         <v>2025</v>
       </c>
@@ -63225,7 +63275,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="914" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A914" s="2">
         <v>2025</v>
       </c>
@@ -63530,7 +63580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="919" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A919" s="2">
         <v>2025</v>
       </c>
@@ -63587,7 +63637,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="920" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A920" s="2">
         <v>2025</v>
       </c>
@@ -63644,7 +63694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="921" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A921" s="2">
         <v>2025</v>
       </c>
@@ -63701,7 +63751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="922" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A922" s="2">
         <v>2025</v>
       </c>
@@ -63758,7 +63808,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="923" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A923" s="2">
         <v>2025</v>
       </c>
@@ -63815,7 +63865,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="924" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="2">
         <v>2025</v>
       </c>
@@ -63829,10 +63879,10 @@
         <v>22</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F924" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G924" s="2" t="s">
         <v>169</v>
@@ -63925,7 +63975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="926" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="2">
         <v>2025</v>
       </c>
@@ -64035,7 +64085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="928" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="2">
         <v>2025</v>
       </c>
@@ -64049,10 +64099,10 @@
         <v>22</v>
       </c>
       <c r="E928" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F928" s="2" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="G928" s="2" t="s">
         <v>169</v>
@@ -64157,7 +64207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="930" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="2">
         <v>2025</v>
       </c>
@@ -64171,10 +64221,10 @@
         <v>22</v>
       </c>
       <c r="E930" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F930" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G930" s="2" t="s">
         <v>169</v>
@@ -64279,7 +64329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A932" s="2">
         <v>2025</v>
       </c>
@@ -64395,7 +64445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="934" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A934" s="2">
         <v>2025</v>
       </c>
@@ -64507,7 +64557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="936" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="2">
         <v>2025</v>
       </c>
@@ -64566,7 +64616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="937" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A937" s="2">
         <v>2025</v>
       </c>
@@ -64623,12 +64673,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="938" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="2">
         <v>2025</v>
       </c>
-      <c r="B938" s="13" t="s">
-        <v>2468</v>
+      <c r="B938" s="14" t="s">
+        <v>2364</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>2338</v>
@@ -64637,10 +64687,10 @@
         <v>22</v>
       </c>
       <c r="E938" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F938" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G938" s="2" t="s">
         <v>128</v>
@@ -64680,7 +64730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="939" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A939" s="2">
         <v>2025</v>
       </c>
@@ -64740,7 +64790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="940" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A940" s="2">
         <v>2025</v>
       </c>
@@ -64800,7 +64850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="941" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="2">
         <v>2025</v>
       </c>
@@ -64860,7 +64910,7 @@
       </c>
       <c r="V941" s="16"/>
     </row>
-    <row r="942" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="2">
         <v>2025</v>
       </c>
@@ -64920,7 +64970,7 @@
       </c>
       <c r="V942" s="16"/>
     </row>
-    <row r="943" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="2">
         <v>2025</v>
       </c>
@@ -64980,7 +65030,7 @@
       </c>
       <c r="V943" s="16"/>
     </row>
-    <row r="944" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="2">
         <v>2025</v>
       </c>
@@ -65040,7 +65090,7 @@
       </c>
       <c r="V944" s="16"/>
     </row>
-    <row r="945" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A945" s="2">
         <v>2025</v>
       </c>
@@ -65102,7 +65152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="946" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A946" s="2">
         <v>2025</v>
       </c>
@@ -65164,7 +65214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="947" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A947" s="2">
         <v>2025</v>
       </c>
@@ -65226,7 +65276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="948" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A948" s="2">
         <v>2025</v>
       </c>
@@ -65288,7 +65338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="949" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A949" s="2">
         <v>2025</v>
       </c>
@@ -65350,7 +65400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="950" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A950" s="2">
         <v>2025</v>
       </c>
@@ -65412,7 +65462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="951" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A951" s="2">
         <v>2025</v>
       </c>
@@ -65474,7 +65524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="952" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A952" s="2">
         <v>2025</v>
       </c>
@@ -65536,7 +65586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="953" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A953" s="2">
         <v>2025</v>
       </c>
@@ -65596,7 +65646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="954" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A954" s="2">
         <v>2025</v>
       </c>
@@ -65658,7 +65708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="955" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A955" s="2">
         <v>2025</v>
       </c>
@@ -65720,7 +65770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="956" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A956" s="2">
         <v>2025</v>
       </c>
@@ -65782,7 +65832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="957" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A957" s="2">
         <v>2025</v>
       </c>
@@ -65844,7 +65894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="958" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A958" s="2">
         <v>2025</v>
       </c>
@@ -65906,7 +65956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="959" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="2">
         <v>2025</v>
       </c>
@@ -65966,7 +66016,7 @@
       </c>
       <c r="V959" s="20"/>
     </row>
-    <row r="960" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="2">
         <v>2025</v>
       </c>
@@ -66026,7 +66076,7 @@
       </c>
       <c r="V960" s="20"/>
     </row>
-    <row r="961" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="2">
         <v>2025</v>
       </c>
@@ -66086,7 +66136,7 @@
       </c>
       <c r="V961" s="20"/>
     </row>
-    <row r="962" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="2">
         <v>2025</v>
       </c>
@@ -66146,7 +66196,7 @@
       </c>
       <c r="V962" s="20"/>
     </row>
-    <row r="963" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="2">
         <v>2025</v>
       </c>
@@ -66206,7 +66256,7 @@
       </c>
       <c r="V963" s="20"/>
     </row>
-    <row r="964" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="2">
         <v>2025</v>
       </c>
@@ -66266,7 +66316,7 @@
       </c>
       <c r="V964" s="20"/>
     </row>
-    <row r="965" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="2">
         <v>2025</v>
       </c>
@@ -66326,7 +66376,7 @@
       </c>
       <c r="V965" s="20"/>
     </row>
-    <row r="966" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="2">
         <v>2025</v>
       </c>
@@ -66386,7 +66436,7 @@
       </c>
       <c r="V966" s="20"/>
     </row>
-    <row r="967" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="2">
         <v>2025</v>
       </c>
@@ -66446,7 +66496,7 @@
       </c>
       <c r="V967" s="20"/>
     </row>
-    <row r="968" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="2">
         <v>2025</v>
       </c>
@@ -66504,7 +66554,7 @@
       </c>
       <c r="V968" s="20"/>
     </row>
-    <row r="969" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="2">
         <v>2025</v>
       </c>
@@ -66562,7 +66612,7 @@
       </c>
       <c r="V969" s="20"/>
     </row>
-    <row r="970" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2">
         <v>2025</v>
       </c>
@@ -66622,7 +66672,7 @@
       </c>
       <c r="V970" s="20"/>
     </row>
-    <row r="971" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="2">
         <v>2025</v>
       </c>
@@ -66682,7 +66732,7 @@
       </c>
       <c r="V971" s="20"/>
     </row>
-    <row r="972" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="2">
         <v>2025</v>
       </c>
@@ -66738,7 +66788,7 @@
       </c>
       <c r="V972" s="20"/>
     </row>
-    <row r="973" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="2">
         <v>2025</v>
       </c>
@@ -66792,7 +66842,7 @@
       </c>
       <c r="V973" s="20"/>
     </row>
-    <row r="974" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="2">
         <v>2025</v>
       </c>
@@ -66852,7 +66902,7 @@
       </c>
       <c r="V974" s="20"/>
     </row>
-    <row r="975" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="2">
         <v>2025</v>
       </c>
@@ -66912,7 +66962,7 @@
       </c>
       <c r="V975" s="20"/>
     </row>
-    <row r="976" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="2">
         <v>2025</v>
       </c>
@@ -66972,7 +67022,7 @@
       </c>
       <c r="V976" s="20"/>
     </row>
-    <row r="977" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="2">
         <v>2025</v>
       </c>
@@ -67032,7 +67082,7 @@
       </c>
       <c r="V977" s="20"/>
     </row>
-    <row r="978" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="2">
         <v>2025</v>
       </c>
@@ -67092,7 +67142,7 @@
       </c>
       <c r="V978" s="20"/>
     </row>
-    <row r="979" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A979" s="2">
         <v>2025</v>
       </c>
@@ -67151,12 +67201,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="980" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="2">
         <v>2025</v>
       </c>
-      <c r="B980" s="13" t="s">
-        <v>2468</v>
+      <c r="B980" s="14" t="s">
+        <v>2364</v>
       </c>
       <c r="C980" s="15" t="s">
         <v>2338</v>
@@ -67165,10 +67215,10 @@
         <v>22</v>
       </c>
       <c r="E980" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F980" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="G980" s="15" t="s">
         <v>128</v>
@@ -67210,12 +67260,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="981" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="2">
         <v>2025</v>
       </c>
       <c r="B981" s="13" t="s">
-        <v>2576</v>
+        <v>76</v>
       </c>
       <c r="C981" s="15" t="s">
         <v>2337</v>
@@ -67224,10 +67274,10 @@
         <v>22</v>
       </c>
       <c r="E981" s="2" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="F981" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="G981" s="15" t="s">
         <v>128</v>
@@ -67269,7 +67319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="982" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A982" s="2">
         <v>2025</v>
       </c>
@@ -67328,7 +67378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="983" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2">
         <v>2025</v>
       </c>
@@ -67388,7 +67438,7 @@
       </c>
       <c r="V983" s="20"/>
     </row>
-    <row r="984" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="2">
         <v>2025</v>
       </c>
@@ -67448,7 +67498,7 @@
       </c>
       <c r="V984" s="20"/>
     </row>
-    <row r="985" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="2">
         <v>2025</v>
       </c>
@@ -67508,7 +67558,7 @@
       </c>
       <c r="V985" s="20"/>
     </row>
-    <row r="986" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2">
         <v>2025</v>
       </c>
@@ -67690,7 +67740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="989" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="2">
         <v>2025</v>
       </c>
@@ -67746,7 +67796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="990" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="2">
         <v>2025</v>
       </c>
@@ -67802,7 +67852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="991" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="2">
         <v>2025</v>
       </c>
@@ -67858,7 +67908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="992" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2">
         <v>2025</v>
       </c>
@@ -67914,7 +67964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="993" spans="1:22" s="47" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:22" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="40">
         <v>2025</v>
       </c>
@@ -67970,7 +68020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="994" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2">
         <v>2025</v>
       </c>
@@ -68026,7 +68076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="995" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2">
         <v>2025</v>
       </c>
@@ -68082,7 +68132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="996" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2">
         <v>2025</v>
       </c>
@@ -68138,7 +68188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="997" spans="1:22" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="2">
         <v>2025</v>
       </c>
@@ -68253,7 +68303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="999" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="2">
         <v>2025</v>
       </c>
@@ -68313,7 +68363,7 @@
       </c>
       <c r="V999" s="20"/>
     </row>
-    <row r="1000" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="2">
         <v>2025</v>
       </c>
@@ -68373,7 +68423,7 @@
       </c>
       <c r="V1000" s="20"/>
     </row>
-    <row r="1001" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="2">
         <v>2025</v>
       </c>
@@ -68433,7 +68483,7 @@
       </c>
       <c r="V1001" s="20"/>
     </row>
-    <row r="1002" spans="1:22" s="47" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:22" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="40">
         <v>2025</v>
       </c>
@@ -68493,7 +68543,7 @@
       </c>
       <c r="V1002" s="45"/>
     </row>
-    <row r="1003" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="2">
         <v>2025</v>
       </c>
@@ -68553,7 +68603,7 @@
       </c>
       <c r="V1003" s="20"/>
     </row>
-    <row r="1004" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="2">
         <v>2025</v>
       </c>
@@ -68613,7 +68663,7 @@
       </c>
       <c r="V1004" s="20"/>
     </row>
-    <row r="1005" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="2">
         <v>2025</v>
       </c>
@@ -68673,7 +68723,7 @@
       </c>
       <c r="V1005" s="20"/>
     </row>
-    <row r="1006" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="2">
         <v>2025</v>
       </c>
@@ -68733,7 +68783,7 @@
       </c>
       <c r="V1006" s="20"/>
     </row>
-    <row r="1007" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="2">
         <v>2025</v>
       </c>
@@ -68793,7 +68843,7 @@
       </c>
       <c r="V1007" s="20"/>
     </row>
-    <row r="1008" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="2">
         <v>2025</v>
       </c>
@@ -68853,7 +68903,7 @@
       </c>
       <c r="V1008" s="20"/>
     </row>
-    <row r="1009" spans="1:22" s="47" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:22" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="40">
         <v>2025</v>
       </c>
@@ -68913,7 +68963,7 @@
       </c>
       <c r="V1009" s="45"/>
     </row>
-    <row r="1010" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="2">
         <v>2025</v>
       </c>
@@ -68973,7 +69023,7 @@
       </c>
       <c r="V1010" s="20"/>
     </row>
-    <row r="1011" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="2">
         <v>2025</v>
       </c>
@@ -69033,7 +69083,7 @@
       </c>
       <c r="V1011" s="20"/>
     </row>
-    <row r="1012" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="2">
         <v>2025</v>
       </c>
@@ -69093,7 +69143,7 @@
       </c>
       <c r="V1012" s="20"/>
     </row>
-    <row r="1013" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="2">
         <v>2025</v>
       </c>
@@ -69153,7 +69203,7 @@
       </c>
       <c r="V1013" s="20"/>
     </row>
-    <row r="1014" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="2">
         <v>2025</v>
       </c>
@@ -69211,7 +69261,7 @@
       </c>
       <c r="V1014" s="20"/>
     </row>
-    <row r="1015" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="2">
         <v>2025</v>
       </c>
@@ -69271,7 +69321,7 @@
       </c>
       <c r="V1015" s="20"/>
     </row>
-    <row r="1016" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1016" s="2">
         <v>2025</v>
       </c>
@@ -69331,7 +69381,7 @@
       </c>
       <c r="V1016" s="20"/>
     </row>
-    <row r="1017" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="2">
         <v>2025</v>
       </c>
@@ -69391,7 +69441,7 @@
       </c>
       <c r="V1017" s="20"/>
     </row>
-    <row r="1018" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="2">
         <v>2025</v>
       </c>
@@ -69451,7 +69501,7 @@
       </c>
       <c r="V1018" s="20"/>
     </row>
-    <row r="1019" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1019" s="2">
         <v>2025</v>
       </c>
@@ -69511,7 +69561,7 @@
       </c>
       <c r="V1019" s="20"/>
     </row>
-    <row r="1020" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="2">
         <v>2025</v>
       </c>
@@ -69571,7 +69621,7 @@
       </c>
       <c r="V1020" s="20"/>
     </row>
-    <row r="1021" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1021" s="2">
         <v>2025</v>
       </c>
@@ -69631,7 +69681,7 @@
       </c>
       <c r="V1021" s="20"/>
     </row>
-    <row r="1022" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="2">
         <v>2025</v>
       </c>
@@ -69691,7 +69741,7 @@
       </c>
       <c r="V1022" s="20"/>
     </row>
-    <row r="1023" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1023" s="2">
         <v>2025</v>
       </c>
@@ -69751,7 +69801,7 @@
       </c>
       <c r="V1023" s="20"/>
     </row>
-    <row r="1024" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="2">
         <v>2025</v>
       </c>
@@ -69811,7 +69861,7 @@
       </c>
       <c r="V1024" s="20"/>
     </row>
-    <row r="1025" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1025" s="2">
         <v>2025</v>
       </c>
@@ -69871,7 +69921,7 @@
       </c>
       <c r="V1025" s="20"/>
     </row>
-    <row r="1026" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="2">
         <v>2025</v>
       </c>
@@ -69931,7 +69981,7 @@
       </c>
       <c r="V1026" s="20"/>
     </row>
-    <row r="1027" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="2">
         <v>2025</v>
       </c>
@@ -69991,7 +70041,7 @@
       </c>
       <c r="V1027" s="20"/>
     </row>
-    <row r="1028" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="2">
         <v>2025</v>
       </c>
@@ -70051,7 +70101,7 @@
       </c>
       <c r="V1028" s="20"/>
     </row>
-    <row r="1029" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="2">
         <v>2025</v>
       </c>
@@ -70111,7 +70161,7 @@
       </c>
       <c r="V1029" s="20"/>
     </row>
-    <row r="1030" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1030" s="2">
         <v>2025</v>
       </c>
@@ -70171,7 +70221,7 @@
       </c>
       <c r="V1030" s="20"/>
     </row>
-    <row r="1031" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1031" s="2">
         <v>2025</v>
       </c>
@@ -70231,7 +70281,7 @@
       </c>
       <c r="V1031" s="20"/>
     </row>
-    <row r="1032" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1032" s="2">
         <v>2025</v>
       </c>
@@ -70291,7 +70341,7 @@
       </c>
       <c r="V1032" s="20"/>
     </row>
-    <row r="1033" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1033" s="2">
         <v>2025</v>
       </c>
@@ -70351,7 +70401,7 @@
       </c>
       <c r="V1033" s="20"/>
     </row>
-    <row r="1034" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1034" s="2">
         <v>2025</v>
       </c>
@@ -70409,7 +70459,7 @@
       </c>
       <c r="V1034" s="20"/>
     </row>
-    <row r="1035" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1035" s="2">
         <v>2025</v>
       </c>
@@ -70469,7 +70519,7 @@
       </c>
       <c r="V1035" s="20"/>
     </row>
-    <row r="1036" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1036" s="2">
         <v>2025</v>
       </c>
@@ -70529,7 +70579,7 @@
       </c>
       <c r="V1036" s="20"/>
     </row>
-    <row r="1037" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1037" s="2">
         <v>2025</v>
       </c>
@@ -70589,7 +70639,7 @@
       </c>
       <c r="V1037" s="20"/>
     </row>
-    <row r="1038" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1038" s="2">
         <v>2025</v>
       </c>
@@ -70649,7 +70699,7 @@
       </c>
       <c r="V1038" s="20"/>
     </row>
-    <row r="1039" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1039" s="2">
         <v>2025</v>
       </c>
@@ -70709,7 +70759,7 @@
       </c>
       <c r="V1039" s="20"/>
     </row>
-    <row r="1040" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1040" s="2">
         <v>2025</v>
       </c>
@@ -70764,7 +70814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1041" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1041" s="2">
         <v>2025</v>
       </c>
@@ -70819,7 +70869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1042" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1042" s="2">
         <v>2025</v>
       </c>
@@ -70874,7 +70924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1043" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1043" s="2">
         <v>2025</v>
       </c>
@@ -70929,7 +70979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1044" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1044" s="2">
         <v>2025</v>
       </c>
@@ -70984,7 +71034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1045" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1045" s="2">
         <v>2025</v>
       </c>
@@ -70997,11 +71047,11 @@
       <c r="D1045" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1045" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1045" s="15" t="s">
-        <v>337</v>
+      <c r="E1045" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1045" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="G1045" s="2" t="s">
         <v>169</v>
@@ -71035,11 +71085,14 @@
       <c r="R1045" s="2" t="s">
         <v>1294</v>
       </c>
+      <c r="S1045" s="2" t="s">
+        <v>1294</v>
+      </c>
       <c r="T1045" s="18"/>
       <c r="U1045" s="2"/>
       <c r="V1045" s="20"/>
     </row>
-    <row r="1046" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1046" s="2">
         <v>2025</v>
       </c>
@@ -71052,11 +71105,11 @@
       <c r="D1046" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1046" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1046" s="15" t="s">
-        <v>337</v>
+      <c r="E1046" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1046" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G1046" s="2" t="s">
         <v>25</v>
@@ -71099,7 +71152,7 @@
       </c>
       <c r="V1046" s="20"/>
     </row>
-    <row r="1047" spans="1:22" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1047" s="2">
         <v>2025</v>
       </c>
@@ -71112,10 +71165,10 @@
       <c r="D1047" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1047" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1047" s="15" t="s">
+      <c r="E1047" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1047" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G1047" s="2" t="s">
@@ -71159,19 +71212,1118 @@
       </c>
       <c r="V1047" s="20"/>
     </row>
+    <row r="1048" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1048" s="13" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1048" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1048" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1048" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1048" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1048" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="I1048" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1048" s="2"/>
+      <c r="K1048" s="2"/>
+      <c r="L1048" s="15"/>
+      <c r="M1048" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1048" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1048" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="P1048" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1048" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1048" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1048" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1048" s="18"/>
+      <c r="U1048" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1048" s="20"/>
+    </row>
+    <row r="1049" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1049" s="13" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1049" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1049" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1049" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1049" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1049" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="I1049" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1049" s="2"/>
+      <c r="K1049" s="2"/>
+      <c r="L1049" s="15"/>
+      <c r="M1049" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1049" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1049" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="P1049" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1049" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1049" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1049" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1049" s="18"/>
+      <c r="U1049" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1049" s="20"/>
+    </row>
+    <row r="1050" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1050" s="13" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1050" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1050" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1050" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1050" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1050" s="2" t="s">
+        <v>2769</v>
+      </c>
+      <c r="I1050" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1050" s="2"/>
+      <c r="K1050" s="2"/>
+      <c r="L1050" s="15"/>
+      <c r="M1050" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1050" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1050" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="P1050" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1050" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1050" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1050" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1050" s="18"/>
+      <c r="U1050" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1050" s="20"/>
+    </row>
+    <row r="1051" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1051" s="13" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C1051" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1051" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1051" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1051" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1051" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I1051" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1051" s="2"/>
+      <c r="K1051" s="2"/>
+      <c r="L1051" s="15"/>
+      <c r="M1051" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1051" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1051" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="P1051" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1051" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1051" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1051" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1051" s="18"/>
+      <c r="U1051" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1051" s="20"/>
+    </row>
+    <row r="1052" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1052" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1052" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1052" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1052" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1052" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1052" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I1052" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1052" s="2"/>
+      <c r="K1052" s="2"/>
+      <c r="L1052" s="15"/>
+      <c r="M1052" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1052" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1052" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="P1052" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1052" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1052" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1052" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1052" s="18"/>
+      <c r="U1052" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1052" s="20"/>
+    </row>
+    <row r="1053" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1053" s="13" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C1053" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1053" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1053" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1053" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1053" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I1053" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1053" s="2"/>
+      <c r="K1053" s="2"/>
+      <c r="L1053" s="15"/>
+      <c r="M1053" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1053" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1053" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="P1053" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1053" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1053" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1053" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1053" s="18"/>
+      <c r="U1053" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1053" s="20"/>
+    </row>
+    <row r="1054" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1054" s="13" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C1054" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1054" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1054" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1054" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1054" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I1054" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1054" s="2"/>
+      <c r="K1054" s="2"/>
+      <c r="L1054" s="15"/>
+      <c r="M1054" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1054" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1054" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="P1054" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1054" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1054" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1054" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1054" s="18"/>
+      <c r="U1054" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1054" s="20"/>
+    </row>
+    <row r="1055" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1055" s="13" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1055" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1055" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1055" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1055" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1055" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I1055" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1055" s="2"/>
+      <c r="K1055" s="2"/>
+      <c r="L1055" s="15"/>
+      <c r="M1055" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1055" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1055" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="P1055" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1055" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1055" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1055" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1055" s="18"/>
+      <c r="U1055" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1055" s="20"/>
+    </row>
+    <row r="1056" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1056" s="13" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C1056" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1056" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1056" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1056" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1056" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="I1056" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1056" s="2"/>
+      <c r="K1056" s="2"/>
+      <c r="L1056" s="15"/>
+      <c r="M1056" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1056" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1056" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="P1056" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1056" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1056" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1056" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1056" s="18"/>
+      <c r="U1056" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1056" s="20"/>
+    </row>
+    <row r="1057" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1057" s="13" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1057" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1057" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1057" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1057" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1057" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="I1057" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1057" s="2"/>
+      <c r="K1057" s="2"/>
+      <c r="L1057" s="15"/>
+      <c r="M1057" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1057" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1057" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="P1057" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1057" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1057" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1057" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1057" s="18"/>
+      <c r="U1057" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1057" s="20"/>
+    </row>
+    <row r="1058" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1058" s="13" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C1058" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1058" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1058" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1058" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1058" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="I1058" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1058" s="2"/>
+      <c r="K1058" s="2"/>
+      <c r="L1058" s="15"/>
+      <c r="M1058" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1058" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1058" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="P1058" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1058" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1058" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1058" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1058" s="18"/>
+      <c r="U1058" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1058" s="20"/>
+    </row>
+    <row r="1059" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1059" s="13" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C1059" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1059" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1059" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1059" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1059" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="I1059" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1059" s="2"/>
+      <c r="K1059" s="2"/>
+      <c r="L1059" s="15"/>
+      <c r="M1059" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1059" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1059" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="P1059" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1059" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1059" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1059" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1059" s="18"/>
+      <c r="U1059" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1059" s="20"/>
+    </row>
+    <row r="1060" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1060" s="13" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1060" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1060" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1060" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1060" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1060" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="I1060" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1060" s="2"/>
+      <c r="K1060" s="2"/>
+      <c r="L1060" s="15"/>
+      <c r="M1060" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1060" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1060" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="P1060" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1060" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1060" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1060" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1060" s="18"/>
+      <c r="U1060" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1060" s="20"/>
+    </row>
+    <row r="1061" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1061" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1061" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1061" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1061" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1061" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1061" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="I1061" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1061" s="2"/>
+      <c r="K1061" s="2"/>
+      <c r="L1061" s="15"/>
+      <c r="M1061" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1061" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1061" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="P1061" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1061" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1061" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1061" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1061" s="18"/>
+      <c r="U1061" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1061" s="20"/>
+    </row>
+    <row r="1062" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1062" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1062" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1062" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1062" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1062" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1062" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="I1062" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1062" s="2"/>
+      <c r="K1062" s="2"/>
+      <c r="L1062" s="15"/>
+      <c r="M1062" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1062" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1062" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="P1062" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1062" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1062" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1062" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1062" s="18"/>
+      <c r="U1062" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1062" s="20"/>
+    </row>
+    <row r="1063" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1063" s="13" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1063" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1063" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1063" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1063" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1063" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="I1063" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1063" s="2"/>
+      <c r="K1063" s="2"/>
+      <c r="L1063" s="15"/>
+      <c r="M1063" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1063" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1063" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="P1063" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1063" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1063" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1063" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1063" s="18"/>
+      <c r="U1063" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1063" s="20"/>
+    </row>
+    <row r="1064" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1064" s="13" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1064" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1064" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1064" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1064" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1064" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="I1064" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1064" s="2"/>
+      <c r="K1064" s="2"/>
+      <c r="L1064" s="15"/>
+      <c r="M1064" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1064" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1064" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="P1064" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1064" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1064" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1064" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1064" s="18"/>
+      <c r="U1064" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1064" s="20"/>
+    </row>
+    <row r="1065" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1065" s="13" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1065" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1065" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1065" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1065" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1065" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="I1065" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1065" s="2"/>
+      <c r="K1065" s="2"/>
+      <c r="L1065" s="15"/>
+      <c r="M1065" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1065" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1065" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="P1065" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1065" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1065" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1065" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1065" s="18"/>
+      <c r="U1065" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1065" s="20"/>
+    </row>
+    <row r="1066" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1066" s="13" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1066" s="15" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1066" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1066" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1066" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1066" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="I1066" s="15" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J1066" s="2"/>
+      <c r="K1066" s="2"/>
+      <c r="L1066" s="15"/>
+      <c r="M1066" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="N1066" s="3">
+        <v>45981</v>
+      </c>
+      <c r="O1066" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="P1066" s="16" t="s">
+        <v>2784</v>
+      </c>
+      <c r="Q1066" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1066" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S1066" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1066" s="18"/>
+      <c r="U1066" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1066" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X1047" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ARTICULO DE IMPACTO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C934 C936:C937 C1035" xr:uid="{77035EE9-4270-41DB-9522-12AD93AD883D}">
+  <autoFilter ref="A1:X1066" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C934 C936:C937 C1035 C1048:C1066" xr:uid="{77035EE9-4270-41DB-9522-12AD93AD883D}">
       <formula1>"OCASIONAL,NOMBRAMIENTO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F941:F943 F959:F962 F949" xr:uid="{DF08BDE5-E594-42F7-ABE2-029B6828F163}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048:D1066" xr:uid="{CFCAB6ED-DA8D-4888-9216-C2DE6C42A2E2}">
+      <formula1>"GUAYAQUIL,MILAGRO,NARANJAL,EL TRIUNFO,PALESTINA,BALZAR"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O924" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -71212,6 +72364,22 @@
     <hyperlink ref="O998" r:id="rId36" xr:uid="{A8255945-C39B-46B1-B634-F70EE1872C0D}"/>
     <hyperlink ref="M998" r:id="rId37" xr:uid="{480856F9-C0A5-4CD5-90F7-17BFF33A0A95}"/>
     <hyperlink ref="O891" r:id="rId38" xr:uid="{D7467A19-E77A-449E-8657-D0829900B9B8}"/>
+    <hyperlink ref="O1051" r:id="rId39" xr:uid="{D0BE1D8F-EDAC-4D10-BAA9-BA41614BF660}"/>
+    <hyperlink ref="O1052:O1054" r:id="rId40" display="https://doi.org/10.1007/978-3-032-11494-5_2" xr:uid="{D6E4D0B0-0839-4FC6-9FDD-0FF3D9BC74F0}"/>
+    <hyperlink ref="O1055" r:id="rId41" xr:uid="{7DAA4EBA-95FF-4948-8965-0256F843BED7}"/>
+    <hyperlink ref="O1056" r:id="rId42" xr:uid="{A4FA088D-66A1-4195-82C8-5A17692C14BF}"/>
+    <hyperlink ref="O1057" r:id="rId43" xr:uid="{9222D106-B664-44AB-8489-9E7CF824210F}"/>
+    <hyperlink ref="O1058" r:id="rId44" xr:uid="{CDA00BE2-5756-4579-9A00-83708BFF802D}"/>
+    <hyperlink ref="O1059" r:id="rId45" xr:uid="{5BE1E45B-ABB7-49A9-A36A-D93BAD5ED82C}"/>
+    <hyperlink ref="O1060" r:id="rId46" xr:uid="{0F364E15-3715-474F-973C-5247A23395A4}"/>
+    <hyperlink ref="O1061" r:id="rId47" xr:uid="{D0445DB8-3F37-402D-8476-A2F9B433EC60}"/>
+    <hyperlink ref="O1063" r:id="rId48" xr:uid="{C6AA2215-4883-4DD4-B5BA-387BF5F8B204}"/>
+    <hyperlink ref="O1064" r:id="rId49" xr:uid="{EE1614A0-6CD5-486B-B683-E211D9BC01E8}"/>
+    <hyperlink ref="O1065" r:id="rId50" xr:uid="{547D888A-BE49-4367-9004-69868100B687}"/>
+    <hyperlink ref="O1066" r:id="rId51" xr:uid="{B4635F77-6BDF-49DC-87C0-68CE8684DA53}"/>
+    <hyperlink ref="M1048" r:id="rId52" xr:uid="{8E779E8F-B410-4F91-9F37-A0C41AD4790F}"/>
+    <hyperlink ref="M1049:M1066" r:id="rId53" display="https://link.springer.com/book/10.1007/978-3-032-11494-5" xr:uid="{33DF8EE1-41A2-4651-9777-18B8762F96E9}"/>
+    <hyperlink ref="P1048:P1066" r:id="rId54" display="https://link.springer.com/book/10.1007/978-3-032-11494-5" xr:uid="{A5A8FAB5-4368-43F6-86ED-C00DA044FCD6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
